--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BCGcalc/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="4335" windowWidth="14355" windowHeight="9780" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="5535" windowWidth="14355" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -114,18 +114,6 @@
     <t>&lt;</t>
   </si>
   <si>
-    <t>density_m2</t>
-  </si>
-  <si>
-    <t>density_ft2</t>
-  </si>
-  <si>
-    <t>area_mi2</t>
-  </si>
-  <si>
-    <t>surfacearea</t>
-  </si>
-  <si>
     <t>&gt;=</t>
   </si>
   <si>
@@ -183,9 +171,6 @@
     <t>BCG_PacNW_2018</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>Hi</t>
   </si>
   <si>
@@ -216,10 +201,25 @@
     <t>surface area, small</t>
   </si>
   <si>
-    <t>brackish org.</t>
-  </si>
-  <si>
     <t>Ramellogammarus</t>
+  </si>
+  <si>
+    <t>SiteType</t>
+  </si>
+  <si>
+    <t>SurfaceArea</t>
+  </si>
+  <si>
+    <t>Area_mi2</t>
+  </si>
+  <si>
+    <t>Density_ft2</t>
+  </si>
+  <si>
+    <t>Density_m2</t>
+  </si>
+  <si>
+    <t>brackish organisms present</t>
   </si>
 </sst>
 </file>
@@ -757,12 +757,12 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -782,7 +782,7 @@
       </c>
       <c r="B7" s="7" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BCGcalc/inst/extdata/[MetricFlags.xlsx]</v>
+        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\[MetricFlags.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -838,10 +838,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" s="10" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</f>
@@ -850,10 +850,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18" s="12" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A18&amp;"!A1",A18)</f>
@@ -906,65 +906,65 @@
         <v>8</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -981,7 +981,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11:F19"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,30 +994,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1029,15 +1029,15 @@
         <v>600</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1049,18 +1049,18 @@
         <v>450</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1069,18 +1069,18 @@
         <v>500</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1089,18 +1089,18 @@
         <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1109,18 +1109,18 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -1129,18 +1129,18 @@
         <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1149,18 +1149,18 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -1169,35 +1169,35 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -1209,15 +1209,15 @@
         <v>600</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -1229,18 +1229,18 @@
         <v>450</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -1249,18 +1249,18 @@
         <v>500</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1269,18 +1269,18 @@
         <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -1289,18 +1289,18 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -1309,18 +1309,18 @@
         <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -1329,18 +1329,18 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -1349,27 +1349,27 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="5535" windowWidth="14355" windowHeight="9780" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="6135" windowWidth="14355" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +314,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +361,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -379,6 +385,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -981,7 +988,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1066,7 @@
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D4" t="s">
@@ -1079,7 +1086,7 @@
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D5" t="s">
@@ -1099,7 +1106,7 @@
       <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D6" t="s">
@@ -1119,7 +1126,7 @@
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D7" t="s">
@@ -1139,7 +1146,7 @@
       <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D8" t="s">
@@ -1239,7 +1246,7 @@
       <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D13" t="s">
@@ -1259,7 +1266,7 @@
       <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D14" t="s">
@@ -1279,7 +1286,7 @@
       <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D15" t="s">
@@ -1299,7 +1306,7 @@
       <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D16" t="s">
@@ -1319,7 +1326,7 @@
       <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D17" t="s">

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="6135" windowWidth="14355" windowHeight="9780" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="6735" windowWidth="14355" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="55">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -204,9 +204,6 @@
     <t>Ramellogammarus</t>
   </si>
   <si>
-    <t>SiteType</t>
-  </si>
-  <si>
     <t>SurfaceArea</t>
   </si>
   <si>
@@ -220,6 +217,12 @@
   </si>
   <si>
     <t>brackish organisms present</t>
+  </si>
+  <si>
+    <t>Metric_Name</t>
+  </si>
+  <si>
+    <t>Site_Type</t>
   </si>
 </sst>
 </file>
@@ -988,7 +991,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13:C17"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,10 +1007,10 @@
         <v>34</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>20</v>
@@ -1067,7 +1070,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1087,7 +1090,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1107,7 +1110,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1127,7 +1130,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -1147,7 +1150,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1176,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,7 +1250,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -1267,7 +1270,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1287,7 +1290,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -1307,7 +1310,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -1327,7 +1330,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -1356,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="6735" windowWidth="14355" windowHeight="9780" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="7935" windowWidth="14355" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="57">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Description of Work</t>
   </si>
   <si>
-    <t>blah, blah, blah</t>
-  </si>
-  <si>
     <t>Worksheet</t>
   </si>
   <si>
@@ -223,6 +220,15 @@
   </si>
   <si>
     <t>Site_Type</t>
+  </si>
+  <si>
+    <t>pi_dom02</t>
+  </si>
+  <si>
+    <t>individuals, dominant 02, Large</t>
+  </si>
+  <si>
+    <t>QC flags for Pacific Northwest Biological Condition Gradient (2018) model.</t>
   </si>
 </sst>
 </file>
@@ -301,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +329,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +376,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -389,6 +401,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -754,8 +768,8 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,12 +781,12 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -783,7 +797,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>43162</v>
+        <v>43259</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -820,18 +834,18 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,7 +853,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="10" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</f>
@@ -848,10 +862,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
       </c>
       <c r="C17" s="10" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</f>
@@ -860,10 +874,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
         <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
       </c>
       <c r="C18" s="12" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A18&amp;"!A1",A18)</f>
@@ -913,68 +927,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -987,11 +1001,11 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,382 +1018,422 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
       </c>
       <c r="E2">
         <v>600</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>450</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>500</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
       <c r="C6" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
+      <c r="C11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>600</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
       <c r="E12">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>47</v>
+        <v>500</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
         <v>10</v>
       </c>
-      <c r="F19" t="s">
-        <v>47</v>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{26A216D5-C735-46D0-BE59-FCE05F0A8175}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="7935" windowWidth="14355" windowHeight="9780"/>
+    <workbookView xWindow="480" yWindow="8535" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,17 @@
   <definedNames>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Erik W. Leppo</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="58">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -165,9 +166,6 @@
     <t>ni_Ramello</t>
   </si>
   <si>
-    <t>BCG_PacNW_2018</t>
-  </si>
-  <si>
     <t>Hi</t>
   </si>
   <si>
@@ -229,12 +227,18 @@
   </si>
   <si>
     <t>QC flags for Pacific Northwest Biological Condition Gradient (2018) model.</t>
+  </si>
+  <si>
+    <t>BCG_PacNW_v1_500ct</t>
+  </si>
+  <si>
+    <t>BCG_PacNW_v1_300ct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,7 +311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +339,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,7 +386,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -403,6 +413,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -429,12 +443,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A15:C18" totalsRowShown="0">
-  <autoFilter ref="A15:C18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A15:C18" totalsRowShown="0">
+  <autoFilter ref="A15:C18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Worksheet"/>
-    <tableColumn id="2" name="Descriptions"/>
-    <tableColumn id="3" name="Link" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Worksheet"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descriptions"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="0">
       <calculatedColumnFormula>HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -762,14 +776,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +811,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>43259</v>
+        <v>43369</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -834,7 +848,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -867,7 +881,7 @@
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="10" t="str">
+      <c r="C17" s="17" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</f>
         <v>meta</v>
       </c>
@@ -886,12 +900,12 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>""</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="91" orientation="portrait" r:id="rId2"/>
@@ -907,9 +921,9 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
-    <tabColor theme="0" tint="-0.499984740745262"/>
+    <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -997,20 +1011,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
@@ -1021,10 +1035,10 @@
         <v>33</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>19</v>
@@ -1033,15 +1047,15 @@
         <v>12</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1050,18 +1064,19 @@
         <v>15</v>
       </c>
       <c r="E2">
+        <f>500*1.2</f>
         <v>600</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -1070,21 +1085,22 @@
         <v>16</v>
       </c>
       <c r="E3">
-        <v>450</v>
+        <f>500*0.8</f>
+        <v>400</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -1093,18 +1109,18 @@
         <v>500</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1113,18 +1129,18 @@
         <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -1133,18 +1149,18 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1153,18 +1169,18 @@
         <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -1173,15 +1189,15 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -1193,15 +1209,15 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -1213,18 +1229,18 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>17</v>
@@ -1233,15 +1249,15 @@
         <v>0.5</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1253,15 +1269,15 @@
         <v>600</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1273,18 +1289,18 @@
         <v>450</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -1293,18 +1309,18 @@
         <v>500</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -1313,18 +1329,18 @@
         <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -1333,18 +1349,18 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -1353,18 +1369,18 @@
         <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -1373,15 +1389,15 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -1393,15 +1409,15 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
@@ -1413,18 +1429,18 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>17</v>
@@ -1433,7 +1449,415 @@
         <v>0.5</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <f>300*1.2</f>
+        <v>360</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <f>300*0.8</f>
+        <v>240</v>
+      </c>
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <f>500*300/500</f>
+        <v>300</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <f>47*300/500</f>
+        <v>28.2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <f>E22</f>
+        <v>360</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33:E35" si="0">E23</f>
+        <v>240</v>
+      </c>
+      <c r="F33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="F34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>28.2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41">
+        <v>0.5</v>
+      </c>
+      <c r="F41" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{26A216D5-C735-46D0-BE59-FCE05F0A8175}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{296A98ED-1700-49A8-9F80-0DD6494D516A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="8535" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="9135" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -1019,7 +1019,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,8 +1841,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>56</v>
+      <c r="A41" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{296A98ED-1700-49A8-9F80-0DD6494D516A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="10_ncr:100000_{296A98ED-1700-49A8-9F80-0DD6494D516A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D4D0070B-62CF-4C57-9F72-649D48B44C65}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="9135" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="11535" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,17 @@
     <sheet name="Flags" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flags!$A$1:$G$41</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -59,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="59">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -233,6 +241,9 @@
   </si>
   <si>
     <t>BCG_PacNW_v1_300ct</t>
+  </si>
+  <si>
+    <t>Index_Region</t>
   </si>
 </sst>
 </file>
@@ -811,7 +822,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>43369</v>
+        <v>43539</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1015,22 +1026,22 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -1038,221 +1049,254 @@
         <v>52</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <f>500*1.2</f>
         <v>600</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <f>500*0.8</f>
         <v>400</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>500</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>47</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>100</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E11">
-        <v>0.5</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1260,19 +1304,22 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>600</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1280,119 +1327,137 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>16</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>450</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>16</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>500</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>16</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>47</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>16</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>15</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>100</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>16</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>8</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1400,19 +1465,22 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>15</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1420,243 +1488,279 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
         <v>34</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>17</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>10</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E21">
-        <v>0.5</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>15</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f>300*1.2</f>
         <v>360</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
         <v>14</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>16</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f>300*0.8</f>
         <v>240</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>16</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f>500*300/500</f>
         <v>300</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>16</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f>47*300/500</f>
         <v>28.2</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>16</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>15</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>100</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>16</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>8</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
         <v>18</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>15</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
         <v>34</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>17</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>10</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="E31" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E31">
-        <v>0.5</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>57</v>
       </c>
@@ -1664,20 +1768,23 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
         <v>14</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>15</v>
       </c>
-      <c r="E32">
-        <f>E22</f>
+      <c r="F32">
+        <f>F22</f>
         <v>360</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>57</v>
       </c>
@@ -1685,122 +1792,140 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
         <v>14</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>16</v>
       </c>
-      <c r="E33">
-        <f t="shared" ref="E33:E35" si="0">E23</f>
+      <c r="F33">
+        <f t="shared" ref="F33:F35" si="0">F23</f>
         <v>240</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>16</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>16</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <f t="shared" si="0"/>
         <v>28.2</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>16</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>2</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>15</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>100</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>16</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>8</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>57</v>
       </c>
@@ -1808,19 +1933,22 @@
         <v>36</v>
       </c>
       <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
         <v>18</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>15</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>57</v>
       </c>
@@ -1828,39 +1956,46 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
         <v>34</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>17</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>10</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="E41" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E41">
-        <v>0.5</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G41" xr:uid="{B5CF9324-C494-4CAD-A38F-B7E85B006248}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="10_ncr:100000_{296A98ED-1700-49A8-9F80-0DD6494D516A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D4D0070B-62CF-4C57-9F72-649D48B44C65}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="10_ncr:100000_{296A98ED-1700-49A8-9F80-0DD6494D516A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{357D3004-C421-4D4D-B575-D124824978CA}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="11535" windowWidth="14355" windowHeight="9780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="12735" windowWidth="14355" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -793,7 +793,7 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -822,7 +822,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>43539</v>
+        <v>43572</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1028,9 +1028,9 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C41"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,8 +1105,7 @@
         <v>16</v>
       </c>
       <c r="F3">
-        <f>500*0.8</f>
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G3" t="s">
         <v>39</v>

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="10_ncr:100000_{296A98ED-1700-49A8-9F80-0DD6494D516A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{357D3004-C421-4D4D-B575-D124824978CA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B325D594-E212-4348-B95D-D4AE338721E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="12735" windowWidth="14355" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -67,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="103">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -244,6 +248,138 @@
   </si>
   <si>
     <t>Index_Region</t>
+  </si>
+  <si>
+    <t>BCG_MariNW_Bugs500ct</t>
+  </si>
+  <si>
+    <t>HiGrad-LoElev</t>
+  </si>
+  <si>
+    <t>pcSLOPE</t>
+  </si>
+  <si>
+    <t>percent flowline slope, high</t>
+  </si>
+  <si>
+    <t>DrArea_mi2</t>
+  </si>
+  <si>
+    <t>watershed size, small (mi2)</t>
+  </si>
+  <si>
+    <t>watershed size, large (mi2)</t>
+  </si>
+  <si>
+    <t>CollMonth</t>
+  </si>
+  <si>
+    <t>index period, early</t>
+  </si>
+  <si>
+    <t>index period, late</t>
+  </si>
+  <si>
+    <t>SfcArea_ft2</t>
+  </si>
+  <si>
+    <t>surface area, small (ft2)</t>
+  </si>
+  <si>
+    <t>individuals, large</t>
+  </si>
+  <si>
+    <t>Subsample_percent</t>
+  </si>
+  <si>
+    <t>proxy for density, high proportion picked</t>
+  </si>
+  <si>
+    <t>low density (organisms/m2)</t>
+  </si>
+  <si>
+    <t>high proportion dominant 02 individs</t>
+  </si>
+  <si>
+    <t>pi_SimBtri</t>
+  </si>
+  <si>
+    <t>disturbance signal, high percent Baetis tricaudatus complex + Simuliidae individs</t>
+  </si>
+  <si>
+    <t>pi_Tromb</t>
+  </si>
+  <si>
+    <t>high percent mite individs</t>
+  </si>
+  <si>
+    <t>pi_JugaFlumi</t>
+  </si>
+  <si>
+    <t>high number of Juga or Fluminicola individs</t>
+  </si>
+  <si>
+    <t>nt_Ephem</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>EPT, missing mayfly taxa</t>
+  </si>
+  <si>
+    <t>nt_Pleco</t>
+  </si>
+  <si>
+    <t>EPT, missing stonefly taxa</t>
+  </si>
+  <si>
+    <t>nt_Trich</t>
+  </si>
+  <si>
+    <t>EPT, missing caddisfly taxa</t>
+  </si>
+  <si>
+    <t>nt_Coleo</t>
+  </si>
+  <si>
+    <t>missing beetle taxa</t>
+  </si>
+  <si>
+    <t>pt_volt_multi</t>
+  </si>
+  <si>
+    <t>disturbance signal, high proportion multivoltine taxa</t>
+  </si>
+  <si>
+    <t>pi_ffg_cfcg</t>
+  </si>
+  <si>
+    <t>nutrient signal, high proportion collector gatherer and filterer individs</t>
+  </si>
+  <si>
+    <t>pi_Chiro</t>
+  </si>
+  <si>
+    <t>high proportion Chironomidae individs</t>
+  </si>
+  <si>
+    <t>pi_Oligo</t>
+  </si>
+  <si>
+    <t>high proportion Oligochaeta individs</t>
+  </si>
+  <si>
+    <t>pi_CraCaeGam</t>
+  </si>
+  <si>
+    <t>urban signal, high proportion Crangonyx+Caecidotea+Gammarus individs</t>
+  </si>
+  <si>
+    <t>nt_habitat_brac</t>
+  </si>
+  <si>
+    <t>Added BCG_MariNW_Bugs500ct</t>
   </si>
 </sst>
 </file>
@@ -397,7 +533,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -428,6 +564,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -791,10 +928,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +959,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>43572</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -907,6 +1044,14 @@
       <c r="C18" s="12" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A18&amp;"!A1",A18)</f>
         <v>Flags</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>44531</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1026,11 +1171,11 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,6 +2138,486 @@
         <v>54</v>
       </c>
     </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48">
+        <v>600</v>
+      </c>
+      <c r="G48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49">
+        <v>450</v>
+      </c>
+      <c r="G49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50">
+        <v>75</v>
+      </c>
+      <c r="G50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51">
+        <v>1000</v>
+      </c>
+      <c r="G51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52">
+        <v>50</v>
+      </c>
+      <c r="G52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53">
+        <v>45</v>
+      </c>
+      <c r="G53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55">
+        <v>25</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60">
+        <v>50</v>
+      </c>
+      <c r="G60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61">
+        <v>80</v>
+      </c>
+      <c r="G61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62">
+        <v>30</v>
+      </c>
+      <c r="G62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G41" xr:uid="{B5CF9324-C494-4CAD-A38F-B7E85B006248}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B325D594-E212-4348-B95D-D4AE338721E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198A3F83-9669-42D0-A87E-CC8F55C30741}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31920" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Flags" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flags!$A$1:$G$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flags!$A$1:$H$65</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -70,8 +70,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Leppo, Erik</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{4127065B-6ED5-425C-AB9E-317FFF9AFDE1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Leppo, Erik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+R format so == not =</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="108">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -157,9 +191,6 @@
     <t>metric ID</t>
   </si>
   <si>
-    <t>math symbol; &gt;, &lt;, &gt;=, &lt;=, ==, or !=</t>
-  </si>
-  <si>
     <t>number to use in comparison</t>
   </si>
   <si>
@@ -322,9 +353,6 @@
     <t>nt_Ephem</t>
   </si>
   <si>
-    <t>=</t>
-  </si>
-  <si>
     <t>EPT, missing mayfly taxa</t>
   </si>
   <si>
@@ -352,9 +380,6 @@
     <t>disturbance signal, high proportion multivoltine taxa</t>
   </si>
   <si>
-    <t>pi_ffg_cfcg</t>
-  </si>
-  <si>
     <t>nutrient signal, high proportion collector gatherer and filterer individs</t>
   </si>
   <si>
@@ -380,13 +405,51 @@
   </si>
   <si>
     <t>Added BCG_MariNW_Bugs500ct</t>
+  </si>
+  <si>
+    <t>pi_ffg_col_filt</t>
+  </si>
+  <si>
+    <t>Updated metric names to match BioMonTools</t>
+  </si>
+  <si>
+    <t>BioMonTools_MetNam</t>
+  </si>
+  <si>
+    <t>Add BioMonTools_MetNam column</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">math symbol; &gt;, &lt;, &gt;=, &lt;=, ==, or !=
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Must be in R format</t>
+    </r>
+  </si>
+  <si>
+    <t>Add reminder that Symbol must be in R format</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>Update new flags from = to ==</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +519,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -533,7 +609,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -557,7 +633,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -565,6 +640,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -573,7 +652,31 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -590,13 +693,17 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A15:C18" totalsRowShown="0">
   <autoFilter ref="A15:C18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Worksheet"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descriptions"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="3">
       <calculatedColumnFormula>HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -928,10 +1035,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +1066,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>44531</v>
+        <v>44532</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -996,7 +1103,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1024,12 +1131,12 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="17" t="str">
+      <c r="C17" s="16" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</f>
         <v>meta</v>
       </c>
@@ -1047,11 +1154,34 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="17">
         <v>44531</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>44532</v>
+      </c>
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1085,7 +1215,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A6"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,15 +1258,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>28</v>
+      <c r="C4" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1147,7 +1277,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1158,7 +1288,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1167,37 +1297,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>19</v>
@@ -1206,18 +1337,21 @@
         <v>12</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1230,18 +1364,21 @@
         <v>600</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1253,21 +1390,24 @@
         <v>450</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>49</v>
+        <v>55</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -1276,21 +1416,24 @@
         <v>500</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -1299,21 +1442,24 @@
         <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1322,21 +1468,24 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -1345,21 +1494,24 @@
         <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>46</v>
+        <v>55</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -1368,18 +1520,21 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -1391,21 +1546,24 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -1414,41 +1572,47 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>17</v>
       </c>
       <c r="F11">
         <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1460,18 +1624,21 @@
         <v>600</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1483,21 +1650,24 @@
         <v>450</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -1506,21 +1676,24 @@
         <v>500</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>48</v>
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
@@ -1529,21 +1702,24 @@
         <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -1552,21 +1728,24 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -1575,21 +1754,24 @@
         <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
@@ -1598,18 +1780,21 @@
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -1621,21 +1806,24 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
@@ -1644,41 +1832,47 @@
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>17</v>
       </c>
       <c r="F21">
         <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -1691,18 +1885,21 @@
         <v>360</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -1715,21 +1912,24 @@
         <v>240</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
       </c>
       <c r="E24" t="s">
         <v>16</v>
@@ -1739,21 +1939,24 @@
         <v>300</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
       </c>
       <c r="E25" t="s">
         <v>16</v>
@@ -1763,21 +1966,24 @@
         <v>28.2</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
@@ -1786,21 +1992,24 @@
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
@@ -1809,21 +2018,24 @@
         <v>100</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
       </c>
       <c r="E28" t="s">
         <v>16</v>
@@ -1832,18 +2044,21 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -1855,21 +2070,24 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>35</v>
+        <v>49</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
@@ -1878,41 +2096,47 @@
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>17</v>
       </c>
       <c r="F31">
         <v>50</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
@@ -1925,18 +2149,21 @@
         <v>360</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>57</v>
+        <v>37</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
@@ -1949,21 +2176,24 @@
         <v>240</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>57</v>
+        <v>38</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
       </c>
       <c r="E34" t="s">
         <v>16</v>
@@ -1973,21 +2203,24 @@
         <v>300</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>57</v>
+        <v>39</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>48</v>
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
@@ -1997,21 +2230,24 @@
         <v>28.2</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>57</v>
+        <v>40</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
       </c>
       <c r="E36" t="s">
         <v>16</v>
@@ -2020,21 +2256,24 @@
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>57</v>
+        <v>41</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
       </c>
       <c r="E37" t="s">
         <v>15</v>
@@ -2043,21 +2282,24 @@
         <v>100</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>45</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
@@ -2066,18 +2308,21 @@
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -2089,21 +2334,24 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
         <v>17</v>
@@ -2112,41 +2360,47 @@
         <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>17</v>
       </c>
       <c r="F41">
         <v>50</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
         <v>59</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>60</v>
-      </c>
-      <c r="D42" t="s">
-        <v>61</v>
       </c>
       <c r="E42" t="s">
         <v>17</v>
@@ -2155,18 +2409,21 @@
         <v>5</v>
       </c>
       <c r="G42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" t="s">
-        <v>63</v>
       </c>
       <c r="E43" t="s">
         <v>16</v>
@@ -2175,18 +2432,21 @@
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
         <v>59</v>
       </c>
-      <c r="C44" t="s">
-        <v>60</v>
-      </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
         <v>15</v>
@@ -2195,18 +2455,21 @@
         <v>100</v>
       </c>
       <c r="G44" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" t="s">
-        <v>66</v>
       </c>
       <c r="E45" t="s">
         <v>16</v>
@@ -2215,18 +2478,21 @@
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
         <v>59</v>
       </c>
-      <c r="C46" t="s">
-        <v>60</v>
-      </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
         <v>15</v>
@@ -2235,18 +2501,21 @@
         <v>10</v>
       </c>
       <c r="G46" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" t="s">
-        <v>69</v>
       </c>
       <c r="E47" t="s">
         <v>16</v>
@@ -2255,15 +2524,18 @@
         <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
         <v>59</v>
-      </c>
-      <c r="C48" t="s">
-        <v>60</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
@@ -2275,15 +2547,18 @@
         <v>600</v>
       </c>
       <c r="G48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" t="s">
         <v>59</v>
-      </c>
-      <c r="C49" t="s">
-        <v>60</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
@@ -2295,18 +2570,21 @@
         <v>450</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
         <v>59</v>
       </c>
-      <c r="C50" t="s">
-        <v>60</v>
-      </c>
       <c r="D50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E50" t="s">
         <v>17</v>
@@ -2315,18 +2593,21 @@
         <v>75</v>
       </c>
       <c r="G50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" t="s">
         <v>59</v>
       </c>
-      <c r="C51" t="s">
-        <v>60</v>
-      </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s">
         <v>16</v>
@@ -2335,18 +2616,21 @@
         <v>1000</v>
       </c>
       <c r="G51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
         <v>59</v>
       </c>
-      <c r="C52" t="s">
-        <v>60</v>
-      </c>
       <c r="D52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E52" t="s">
         <v>17</v>
@@ -2355,18 +2639,21 @@
         <v>50</v>
       </c>
       <c r="G52" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" t="s">
-        <v>76</v>
       </c>
       <c r="E53" t="s">
         <v>17</v>
@@ -2375,18 +2662,21 @@
         <v>45</v>
       </c>
       <c r="G53" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" t="s">
-        <v>78</v>
       </c>
       <c r="E54" t="s">
         <v>17</v>
@@ -2395,18 +2685,21 @@
         <v>10</v>
       </c>
       <c r="G54" t="s">
+        <v>78</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" t="s">
-        <v>80</v>
       </c>
       <c r="E55" t="s">
         <v>17</v>
@@ -2415,98 +2708,113 @@
         <v>25</v>
       </c>
       <c r="G55" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="E56" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>82</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
         <v>59</v>
       </c>
-      <c r="C56" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D57" t="s">
         <v>83</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="E57" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
         <v>59</v>
       </c>
-      <c r="C57" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>85</v>
       </c>
-      <c r="E57" t="s">
-        <v>83</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="E58" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
         <v>59</v>
       </c>
-      <c r="C58" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>87</v>
       </c>
-      <c r="E58" t="s">
-        <v>83</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="E59" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
         <v>59</v>
       </c>
-      <c r="C59" t="s">
-        <v>60</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>89</v>
-      </c>
-      <c r="E59" t="s">
-        <v>83</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" t="s">
-        <v>60</v>
-      </c>
-      <c r="D60" t="s">
-        <v>91</v>
       </c>
       <c r="E60" t="s">
         <v>17</v>
@@ -2515,18 +2823,21 @@
         <v>50</v>
       </c>
       <c r="G60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" t="s">
         <v>59</v>
       </c>
-      <c r="C61" t="s">
-        <v>60</v>
-      </c>
       <c r="D61" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E61" t="s">
         <v>17</v>
@@ -2535,18 +2846,21 @@
         <v>80</v>
       </c>
       <c r="G61" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" t="s">
         <v>59</v>
       </c>
-      <c r="C62" t="s">
-        <v>60</v>
-      </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E62" t="s">
         <v>17</v>
@@ -2555,18 +2869,21 @@
         <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" t="s">
         <v>59</v>
       </c>
-      <c r="C63" t="s">
-        <v>60</v>
-      </c>
       <c r="D63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E63" t="s">
         <v>17</v>
@@ -2575,18 +2892,21 @@
         <v>10</v>
       </c>
       <c r="G63" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" t="s">
         <v>59</v>
       </c>
-      <c r="C64" t="s">
-        <v>60</v>
-      </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E64" t="s">
         <v>17</v>
@@ -2595,18 +2915,21 @@
         <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" t="s">
         <v>59</v>
       </c>
-      <c r="C65" t="s">
-        <v>60</v>
-      </c>
       <c r="D65" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E65" t="s">
         <v>15</v>
@@ -2615,11 +2938,30 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G41" xr:uid="{B5CF9324-C494-4CAD-A38F-B7E85B006248}"/>
+  <autoFilter ref="A1:H65" xr:uid="{193EAC89-0090-4479-9BF6-6D0FB2370324}"/>
+  <conditionalFormatting sqref="H2:H65">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$H2=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D65">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H3=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198A3F83-9669-42D0-A87E-CC8F55C30741}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5E12DF-CFA3-4600-834E-EC8D8D44FF7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Flags" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flags!$A$1:$H$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flags!$A$1:$I$127</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -84,7 +84,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Leppo, Erik:</t>
         </r>
@@ -93,7 +93,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 R format so == not =</t>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="122">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -269,9 +269,6 @@
     <t>individuals, dominant 02, Large</t>
   </si>
   <si>
-    <t>QC flags for Pacific Northwest Biological Condition Gradient (2018) model.</t>
-  </si>
-  <si>
     <t>BCG_PacNW_v1_500ct</t>
   </si>
   <si>
@@ -419,8 +416,23 @@
     <t>Add BioMonTools_MetNam column</t>
   </si>
   <si>
+    <t>Add reminder that Symbol must be in R format</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>Update new flags from = to ==</t>
+  </si>
+  <si>
+    <t>Update BCG_MariNW_Bugs500ct models</t>
+  </si>
+  <si>
+    <t>QC flags for Biological Condition Gradient models.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">math symbol; &gt;, &lt;, &gt;=, &lt;=, ==, or !=
+      <t xml:space="preserve">math symbols; &gt;, &lt;, &gt;=, &lt;=, ==, or !=
 </t>
     </r>
     <r>
@@ -436,13 +448,43 @@
     </r>
   </si>
   <si>
-    <t>Add reminder that Symbol must be in R format</t>
-  </si>
-  <si>
-    <t>==</t>
-  </si>
-  <si>
-    <t>Update new flags from = to ==</t>
+    <t>nt_BCG_attNA</t>
+  </si>
+  <si>
+    <t>missing BCG_Attr assignment</t>
+  </si>
+  <si>
+    <t>HiGrad-HiElev</t>
+  </si>
+  <si>
+    <t>Precip8110Cat</t>
+  </si>
+  <si>
+    <t>low precipitation</t>
+  </si>
+  <si>
+    <t>pi_Odon</t>
+  </si>
+  <si>
+    <t>soft bottom substrate signal, high proportion Odonate individs</t>
+  </si>
+  <si>
+    <t>soft bottom substrate signal, high proportion Corbiculidae + Sphaeriidae individs</t>
+  </si>
+  <si>
+    <t>added 2022-02-11</t>
+  </si>
+  <si>
+    <t>modified 2022-02-11</t>
+  </si>
+  <si>
+    <t>percent flowline slope, very high</t>
+  </si>
+  <si>
+    <t>percent flowline slope, transitional</t>
+  </si>
+  <si>
+    <t>pi_SphaerCorb</t>
   </si>
 </sst>
 </file>
@@ -524,17 +566,17 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,6 +610,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,7 +657,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -644,6 +692,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -652,7 +704,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -693,17 +755,13 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A15:C18" totalsRowShown="0">
   <autoFilter ref="A15:C18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Worksheet"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descriptions"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="4">
       <calculatedColumnFormula>HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1035,10 +1093,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1124,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>44532</v>
+        <v>44603</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1103,7 +1161,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1158,7 +1216,7 @@
         <v>44531</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1166,22 +1224,30 @@
         <v>44532</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>44603</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1215,7 +1281,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,7 +1332,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1301,11 +1367,11 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,9 +1381,10 @@
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -1325,7 +1392,7 @@
         <v>51</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>50</v>
@@ -1340,12 +1407,15 @@
         <v>36</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>34</v>
@@ -1370,9 +1440,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>34</v>
@@ -1396,9 +1466,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>34</v>
@@ -1422,9 +1492,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>34</v>
@@ -1448,9 +1518,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>34</v>
@@ -1474,9 +1544,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>34</v>
@@ -1500,9 +1570,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>34</v>
@@ -1526,9 +1596,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>34</v>
@@ -1552,9 +1622,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>34</v>
@@ -1578,9 +1648,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>34</v>
@@ -1604,9 +1674,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -1630,9 +1700,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -1656,9 +1726,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -1682,9 +1752,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -1708,9 +1778,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
@@ -1736,7 +1806,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -1762,7 +1832,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -1788,7 +1858,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
@@ -1814,7 +1884,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
@@ -1840,7 +1910,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -1866,7 +1936,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>34</v>
@@ -1893,7 +1963,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>34</v>
@@ -1920,7 +1990,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>34</v>
@@ -1947,7 +2017,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>34</v>
@@ -1974,7 +2044,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>34</v>
@@ -2000,7 +2070,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>34</v>
@@ -2026,7 +2096,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>34</v>
@@ -2052,7 +2122,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>34</v>
@@ -2078,7 +2148,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>34</v>
@@ -2104,7 +2174,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>34</v>
@@ -2130,7 +2200,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -2157,7 +2227,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -2184,7 +2254,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -2211,7 +2281,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -2238,7 +2308,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -2264,7 +2334,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -2290,7 +2360,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
@@ -2316,7 +2386,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -2342,7 +2412,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
@@ -2368,7 +2438,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
@@ -2394,13 +2464,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
         <v>58</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>59</v>
-      </c>
-      <c r="D42" t="s">
-        <v>60</v>
       </c>
       <c r="E42" t="s">
         <v>17</v>
@@ -2409,7 +2479,7 @@
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -2417,13 +2487,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
         <v>58</v>
       </c>
-      <c r="C43" t="s">
-        <v>59</v>
-      </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E43" t="s">
         <v>16</v>
@@ -2432,7 +2502,7 @@
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -2440,13 +2510,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
         <v>58</v>
       </c>
-      <c r="C44" t="s">
-        <v>59</v>
-      </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
         <v>15</v>
@@ -2455,7 +2525,7 @@
         <v>100</v>
       </c>
       <c r="G44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -2463,13 +2533,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
         <v>58</v>
       </c>
-      <c r="C45" t="s">
-        <v>59</v>
-      </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
         <v>16</v>
@@ -2478,7 +2548,7 @@
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -2486,13 +2556,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
         <v>58</v>
       </c>
-      <c r="C46" t="s">
-        <v>59</v>
-      </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E46" t="s">
         <v>15</v>
@@ -2501,7 +2571,7 @@
         <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -2509,13 +2579,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
         <v>58</v>
       </c>
-      <c r="C47" t="s">
-        <v>59</v>
-      </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E47" t="s">
         <v>16</v>
@@ -2524,7 +2594,7 @@
         <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -2532,10 +2602,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
         <v>58</v>
-      </c>
-      <c r="C48" t="s">
-        <v>59</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
@@ -2547,18 +2617,18 @@
         <v>600</v>
       </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
         <v>58</v>
-      </c>
-      <c r="C49" t="s">
-        <v>59</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
@@ -2576,15 +2646,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
         <v>58</v>
       </c>
-      <c r="C50" t="s">
-        <v>59</v>
-      </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E50" t="s">
         <v>17</v>
@@ -2593,18 +2663,18 @@
         <v>75</v>
       </c>
       <c r="G50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
         <v>58</v>
-      </c>
-      <c r="C51" t="s">
-        <v>59</v>
       </c>
       <c r="D51" t="s">
         <v>48</v>
@@ -2616,18 +2686,18 @@
         <v>1000</v>
       </c>
       <c r="G51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
         <v>58</v>
-      </c>
-      <c r="C52" t="s">
-        <v>59</v>
       </c>
       <c r="D52" t="s">
         <v>52</v>
@@ -2639,44 +2709,47 @@
         <v>50</v>
       </c>
       <c r="G52" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" t="s">
         <v>74</v>
       </c>
-      <c r="H52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="20">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s">
+        <v>75</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
         <v>58</v>
       </c>
-      <c r="C53" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53">
-        <v>45</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="D54" t="s">
         <v>76</v>
-      </c>
-      <c r="H53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" t="s">
-        <v>77</v>
       </c>
       <c r="E54" t="s">
         <v>17</v>
@@ -2685,21 +2758,21 @@
         <v>10</v>
       </c>
       <c r="G54" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" t="s">
         <v>78</v>
-      </c>
-      <c r="H54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" t="s">
-        <v>79</v>
       </c>
       <c r="E55" t="s">
         <v>17</v>
@@ -2708,113 +2781,113 @@
         <v>25</v>
       </c>
       <c r="G55" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" t="s">
         <v>80</v>
       </c>
-      <c r="H55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="E56" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>81</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
         <v>58</v>
       </c>
-      <c r="C56" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" t="s">
-        <v>81</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="D57" t="s">
         <v>82</v>
       </c>
-      <c r="H56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="E57" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>83</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
         <v>58</v>
       </c>
-      <c r="C57" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="D58" t="s">
         <v>84</v>
       </c>
-      <c r="H57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="E58" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>85</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
         <v>58</v>
       </c>
-      <c r="C58" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" t="s">
-        <v>85</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="D59" t="s">
         <v>86</v>
       </c>
-      <c r="H58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="E59" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
         <v>58</v>
       </c>
-      <c r="C59" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" t="s">
-        <v>87</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="D60" t="s">
         <v>88</v>
-      </c>
-      <c r="H59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" t="s">
-        <v>89</v>
       </c>
       <c r="E60" t="s">
         <v>17</v>
@@ -2823,44 +2896,47 @@
         <v>50</v>
       </c>
       <c r="G60" t="s">
+        <v>89</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="20">
+        <v>50</v>
+      </c>
+      <c r="G61" t="s">
         <v>90</v>
       </c>
-      <c r="H60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
         <v>58</v>
       </c>
-      <c r="C61" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61">
-        <v>80</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="D62" t="s">
         <v>91</v>
-      </c>
-      <c r="H61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" t="s">
-        <v>59</v>
-      </c>
-      <c r="D62" t="s">
-        <v>92</v>
       </c>
       <c r="E62" t="s">
         <v>17</v>
@@ -2869,21 +2945,21 @@
         <v>30</v>
       </c>
       <c r="G62" t="s">
+        <v>92</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" t="s">
         <v>93</v>
-      </c>
-      <c r="H62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" t="s">
-        <v>59</v>
-      </c>
-      <c r="D63" t="s">
-        <v>94</v>
       </c>
       <c r="E63" t="s">
         <v>17</v>
@@ -2892,21 +2968,21 @@
         <v>10</v>
       </c>
       <c r="G63" t="s">
+        <v>94</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" t="s">
         <v>95</v>
-      </c>
-      <c r="H63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" t="s">
-        <v>59</v>
-      </c>
-      <c r="D64" t="s">
-        <v>96</v>
       </c>
       <c r="E64" t="s">
         <v>17</v>
@@ -2915,21 +2991,21 @@
         <v>10</v>
       </c>
       <c r="G64" t="s">
+        <v>96</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" t="s">
         <v>97</v>
-      </c>
-      <c r="H64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65" t="s">
-        <v>59</v>
-      </c>
-      <c r="D65" t="s">
-        <v>98</v>
       </c>
       <c r="E65" t="s">
         <v>15</v>
@@ -2944,21 +3020,1466 @@
         <v>1</v>
       </c>
     </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>110</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" t="s">
+        <v>112</v>
+      </c>
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67">
+        <v>1000</v>
+      </c>
+      <c r="G67" t="s">
+        <v>113</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="21">
+        <v>10</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H68" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="21">
+        <v>10</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H69" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="9">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>119</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71" t="s">
+        <v>120</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" t="s">
+        <v>61</v>
+      </c>
+      <c r="E72" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72" t="s">
+        <v>62</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" t="s">
+        <v>61</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73">
+        <v>100</v>
+      </c>
+      <c r="G73" t="s">
+        <v>63</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" t="s">
+        <v>112</v>
+      </c>
+      <c r="E74" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74">
+        <v>1000</v>
+      </c>
+      <c r="G74" t="s">
+        <v>113</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75" t="s">
+        <v>65</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>66</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E77" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>68</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78">
+        <v>600</v>
+      </c>
+      <c r="G78" t="s">
+        <v>69</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79">
+        <v>450</v>
+      </c>
+      <c r="G79" t="s">
+        <v>38</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" t="s">
+        <v>70</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80">
+        <v>75</v>
+      </c>
+      <c r="G80" t="s">
+        <v>71</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" t="s">
+        <v>111</v>
+      </c>
+      <c r="D81" t="s">
+        <v>48</v>
+      </c>
+      <c r="E81" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81">
+        <v>1000</v>
+      </c>
+      <c r="G81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" t="s">
+        <v>52</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82">
+        <v>50</v>
+      </c>
+      <c r="G82" t="s">
+        <v>73</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" t="s">
+        <v>74</v>
+      </c>
+      <c r="E83" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83">
+        <v>35</v>
+      </c>
+      <c r="G83" t="s">
+        <v>75</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" t="s">
+        <v>76</v>
+      </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>77</v>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" t="s">
+        <v>111</v>
+      </c>
+      <c r="D85" t="s">
+        <v>78</v>
+      </c>
+      <c r="E85" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s">
+        <v>79</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86" t="s">
+        <v>111</v>
+      </c>
+      <c r="D86" t="s">
+        <v>80</v>
+      </c>
+      <c r="E86" t="s">
+        <v>104</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>81</v>
+      </c>
+      <c r="H86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" t="s">
+        <v>111</v>
+      </c>
+      <c r="D87" t="s">
+        <v>82</v>
+      </c>
+      <c r="E87" t="s">
+        <v>104</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>83</v>
+      </c>
+      <c r="H87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" t="s">
+        <v>111</v>
+      </c>
+      <c r="D88" t="s">
+        <v>84</v>
+      </c>
+      <c r="E88" t="s">
+        <v>104</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>85</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" t="s">
+        <v>86</v>
+      </c>
+      <c r="E89" t="s">
+        <v>104</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>87</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" t="s">
+        <v>111</v>
+      </c>
+      <c r="D90" t="s">
+        <v>88</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90">
+        <v>50</v>
+      </c>
+      <c r="G90" t="s">
+        <v>89</v>
+      </c>
+      <c r="H90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" t="s">
+        <v>99</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91">
+        <v>50</v>
+      </c>
+      <c r="G91" t="s">
+        <v>90</v>
+      </c>
+      <c r="H91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" t="s">
+        <v>111</v>
+      </c>
+      <c r="D92" t="s">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92">
+        <v>30</v>
+      </c>
+      <c r="G92" t="s">
+        <v>92</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" t="s">
+        <v>111</v>
+      </c>
+      <c r="D93" t="s">
+        <v>93</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>94</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94" t="s">
+        <v>95</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>96</v>
+      </c>
+      <c r="H94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95" t="s">
+        <v>97</v>
+      </c>
+      <c r="E95" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>49</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96" t="s">
+        <v>111</v>
+      </c>
+      <c r="D96" t="s">
+        <v>109</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>110</v>
+      </c>
+      <c r="H96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" t="s">
+        <v>111</v>
+      </c>
+      <c r="D97" t="s">
+        <v>114</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>115</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" t="s">
+        <v>121</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>116</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>57</v>
+      </c>
+      <c r="C99" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" t="s">
+        <v>59</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99">
+        <v>8</v>
+      </c>
+      <c r="G99" t="s">
+        <v>119</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>57</v>
+      </c>
+      <c r="C100" t="s">
+        <v>111</v>
+      </c>
+      <c r="D100" t="s">
+        <v>59</v>
+      </c>
+      <c r="E100" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100" t="s">
+        <v>120</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>57</v>
+      </c>
+      <c r="C101" t="s">
+        <v>111</v>
+      </c>
+      <c r="D101" t="s">
+        <v>61</v>
+      </c>
+      <c r="E101" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101" t="s">
+        <v>62</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102" t="s">
+        <v>61</v>
+      </c>
+      <c r="E102" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102">
+        <v>100</v>
+      </c>
+      <c r="G102" t="s">
+        <v>63</v>
+      </c>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>57</v>
+      </c>
+      <c r="C103" t="s">
+        <v>111</v>
+      </c>
+      <c r="D103" t="s">
+        <v>112</v>
+      </c>
+      <c r="E103" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103">
+        <v>1000</v>
+      </c>
+      <c r="G103" t="s">
+        <v>113</v>
+      </c>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104" t="s">
+        <v>111</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104">
+        <v>6</v>
+      </c>
+      <c r="G104" t="s">
+        <v>65</v>
+      </c>
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" t="s">
+        <v>111</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>66</v>
+      </c>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106" t="s">
+        <v>67</v>
+      </c>
+      <c r="E106" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106">
+        <v>8</v>
+      </c>
+      <c r="G106" t="s">
+        <v>68</v>
+      </c>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>57</v>
+      </c>
+      <c r="C107" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107">
+        <v>600</v>
+      </c>
+      <c r="G107" t="s">
+        <v>69</v>
+      </c>
+      <c r="H107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>57</v>
+      </c>
+      <c r="C108" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108">
+        <v>450</v>
+      </c>
+      <c r="G108" t="s">
+        <v>38</v>
+      </c>
+      <c r="H108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>57</v>
+      </c>
+      <c r="C109" t="s">
+        <v>111</v>
+      </c>
+      <c r="D109" t="s">
+        <v>70</v>
+      </c>
+      <c r="E109" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109">
+        <v>75</v>
+      </c>
+      <c r="G109" t="s">
+        <v>71</v>
+      </c>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>57</v>
+      </c>
+      <c r="C110" t="s">
+        <v>111</v>
+      </c>
+      <c r="D110" t="s">
+        <v>48</v>
+      </c>
+      <c r="E110" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110">
+        <v>1000</v>
+      </c>
+      <c r="G110" t="s">
+        <v>72</v>
+      </c>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>57</v>
+      </c>
+      <c r="C111" t="s">
+        <v>111</v>
+      </c>
+      <c r="D111" t="s">
+        <v>52</v>
+      </c>
+      <c r="E111" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111">
+        <v>50</v>
+      </c>
+      <c r="G111" t="s">
+        <v>73</v>
+      </c>
+      <c r="H111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" t="s">
+        <v>111</v>
+      </c>
+      <c r="D112" t="s">
+        <v>74</v>
+      </c>
+      <c r="E112" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112">
+        <v>35</v>
+      </c>
+      <c r="G112" t="s">
+        <v>75</v>
+      </c>
+      <c r="H112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" t="s">
+        <v>111</v>
+      </c>
+      <c r="D113" t="s">
+        <v>76</v>
+      </c>
+      <c r="E113" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>77</v>
+      </c>
+      <c r="H113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>57</v>
+      </c>
+      <c r="C114" t="s">
+        <v>111</v>
+      </c>
+      <c r="D114" t="s">
+        <v>78</v>
+      </c>
+      <c r="E114" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114">
+        <v>25</v>
+      </c>
+      <c r="G114" t="s">
+        <v>79</v>
+      </c>
+      <c r="H114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>57</v>
+      </c>
+      <c r="C115" t="s">
+        <v>111</v>
+      </c>
+      <c r="D115" t="s">
+        <v>80</v>
+      </c>
+      <c r="E115" t="s">
+        <v>104</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>81</v>
+      </c>
+      <c r="H115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>57</v>
+      </c>
+      <c r="C116" t="s">
+        <v>111</v>
+      </c>
+      <c r="D116" t="s">
+        <v>82</v>
+      </c>
+      <c r="E116" t="s">
+        <v>104</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>83</v>
+      </c>
+      <c r="H116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>57</v>
+      </c>
+      <c r="C117" t="s">
+        <v>111</v>
+      </c>
+      <c r="D117" t="s">
+        <v>84</v>
+      </c>
+      <c r="E117" t="s">
+        <v>104</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>85</v>
+      </c>
+      <c r="H117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>57</v>
+      </c>
+      <c r="C118" t="s">
+        <v>111</v>
+      </c>
+      <c r="D118" t="s">
+        <v>86</v>
+      </c>
+      <c r="E118" t="s">
+        <v>104</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>87</v>
+      </c>
+      <c r="H118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>57</v>
+      </c>
+      <c r="C119" t="s">
+        <v>111</v>
+      </c>
+      <c r="D119" t="s">
+        <v>88</v>
+      </c>
+      <c r="E119" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119">
+        <v>50</v>
+      </c>
+      <c r="G119" t="s">
+        <v>89</v>
+      </c>
+      <c r="H119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>57</v>
+      </c>
+      <c r="C120" t="s">
+        <v>111</v>
+      </c>
+      <c r="D120" t="s">
+        <v>99</v>
+      </c>
+      <c r="E120" t="s">
+        <v>17</v>
+      </c>
+      <c r="F120">
+        <v>50</v>
+      </c>
+      <c r="G120" t="s">
+        <v>90</v>
+      </c>
+      <c r="H120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>57</v>
+      </c>
+      <c r="C121" t="s">
+        <v>111</v>
+      </c>
+      <c r="D121" t="s">
+        <v>91</v>
+      </c>
+      <c r="E121" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121">
+        <v>30</v>
+      </c>
+      <c r="G121" t="s">
+        <v>92</v>
+      </c>
+      <c r="H121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>57</v>
+      </c>
+      <c r="C122" t="s">
+        <v>111</v>
+      </c>
+      <c r="D122" t="s">
+        <v>93</v>
+      </c>
+      <c r="E122" t="s">
+        <v>17</v>
+      </c>
+      <c r="F122">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
+        <v>94</v>
+      </c>
+      <c r="H122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>57</v>
+      </c>
+      <c r="C123" t="s">
+        <v>111</v>
+      </c>
+      <c r="D123" t="s">
+        <v>95</v>
+      </c>
+      <c r="E123" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>96</v>
+      </c>
+      <c r="H123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>57</v>
+      </c>
+      <c r="C124" t="s">
+        <v>111</v>
+      </c>
+      <c r="D124" t="s">
+        <v>97</v>
+      </c>
+      <c r="E124" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>49</v>
+      </c>
+      <c r="H124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>57</v>
+      </c>
+      <c r="C125" t="s">
+        <v>111</v>
+      </c>
+      <c r="D125" t="s">
+        <v>109</v>
+      </c>
+      <c r="E125" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>110</v>
+      </c>
+      <c r="H125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>57</v>
+      </c>
+      <c r="C126" t="s">
+        <v>111</v>
+      </c>
+      <c r="D126" t="s">
+        <v>114</v>
+      </c>
+      <c r="E126" t="s">
+        <v>17</v>
+      </c>
+      <c r="F126">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>115</v>
+      </c>
+      <c r="H126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>57</v>
+      </c>
+      <c r="C127" t="s">
+        <v>111</v>
+      </c>
+      <c r="D127" t="s">
+        <v>121</v>
+      </c>
+      <c r="E127" t="s">
+        <v>17</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>116</v>
+      </c>
+      <c r="H127" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H65" xr:uid="{193EAC89-0090-4479-9BF6-6D0FB2370324}"/>
-  <conditionalFormatting sqref="H2:H65">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <autoFilter ref="A1:I127" xr:uid="{D4BC7B17-CF98-4FFA-B8E0-38F8C70DE7CD}"/>
+  <conditionalFormatting sqref="H2:H300">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$H2=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D65">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$H3=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5E12DF-CFA3-4600-834E-EC8D8D44FF7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8019AD3-CDD1-47C7-B93C-8CAA74C37618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="129">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -485,6 +485,27 @@
   </si>
   <si>
     <t>pi_SphaerCorb</t>
+  </si>
+  <si>
+    <t>Updates to MariNW flags.</t>
+  </si>
+  <si>
+    <t>added 2022-03-31</t>
+  </si>
+  <si>
+    <t>percent flowline slope, transitional low</t>
+  </si>
+  <si>
+    <t>added 2022-02-11, region modified 2022-03-31</t>
+  </si>
+  <si>
+    <t>2022-03-31, update region and value</t>
+  </si>
+  <si>
+    <t>2022-03-31, update region</t>
+  </si>
+  <si>
+    <t>LoGrad-LoElev</t>
   </si>
 </sst>
 </file>
@@ -657,13 +678,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -704,7 +724,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -761,7 +791,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Worksheet"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descriptions"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="5">
       <calculatedColumnFormula>HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1093,10 +1123,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,33 +1153,33 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="16">
         <v>44603</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7" t="str">
+      <c r="A7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
         <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\[MetricFlags.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="6" t="str">
         <f ca="1">MID(CELL("filename",B8),FIND("[",CELL("filename",B8)),(FIND("]",CELL("filename",B8))-FIND("[",CELL("filename",B8)))+1)</f>
         <v>[MetricFlags.xlsx]</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="8" t="str">
+      <c r="B9" s="7" t="str">
         <f ca="1">MID(CELL("filename",B9),FIND("]",CELL("filename",B9))+1,LEN(CELL("filename",B9))-FIND("]",CELL("filename",B9)))</f>
         <v>NOTES</v>
       </c>
@@ -1171,7 +1201,7 @@
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1182,7 +1212,7 @@
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="10" t="str">
+      <c r="C16" s="9" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</f>
         <v>NOTES</v>
       </c>
@@ -1194,7 +1224,7 @@
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="16" t="str">
+      <c r="C17" s="15" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</f>
         <v>meta</v>
       </c>
@@ -1206,13 +1236,13 @@
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="12" t="str">
+      <c r="C18" s="11" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A18&amp;"!A1",A18)</f>
         <v>Flags</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="16">
         <v>44531</v>
       </c>
       <c r="B22" t="s">
@@ -1220,7 +1250,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="A23" s="16">
         <v>44532</v>
       </c>
       <c r="B23" t="s">
@@ -1243,11 +1273,19 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="A27" s="16">
         <v>44603</v>
       </c>
       <c r="B27" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>44651</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1292,13 +1330,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1331,7 +1369,7 @@
       <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1369,9 +1407,9 @@
   </sheetPr>
   <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,31 +1423,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1417,10 +1455,10 @@
       <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D2" t="s">
@@ -1444,10 +1482,10 @@
       <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D3" t="s">
@@ -1470,10 +1508,10 @@
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D4" t="s">
@@ -1496,10 +1534,10 @@
       <c r="A5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D5" t="s">
@@ -1522,10 +1560,10 @@
       <c r="A6" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D6" t="s">
@@ -1548,10 +1586,10 @@
       <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D7" t="s">
@@ -1574,10 +1612,10 @@
       <c r="A8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D8" t="s">
@@ -1600,10 +1638,10 @@
       <c r="A9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D9" t="s">
@@ -1626,10 +1664,10 @@
       <c r="A10" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D10" t="s">
@@ -1652,16 +1690,16 @@
       <c r="A11" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F11">
@@ -1921,7 +1959,7 @@
       <c r="D21" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F21">
@@ -1935,13 +1973,13 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D22" t="s">
@@ -1962,13 +2000,13 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D23" t="s">
@@ -1989,13 +2027,13 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D24" t="s">
@@ -2016,13 +2054,13 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D25" t="s">
@@ -2043,13 +2081,13 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D26" t="s">
@@ -2069,13 +2107,13 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D27" t="s">
@@ -2095,13 +2133,13 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D28" t="s">
@@ -2121,13 +2159,13 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D29" t="s">
@@ -2147,13 +2185,13 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D30" t="s">
@@ -2173,19 +2211,19 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D31" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F31">
@@ -2199,7 +2237,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B32" t="s">
@@ -2225,8 +2263,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B33" t="s">
@@ -2252,8 +2290,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B34" t="s">
@@ -2279,8 +2317,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B35" t="s">
@@ -2306,8 +2344,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B36" t="s">
@@ -2332,8 +2370,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B37" t="s">
@@ -2358,8 +2396,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B38" t="s">
@@ -2384,8 +2422,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B39" t="s">
@@ -2410,8 +2448,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B40" t="s">
@@ -2436,8 +2474,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B41" t="s">
@@ -2449,7 +2487,7 @@
       <c r="D41" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F41">
@@ -2462,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -2485,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -2493,22 +2531,22 @@
         <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E43" t="s">
         <v>16</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="G43" t="s">
-        <v>62</v>
-      </c>
-      <c r="H43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="I43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -2519,19 +2557,19 @@
         <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F44">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -2539,22 +2577,22 @@
         <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F45">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="G45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2565,19 +2603,19 @@
         <v>64</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -2585,22 +2623,22 @@
         <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F47">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -2608,19 +2646,19 @@
         <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F48">
-        <v>600</v>
+        <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2634,13 +2672,13 @@
         <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F49">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="H49" t="b">
         <v>1</v>
@@ -2654,19 +2692,19 @@
         <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F50">
-        <v>75</v>
+        <v>450</v>
       </c>
       <c r="G50" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2677,16 +2715,16 @@
         <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F51">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -2700,19 +2738,19 @@
         <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F52">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2723,22 +2761,19 @@
         <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E53" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="20">
-        <v>35</v>
+      <c r="F53">
+        <v>50</v>
       </c>
       <c r="G53" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2749,19 +2784,22 @@
         <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E54" t="s">
         <v>17</v>
       </c>
-      <c r="F54">
-        <v>10</v>
+      <c r="F54" s="19">
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2772,16 +2810,16 @@
         <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E55" t="s">
         <v>17</v>
       </c>
       <c r="F55">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -2795,16 +2833,16 @@
         <v>58</v>
       </c>
       <c r="D56" t="s">
-        <v>80</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>104</v>
+        <v>78</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H56" t="b">
         <v>1</v>
@@ -2818,16 +2856,16 @@
         <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
@@ -2841,16 +2879,16 @@
         <v>58</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H58" t="b">
         <v>1</v>
@@ -2864,16 +2902,16 @@
         <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
@@ -2887,16 +2925,16 @@
         <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E60" t="s">
-        <v>17</v>
+        <v>86</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="F60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
@@ -2910,22 +2948,19 @@
         <v>58</v>
       </c>
       <c r="D61" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E61" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F61">
         <v>50</v>
       </c>
       <c r="G61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2936,19 +2971,22 @@
         <v>58</v>
       </c>
       <c r="D62" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E62" t="s">
         <v>17</v>
       </c>
-      <c r="F62">
-        <v>30</v>
+      <c r="F62" s="19">
+        <v>50</v>
       </c>
       <c r="G62" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H62" t="b">
         <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2959,16 +2997,16 @@
         <v>58</v>
       </c>
       <c r="D63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E63" t="s">
         <v>17</v>
       </c>
       <c r="F63">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2982,7 +3020,7 @@
         <v>58</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E64" t="s">
         <v>17</v>
@@ -2991,7 +3029,7 @@
         <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -3005,16 +3043,16 @@
         <v>58</v>
       </c>
       <c r="D65" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -3028,7 +3066,7 @@
         <v>58</v>
       </c>
       <c r="D66" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E66" t="s">
         <v>15</v>
@@ -3037,13 +3075,10 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3051,102 +3086,105 @@
         <v>57</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="D67" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F67">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D68" s="14" t="s">
+      <c r="A68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" t="s">
+        <v>112</v>
+      </c>
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68">
+        <v>1000</v>
+      </c>
+      <c r="G68" t="s">
+        <v>113</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E69" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F68" s="21">
+      <c r="F69" s="20">
         <v>10</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G69" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H68" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="H69" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" t="s">
         <v>121</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E70" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="21">
+      <c r="F70" s="20">
         <v>10</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="G70" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="H69" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I69" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" t="s">
-        <v>111</v>
-      </c>
-      <c r="D70" t="s">
-        <v>59</v>
-      </c>
-      <c r="E70" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" s="9">
-        <v>8</v>
-      </c>
-      <c r="G70" t="s">
-        <v>119</v>
-      </c>
-      <c r="H70" t="b">
-        <v>0</v>
+      <c r="H70" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3160,13 +3198,13 @@
         <v>59</v>
       </c>
       <c r="E71" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="F71" s="8">
+        <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -3180,16 +3218,16 @@
         <v>111</v>
       </c>
       <c r="D72" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E72" t="s">
         <v>16</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G72" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -3206,13 +3244,13 @@
         <v>61</v>
       </c>
       <c r="E73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F73">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -3226,16 +3264,16 @@
         <v>111</v>
       </c>
       <c r="D74" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F74">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G74" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -3249,16 +3287,16 @@
         <v>111</v>
       </c>
       <c r="D75" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="E75" t="s">
         <v>16</v>
       </c>
       <c r="F75">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="G75" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -3275,13 +3313,13 @@
         <v>64</v>
       </c>
       <c r="E76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F76">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
@@ -3295,16 +3333,16 @@
         <v>111</v>
       </c>
       <c r="D77" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F77">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -3318,19 +3356,19 @@
         <v>111</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="E78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F78">
-        <v>600</v>
+        <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3344,13 +3382,13 @@
         <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F79">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="H79" t="b">
         <v>1</v>
@@ -3364,19 +3402,19 @@
         <v>111</v>
       </c>
       <c r="D80" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F80">
-        <v>75</v>
+        <v>450</v>
       </c>
       <c r="G80" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3387,16 +3425,16 @@
         <v>111</v>
       </c>
       <c r="D81" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F81">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="G81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -3410,19 +3448,19 @@
         <v>111</v>
       </c>
       <c r="D82" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F82">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="G82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3433,16 +3471,16 @@
         <v>111</v>
       </c>
       <c r="D83" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E83" t="s">
         <v>17</v>
       </c>
       <c r="F83">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G83" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H83" t="b">
         <v>1</v>
@@ -3456,16 +3494,16 @@
         <v>111</v>
       </c>
       <c r="D84" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E84" t="s">
         <v>17</v>
       </c>
       <c r="F84">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H84" t="b">
         <v>1</v>
@@ -3479,16 +3517,16 @@
         <v>111</v>
       </c>
       <c r="D85" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E85" t="s">
         <v>17</v>
       </c>
       <c r="F85">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G85" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
@@ -3502,16 +3540,16 @@
         <v>111</v>
       </c>
       <c r="D86" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E86" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G86" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
@@ -3525,7 +3563,7 @@
         <v>111</v>
       </c>
       <c r="D87" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E87" t="s">
         <v>104</v>
@@ -3534,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H87" t="b">
         <v>1</v>
@@ -3548,7 +3586,7 @@
         <v>111</v>
       </c>
       <c r="D88" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E88" t="s">
         <v>104</v>
@@ -3557,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
@@ -3571,7 +3609,7 @@
         <v>111</v>
       </c>
       <c r="D89" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E89" t="s">
         <v>104</v>
@@ -3580,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
@@ -3594,16 +3632,16 @@
         <v>111</v>
       </c>
       <c r="D90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="F90">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H90" t="b">
         <v>1</v>
@@ -3617,7 +3655,7 @@
         <v>111</v>
       </c>
       <c r="D91" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E91" t="s">
         <v>17</v>
@@ -3626,7 +3664,7 @@
         <v>50</v>
       </c>
       <c r="G91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H91" t="b">
         <v>1</v>
@@ -3640,16 +3678,16 @@
         <v>111</v>
       </c>
       <c r="D92" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E92" t="s">
         <v>17</v>
       </c>
       <c r="F92">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
@@ -3663,16 +3701,16 @@
         <v>111</v>
       </c>
       <c r="D93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E93" t="s">
         <v>17</v>
       </c>
       <c r="F93">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3686,7 +3724,7 @@
         <v>111</v>
       </c>
       <c r="D94" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E94" t="s">
         <v>17</v>
@@ -3695,7 +3733,7 @@
         <v>10</v>
       </c>
       <c r="G94" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H94" t="b">
         <v>1</v>
@@ -3709,16 +3747,16 @@
         <v>111</v>
       </c>
       <c r="D95" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E95" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G95" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
@@ -3732,7 +3770,7 @@
         <v>111</v>
       </c>
       <c r="D96" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E96" t="s">
         <v>15</v>
@@ -3741,13 +3779,13 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="H96" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>57</v>
       </c>
@@ -3755,22 +3793,22 @@
         <v>111</v>
       </c>
       <c r="D97" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E97" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F97">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>57</v>
       </c>
@@ -3778,7 +3816,7 @@
         <v>111</v>
       </c>
       <c r="D98" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E98" t="s">
         <v>17</v>
@@ -3787,13 +3825,13 @@
         <v>10</v>
       </c>
       <c r="G98" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>57</v>
       </c>
@@ -3801,27 +3839,27 @@
         <v>111</v>
       </c>
       <c r="D99" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="E99" t="s">
         <v>17</v>
       </c>
       <c r="F99">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G99" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>57</v>
       </c>
       <c r="C100" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D100" t="s">
         <v>59</v>
@@ -3830,7 +3868,7 @@
         <v>16</v>
       </c>
       <c r="F100">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="G100" t="s">
         <v>120</v>
@@ -3838,13 +3876,16 @@
       <c r="H100" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>57</v>
       </c>
       <c r="C101" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D101" t="s">
         <v>61</v>
@@ -3861,13 +3902,16 @@
       <c r="H101" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>57</v>
       </c>
       <c r="C102" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D102" t="s">
         <v>61</v>
@@ -3884,13 +3928,16 @@
       <c r="H102" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>57</v>
       </c>
       <c r="C103" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D103" t="s">
         <v>112</v>
@@ -3907,13 +3954,16 @@
       <c r="H103" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>57</v>
       </c>
       <c r="C104" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D104" t="s">
         <v>64</v>
@@ -3930,13 +3980,16 @@
       <c r="H104" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>57</v>
       </c>
       <c r="C105" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D105" t="s">
         <v>64</v>
@@ -3953,13 +4006,16 @@
       <c r="H105" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>57</v>
       </c>
       <c r="C106" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D106" t="s">
         <v>67</v>
@@ -3976,13 +4032,16 @@
       <c r="H106" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>57</v>
       </c>
       <c r="C107" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
@@ -3999,13 +4058,16 @@
       <c r="H107" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>57</v>
       </c>
       <c r="C108" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D108" t="s">
         <v>14</v>
@@ -4022,13 +4084,16 @@
       <c r="H108" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>57</v>
       </c>
       <c r="C109" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D109" t="s">
         <v>70</v>
@@ -4045,13 +4110,16 @@
       <c r="H109" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>57</v>
       </c>
       <c r="C110" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D110" t="s">
         <v>48</v>
@@ -4068,13 +4136,16 @@
       <c r="H110" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>57</v>
       </c>
       <c r="C111" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D111" t="s">
         <v>52</v>
@@ -4091,13 +4162,16 @@
       <c r="H111" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>57</v>
       </c>
       <c r="C112" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D112" t="s">
         <v>74</v>
@@ -4114,13 +4188,16 @@
       <c r="H112" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>57</v>
       </c>
       <c r="C113" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D113" t="s">
         <v>76</v>
@@ -4137,13 +4214,16 @@
       <c r="H113" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>57</v>
       </c>
       <c r="C114" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D114" t="s">
         <v>78</v>
@@ -4160,13 +4240,16 @@
       <c r="H114" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>57</v>
       </c>
       <c r="C115" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D115" t="s">
         <v>80</v>
@@ -4183,13 +4266,16 @@
       <c r="H115" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>57</v>
       </c>
       <c r="C116" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D116" t="s">
         <v>82</v>
@@ -4206,13 +4292,16 @@
       <c r="H116" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>57</v>
       </c>
       <c r="C117" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D117" t="s">
         <v>84</v>
@@ -4229,13 +4318,16 @@
       <c r="H117" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>57</v>
       </c>
       <c r="C118" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D118" t="s">
         <v>86</v>
@@ -4252,13 +4344,16 @@
       <c r="H118" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>57</v>
       </c>
       <c r="C119" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D119" t="s">
         <v>88</v>
@@ -4275,13 +4370,16 @@
       <c r="H119" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>57</v>
       </c>
       <c r="C120" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D120" t="s">
         <v>99</v>
@@ -4298,13 +4396,16 @@
       <c r="H120" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>57</v>
       </c>
       <c r="C121" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D121" t="s">
         <v>91</v>
@@ -4321,13 +4422,16 @@
       <c r="H121" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>57</v>
       </c>
       <c r="C122" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D122" t="s">
         <v>93</v>
@@ -4344,13 +4448,16 @@
       <c r="H122" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>57</v>
       </c>
       <c r="C123" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D123" t="s">
         <v>95</v>
@@ -4367,13 +4474,16 @@
       <c r="H123" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>57</v>
       </c>
       <c r="C124" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D124" t="s">
         <v>97</v>
@@ -4390,13 +4500,16 @@
       <c r="H124" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>57</v>
       </c>
       <c r="C125" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D125" t="s">
         <v>109</v>
@@ -4413,13 +4526,16 @@
       <c r="H125" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>57</v>
       </c>
       <c r="C126" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D126" t="s">
         <v>114</v>
@@ -4436,13 +4552,16 @@
       <c r="H126" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>57</v>
       </c>
       <c r="C127" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D127" t="s">
         <v>121</v>
@@ -4459,25 +4578,33 @@
       <c r="H127" t="b">
         <v>1</v>
       </c>
+      <c r="I127" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I127" xr:uid="{D4BC7B17-CF98-4FFA-B8E0-38F8C70DE7CD}"/>
-  <conditionalFormatting sqref="H2:H300">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="H2:H127 I100">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$H2=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D65">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="D3:D66">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$H3=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
+  <conditionalFormatting sqref="I54">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I101:I127">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8019AD3-CDD1-47C7-B93C-8CAA74C37618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0679328-70F4-4405-B4D3-CB6751E39778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="130">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -499,13 +499,16 @@
     <t>added 2022-02-11, region modified 2022-03-31</t>
   </si>
   <si>
-    <t>2022-03-31, update region and value</t>
-  </si>
-  <si>
     <t>2022-03-31, update region</t>
   </si>
   <si>
     <t>LoGrad-LoElev</t>
+  </si>
+  <si>
+    <t>2022-03-31, update region and value, 2022-09-28 update symbol</t>
+  </si>
+  <si>
+    <t>Update MariNW flag, LowGrad-LoElev, pcSLOPE transitional should be &gt; 0.7 (not less than).</t>
   </si>
 </sst>
 </file>
@@ -1123,10 +1126,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1157,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
-        <v>44603</v>
+        <v>44832</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1286,6 +1289,14 @@
       </c>
       <c r="B28" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <v>44832</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1408,8 +1419,8 @@
   <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3859,13 +3870,13 @@
         <v>57</v>
       </c>
       <c r="C100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D100" t="s">
         <v>59</v>
       </c>
       <c r="E100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F100">
         <v>0.7</v>
@@ -3877,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3885,7 +3896,7 @@
         <v>57</v>
       </c>
       <c r="C101" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D101" t="s">
         <v>61</v>
@@ -3903,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3911,7 +3922,7 @@
         <v>57</v>
       </c>
       <c r="C102" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D102" t="s">
         <v>61</v>
@@ -3929,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3937,7 +3948,7 @@
         <v>57</v>
       </c>
       <c r="C103" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D103" t="s">
         <v>112</v>
@@ -3955,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3963,7 +3974,7 @@
         <v>57</v>
       </c>
       <c r="C104" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D104" t="s">
         <v>64</v>
@@ -3981,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3989,7 +4000,7 @@
         <v>57</v>
       </c>
       <c r="C105" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D105" t="s">
         <v>64</v>
@@ -4007,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -4015,7 +4026,7 @@
         <v>57</v>
       </c>
       <c r="C106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D106" t="s">
         <v>67</v>
@@ -4033,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4041,7 +4052,7 @@
         <v>57</v>
       </c>
       <c r="C107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
@@ -4059,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4067,7 +4078,7 @@
         <v>57</v>
       </c>
       <c r="C108" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D108" t="s">
         <v>14</v>
@@ -4085,7 +4096,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4093,7 +4104,7 @@
         <v>57</v>
       </c>
       <c r="C109" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D109" t="s">
         <v>70</v>
@@ -4111,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4119,7 +4130,7 @@
         <v>57</v>
       </c>
       <c r="C110" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D110" t="s">
         <v>48</v>
@@ -4137,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4145,7 +4156,7 @@
         <v>57</v>
       </c>
       <c r="C111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D111" t="s">
         <v>52</v>
@@ -4163,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4171,7 +4182,7 @@
         <v>57</v>
       </c>
       <c r="C112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D112" t="s">
         <v>74</v>
@@ -4189,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4197,7 +4208,7 @@
         <v>57</v>
       </c>
       <c r="C113" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D113" t="s">
         <v>76</v>
@@ -4215,7 +4226,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4223,7 +4234,7 @@
         <v>57</v>
       </c>
       <c r="C114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D114" t="s">
         <v>78</v>
@@ -4241,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4249,7 +4260,7 @@
         <v>57</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D115" t="s">
         <v>80</v>
@@ -4267,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4275,7 +4286,7 @@
         <v>57</v>
       </c>
       <c r="C116" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D116" t="s">
         <v>82</v>
@@ -4293,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4301,7 +4312,7 @@
         <v>57</v>
       </c>
       <c r="C117" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D117" t="s">
         <v>84</v>
@@ -4319,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4327,7 +4338,7 @@
         <v>57</v>
       </c>
       <c r="C118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D118" t="s">
         <v>86</v>
@@ -4345,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4353,7 +4364,7 @@
         <v>57</v>
       </c>
       <c r="C119" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D119" t="s">
         <v>88</v>
@@ -4371,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4379,7 +4390,7 @@
         <v>57</v>
       </c>
       <c r="C120" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D120" t="s">
         <v>99</v>
@@ -4397,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4405,7 +4416,7 @@
         <v>57</v>
       </c>
       <c r="C121" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D121" t="s">
         <v>91</v>
@@ -4423,7 +4434,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4431,7 +4442,7 @@
         <v>57</v>
       </c>
       <c r="C122" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D122" t="s">
         <v>93</v>
@@ -4449,7 +4460,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4457,7 +4468,7 @@
         <v>57</v>
       </c>
       <c r="C123" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D123" t="s">
         <v>95</v>
@@ -4475,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4483,7 +4494,7 @@
         <v>57</v>
       </c>
       <c r="C124" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D124" t="s">
         <v>97</v>
@@ -4501,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4509,7 +4520,7 @@
         <v>57</v>
       </c>
       <c r="C125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D125" t="s">
         <v>109</v>
@@ -4527,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4535,7 +4546,7 @@
         <v>57</v>
       </c>
       <c r="C126" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D126" t="s">
         <v>114</v>
@@ -4553,7 +4564,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4561,7 +4572,7 @@
         <v>57</v>
       </c>
       <c r="C127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D127" t="s">
         <v>121</v>
@@ -4579,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0679328-70F4-4405-B4D3-CB6751E39778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88D105B-6918-4848-BD84-186A37C29A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="133">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -509,6 +509,15 @@
   </si>
   <si>
     <t>Update MariNW flag, LowGrad-LoElev, pcSLOPE transitional should be &gt; 0.7 (not less than).</t>
+  </si>
+  <si>
+    <t>Add Therm_ORWA_Bugs500ct</t>
+  </si>
+  <si>
+    <t>Therm_ORWA_Bugs500ct</t>
+  </si>
+  <si>
+    <t>ORWA</t>
   </si>
 </sst>
 </file>
@@ -727,7 +736,24 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -794,7 +820,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Worksheet"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descriptions"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="7">
       <calculatedColumnFormula>HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1126,10 +1152,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1183,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
-        <v>44832</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1297,6 +1323,14 @@
       </c>
       <c r="B29" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>44845</v>
+      </c>
+      <c r="B30" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1416,11 +1450,11 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I128" sqref="I128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4593,31 +4627,65 @@
         <v>126</v>
       </c>
     </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F128" s="8">
+        <v>450</v>
+      </c>
+      <c r="G128" t="s">
+        <v>38</v>
+      </c>
+      <c r="H128" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I127" xr:uid="{D4BC7B17-CF98-4FFA-B8E0-38F8C70DE7CD}"/>
   <conditionalFormatting sqref="H2:H127 I100">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$H2=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D66">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$H3=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I101:I127">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H128">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I101:I127">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>FALSE</formula>
+  <conditionalFormatting sqref="D128">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H128=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88D105B-6918-4848-BD84-186A37C29A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4ACB0A-401B-4A7C-A75A-1F1B5CD4C909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Flags" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flags!$A$1:$I$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flags!$A$1:$I$128</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="134">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -267,12 +267,6 @@
   </si>
   <si>
     <t>individuals, dominant 02, Large</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_v1_500ct</t>
-  </si>
-  <si>
-    <t>BCG_PacNW_v1_300ct</t>
   </si>
   <si>
     <t>Index_Region</t>
@@ -518,6 +512,15 @@
   </si>
   <si>
     <t>ORWA</t>
+  </si>
+  <si>
+    <t>BCG_PugLowWilVal_500ct</t>
+  </si>
+  <si>
+    <t>BCG_PugLowWilVal_300ct</t>
+  </si>
+  <si>
+    <t>Issue #61, change name of "BCG_PacNW_v1_*" to "BCG_PugLowWilVal_*".</t>
   </si>
 </sst>
 </file>
@@ -1152,10 +1155,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1186,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
-        <v>44845</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1220,7 +1223,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1275,7 +1278,7 @@
         <v>44531</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1283,22 +1286,22 @@
         <v>44532</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1306,7 +1309,7 @@
         <v>44603</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1314,7 +1317,7 @@
         <v>44651</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1322,7 +1325,7 @@
         <v>44832</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1330,7 +1333,15 @@
         <v>44845</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>44866</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1415,7 +1426,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1453,13 +1464,13 @@
   <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.28515625" bestFit="1" customWidth="1"/>
@@ -1475,7 +1486,7 @@
         <v>51</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>50</v>
@@ -1490,7 +1501,7 @@
         <v>36</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>13</v>
@@ -1498,7 +1509,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>34</v>
@@ -1525,7 +1536,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>34</v>
@@ -1551,7 +1562,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>34</v>
@@ -1577,7 +1588,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>34</v>
@@ -1603,7 +1614,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>34</v>
@@ -1629,7 +1640,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>34</v>
@@ -1655,7 +1666,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>34</v>
@@ -1681,7 +1692,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>34</v>
@@ -1707,7 +1718,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>34</v>
@@ -1733,7 +1744,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>34</v>
@@ -1759,7 +1770,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -1785,7 +1796,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -1811,7 +1822,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -1837,7 +1848,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -1863,7 +1874,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
@@ -1889,7 +1900,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -1915,7 +1926,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -1941,7 +1952,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
@@ -1967,7 +1978,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
@@ -1993,7 +2004,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -2019,7 +2030,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>34</v>
@@ -2046,7 +2057,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>34</v>
@@ -2073,7 +2084,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>34</v>
@@ -2100,7 +2111,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>34</v>
@@ -2127,7 +2138,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>34</v>
@@ -2153,7 +2164,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>34</v>
@@ -2179,7 +2190,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>34</v>
@@ -2205,7 +2216,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>34</v>
@@ -2231,7 +2242,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>34</v>
@@ -2257,7 +2268,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>34</v>
@@ -2283,7 +2294,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -2310,7 +2321,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -2337,7 +2348,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -2364,7 +2375,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -2391,7 +2402,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -2417,7 +2428,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -2443,7 +2454,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
@@ -2469,7 +2480,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -2495,7 +2506,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
@@ -2521,7 +2532,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
@@ -2547,13 +2558,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
         <v>57</v>
-      </c>
-      <c r="C42" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" t="s">
-        <v>59</v>
       </c>
       <c r="E42" t="s">
         <v>17</v>
@@ -2562,7 +2573,7 @@
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -2570,13 +2581,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" t="s">
         <v>57</v>
-      </c>
-      <c r="C43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" t="s">
-        <v>59</v>
       </c>
       <c r="E43" t="s">
         <v>16</v>
@@ -2585,21 +2596,24 @@
         <v>1.2</v>
       </c>
       <c r="G43" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E44" t="s">
         <v>16</v>
@@ -2608,7 +2622,7 @@
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -2616,13 +2630,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E45" t="s">
         <v>15</v>
@@ -2631,7 +2645,7 @@
         <v>100</v>
       </c>
       <c r="G45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -2639,13 +2653,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E46" t="s">
         <v>16</v>
@@ -2654,7 +2668,7 @@
         <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -2662,13 +2676,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E47" t="s">
         <v>15</v>
@@ -2677,7 +2691,7 @@
         <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -2685,13 +2699,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E48" t="s">
         <v>16</v>
@@ -2700,7 +2714,7 @@
         <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -2708,10 +2722,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
@@ -2723,7 +2737,7 @@
         <v>600</v>
       </c>
       <c r="G49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H49" t="b">
         <v>1</v>
@@ -2731,10 +2745,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
@@ -2754,13 +2768,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E51" t="s">
         <v>17</v>
@@ -2769,7 +2783,7 @@
         <v>75</v>
       </c>
       <c r="G51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -2777,10 +2791,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
@@ -2792,7 +2806,7 @@
         <v>1000</v>
       </c>
       <c r="G52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -2800,10 +2814,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D53" t="s">
         <v>52</v>
@@ -2815,7 +2829,7 @@
         <v>50</v>
       </c>
       <c r="G53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
@@ -2823,13 +2837,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E54" t="s">
         <v>17</v>
@@ -2838,24 +2852,24 @@
         <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E55" t="s">
         <v>17</v>
@@ -2864,7 +2878,7 @@
         <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -2872,13 +2886,13 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E56" t="s">
         <v>17</v>
@@ -2887,7 +2901,7 @@
         <v>25</v>
       </c>
       <c r="G56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H56" t="b">
         <v>1</v>
@@ -2895,22 +2909,22 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
@@ -2918,22 +2932,22 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H58" t="b">
         <v>1</v>
@@ -2941,22 +2955,22 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
@@ -2964,22 +2978,22 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
@@ -2987,13 +3001,13 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E61" t="s">
         <v>17</v>
@@ -3002,7 +3016,7 @@
         <v>50</v>
       </c>
       <c r="G61" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
@@ -3010,13 +3024,13 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D62" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E62" t="s">
         <v>17</v>
@@ -3025,24 +3039,24 @@
         <v>50</v>
       </c>
       <c r="G62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H62" t="b">
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E63" t="s">
         <v>17</v>
@@ -3051,7 +3065,7 @@
         <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -3059,13 +3073,13 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E64" t="s">
         <v>17</v>
@@ -3074,7 +3088,7 @@
         <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -3082,13 +3096,13 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D65" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E65" t="s">
         <v>17</v>
@@ -3097,7 +3111,7 @@
         <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -3105,13 +3119,13 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E66" t="s">
         <v>15</v>
@@ -3128,13 +3142,13 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D67" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E67" t="s">
         <v>15</v>
@@ -3143,24 +3157,24 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D68" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E68" t="s">
         <v>16</v>
@@ -3169,25 +3183,25 @@
         <v>1000</v>
       </c>
       <c r="G68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>17</v>
@@ -3196,25 +3210,25 @@
         <v>10</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H69" s="13" t="b">
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>17</v>
@@ -3223,24 +3237,24 @@
         <v>10</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H70" s="13" t="b">
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" t="s">
         <v>57</v>
-      </c>
-      <c r="C71" t="s">
-        <v>111</v>
-      </c>
-      <c r="D71" t="s">
-        <v>59</v>
       </c>
       <c r="E71" t="s">
         <v>17</v>
@@ -3249,7 +3263,7 @@
         <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -3257,13 +3271,13 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" t="s">
         <v>57</v>
-      </c>
-      <c r="C72" t="s">
-        <v>111</v>
-      </c>
-      <c r="D72" t="s">
-        <v>59</v>
       </c>
       <c r="E72" t="s">
         <v>16</v>
@@ -3272,7 +3286,7 @@
         <v>3</v>
       </c>
       <c r="G72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -3280,13 +3294,13 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E73" t="s">
         <v>16</v>
@@ -3295,7 +3309,7 @@
         <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -3303,13 +3317,13 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E74" t="s">
         <v>15</v>
@@ -3318,7 +3332,7 @@
         <v>100</v>
       </c>
       <c r="G74" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -3326,13 +3340,13 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E75" t="s">
         <v>16</v>
@@ -3341,7 +3355,7 @@
         <v>1000</v>
       </c>
       <c r="G75" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -3349,13 +3363,13 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D76" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E76" t="s">
         <v>16</v>
@@ -3364,7 +3378,7 @@
         <v>6</v>
       </c>
       <c r="G76" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
@@ -3372,13 +3386,13 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C77" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D77" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E77" t="s">
         <v>15</v>
@@ -3387,7 +3401,7 @@
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -3395,13 +3409,13 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D78" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E78" t="s">
         <v>16</v>
@@ -3410,7 +3424,7 @@
         <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -3418,10 +3432,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C79" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
@@ -3433,7 +3447,7 @@
         <v>600</v>
       </c>
       <c r="G79" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H79" t="b">
         <v>1</v>
@@ -3441,10 +3455,10 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C80" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
@@ -3464,13 +3478,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C81" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D81" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E81" t="s">
         <v>17</v>
@@ -3479,7 +3493,7 @@
         <v>75</v>
       </c>
       <c r="G81" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -3487,10 +3501,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D82" t="s">
         <v>48</v>
@@ -3502,7 +3516,7 @@
         <v>1000</v>
       </c>
       <c r="G82" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -3510,10 +3524,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C83" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D83" t="s">
         <v>52</v>
@@ -3525,7 +3539,7 @@
         <v>50</v>
       </c>
       <c r="G83" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H83" t="b">
         <v>1</v>
@@ -3533,13 +3547,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C84" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D84" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E84" t="s">
         <v>17</v>
@@ -3548,7 +3562,7 @@
         <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H84" t="b">
         <v>1</v>
@@ -3556,13 +3570,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C85" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D85" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E85" t="s">
         <v>17</v>
@@ -3571,7 +3585,7 @@
         <v>10</v>
       </c>
       <c r="G85" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
@@ -3579,13 +3593,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C86" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D86" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E86" t="s">
         <v>17</v>
@@ -3594,7 +3608,7 @@
         <v>25</v>
       </c>
       <c r="G86" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
@@ -3602,22 +3616,22 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C87" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D87" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E87" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H87" t="b">
         <v>1</v>
@@ -3625,22 +3639,22 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C88" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D88" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E88" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
@@ -3648,22 +3662,22 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C89" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D89" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E89" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
@@ -3671,22 +3685,22 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C90" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D90" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E90" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H90" t="b">
         <v>1</v>
@@ -3694,13 +3708,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D91" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E91" t="s">
         <v>17</v>
@@ -3709,7 +3723,7 @@
         <v>50</v>
       </c>
       <c r="G91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H91" t="b">
         <v>1</v>
@@ -3717,13 +3731,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E92" t="s">
         <v>17</v>
@@ -3732,7 +3746,7 @@
         <v>50</v>
       </c>
       <c r="G92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
@@ -3740,13 +3754,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C93" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D93" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E93" t="s">
         <v>17</v>
@@ -3755,7 +3769,7 @@
         <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3763,13 +3777,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C94" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D94" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E94" t="s">
         <v>17</v>
@@ -3778,7 +3792,7 @@
         <v>10</v>
       </c>
       <c r="G94" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H94" t="b">
         <v>1</v>
@@ -3786,13 +3800,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C95" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E95" t="s">
         <v>17</v>
@@ -3801,7 +3815,7 @@
         <v>10</v>
       </c>
       <c r="G95" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
@@ -3809,13 +3823,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C96" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D96" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E96" t="s">
         <v>15</v>
@@ -3832,13 +3846,13 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C97" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D97" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E97" t="s">
         <v>15</v>
@@ -3847,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3855,13 +3869,13 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D98" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E98" t="s">
         <v>17</v>
@@ -3870,7 +3884,7 @@
         <v>10</v>
       </c>
       <c r="G98" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
@@ -3878,13 +3892,13 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C99" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D99" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E99" t="s">
         <v>17</v>
@@ -3893,7 +3907,7 @@
         <v>10</v>
       </c>
       <c r="G99" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
@@ -3901,13 +3915,13 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" t="s">
+        <v>125</v>
+      </c>
+      <c r="D100" t="s">
         <v>57</v>
-      </c>
-      <c r="C100" t="s">
-        <v>127</v>
-      </c>
-      <c r="D100" t="s">
-        <v>59</v>
       </c>
       <c r="E100" t="s">
         <v>15</v>
@@ -3916,24 +3930,24 @@
         <v>0.7</v>
       </c>
       <c r="G100" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C101" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D101" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E101" t="s">
         <v>16</v>
@@ -3942,24 +3956,24 @@
         <v>2</v>
       </c>
       <c r="G101" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C102" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D102" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E102" t="s">
         <v>15</v>
@@ -3968,24 +3982,24 @@
         <v>100</v>
       </c>
       <c r="G102" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C103" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D103" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E103" t="s">
         <v>16</v>
@@ -3994,24 +4008,24 @@
         <v>1000</v>
       </c>
       <c r="G103" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C104" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D104" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E104" t="s">
         <v>16</v>
@@ -4020,24 +4034,24 @@
         <v>6</v>
       </c>
       <c r="G104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C105" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D105" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E105" t="s">
         <v>15</v>
@@ -4046,24 +4060,24 @@
         <v>10</v>
       </c>
       <c r="G105" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C106" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D106" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E106" t="s">
         <v>16</v>
@@ -4072,21 +4086,21 @@
         <v>8</v>
       </c>
       <c r="G106" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C107" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
@@ -4098,21 +4112,21 @@
         <v>600</v>
       </c>
       <c r="G107" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H107" t="b">
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C108" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D108" t="s">
         <v>14</v>
@@ -4130,18 +4144,18 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C109" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D109" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E109" t="s">
         <v>17</v>
@@ -4150,21 +4164,21 @@
         <v>75</v>
       </c>
       <c r="G109" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C110" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D110" t="s">
         <v>48</v>
@@ -4176,21 +4190,21 @@
         <v>1000</v>
       </c>
       <c r="G110" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C111" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D111" t="s">
         <v>52</v>
@@ -4202,24 +4216,24 @@
         <v>50</v>
       </c>
       <c r="G111" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H111" t="b">
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C112" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D112" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E112" t="s">
         <v>17</v>
@@ -4228,24 +4242,24 @@
         <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H112" t="b">
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C113" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D113" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E113" t="s">
         <v>17</v>
@@ -4254,24 +4268,24 @@
         <v>10</v>
       </c>
       <c r="G113" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H113" t="b">
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C114" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D114" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E114" t="s">
         <v>17</v>
@@ -4280,128 +4294,128 @@
         <v>25</v>
       </c>
       <c r="G114" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H114" t="b">
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C115" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D115" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E115" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H115" t="b">
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C116" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D116" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E116" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H116" t="b">
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C117" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D117" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E117" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H117" t="b">
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C118" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D118" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E118" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H118" t="b">
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C119" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D119" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E119" t="s">
         <v>17</v>
@@ -4410,24 +4424,24 @@
         <v>50</v>
       </c>
       <c r="G119" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H119" t="b">
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C120" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D120" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E120" t="s">
         <v>17</v>
@@ -4436,24 +4450,24 @@
         <v>50</v>
       </c>
       <c r="G120" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H120" t="b">
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C121" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D121" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E121" t="s">
         <v>17</v>
@@ -4462,24 +4476,24 @@
         <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H121" t="b">
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C122" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D122" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E122" t="s">
         <v>17</v>
@@ -4488,24 +4502,24 @@
         <v>10</v>
       </c>
       <c r="G122" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H122" t="b">
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C123" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D123" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E123" t="s">
         <v>17</v>
@@ -4514,24 +4528,24 @@
         <v>10</v>
       </c>
       <c r="G123" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H123" t="b">
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C124" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D124" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E124" t="s">
         <v>15</v>
@@ -4546,18 +4560,18 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C125" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D125" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E125" t="s">
         <v>15</v>
@@ -4566,24 +4580,24 @@
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H125" t="b">
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C126" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D126" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E126" t="s">
         <v>17</v>
@@ -4592,24 +4606,24 @@
         <v>10</v>
       </c>
       <c r="G126" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H126" t="b">
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C127" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D127" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E127" t="s">
         <v>17</v>
@@ -4618,22 +4632,22 @@
         <v>10</v>
       </c>
       <c r="G127" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H127" t="b">
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D128" t="s">
         <v>14</v>
@@ -4652,7 +4666,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I127" xr:uid="{D4BC7B17-CF98-4FFA-B8E0-38F8C70DE7CD}"/>
+  <autoFilter ref="A1:I128" xr:uid="{D4BC7B17-CF98-4FFA-B8E0-38F8C70DE7CD}"/>
   <conditionalFormatting sqref="H2:H127 I100">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>FALSE</formula>

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158A6F11-D01A-4736-8E9A-8BF1BA64DD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106FAE11-2BAE-4C4A-8FEF-7B9E8922A1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -153,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="144">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -578,6 +580,27 @@
   </si>
   <si>
     <t>INDEX_REGION</t>
+  </si>
+  <si>
+    <t>indication of very cold habitat</t>
+  </si>
+  <si>
+    <t>indication of very warm habitat</t>
+  </si>
+  <si>
+    <t>New thermal flags</t>
+  </si>
+  <si>
+    <t>nt_ti_stenocold_cold</t>
+  </si>
+  <si>
+    <t>pt_ti_stenocold_cold</t>
+  </si>
+  <si>
+    <t>nt_ti_warm_stenowarm</t>
+  </si>
+  <si>
+    <t>pt_ti_warm_stenowarm</t>
   </si>
 </sst>
 </file>
@@ -750,7 +773,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -783,13 +806,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -1214,7 +1243,7 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -1245,7 +1274,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
-        <v>44882</v>
+        <v>45082</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1417,6 +1446,14 @@
       </c>
       <c r="B33" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>45082</v>
+      </c>
+      <c r="B34" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1536,11 +1573,11 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J128"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L128" sqref="L128:L133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,7 +1587,7 @@
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1578,10 +1615,10 @@
       <c r="H1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1595,7 +1632,7 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E2">
@@ -1608,11 +1645,11 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="22" t="str">
+      <c r="I2" s="21" t="str">
         <f>B2</f>
         <v>Hi</v>
       </c>
-      <c r="J2" s="22" t="str">
+      <c r="J2" s="21" t="str">
         <f>B2</f>
         <v>Hi</v>
       </c>
@@ -1627,7 +1664,7 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E3">
@@ -1639,11 +1676,11 @@
       <c r="G3" t="b">
         <v>1</v>
       </c>
-      <c r="I3" s="22" t="str">
+      <c r="I3" s="21" t="str">
         <f t="shared" ref="I3:I66" si="0">B3</f>
         <v>Hi</v>
       </c>
-      <c r="J3" s="22" t="str">
+      <c r="J3" s="21" t="str">
         <f t="shared" ref="J3:J66" si="1">B3</f>
         <v>Hi</v>
       </c>
@@ -1658,7 +1695,7 @@
       <c r="C4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E4">
@@ -1670,11 +1707,11 @@
       <c r="G4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="22" t="str">
+      <c r="I4" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J4" s="22" t="str">
+      <c r="J4" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
@@ -1689,7 +1726,7 @@
       <c r="C5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E5">
@@ -1701,11 +1738,11 @@
       <c r="G5" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="22" t="str">
+      <c r="I5" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J5" s="22" t="str">
+      <c r="J5" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
@@ -1720,7 +1757,7 @@
       <c r="C6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E6">
@@ -1732,11 +1769,11 @@
       <c r="G6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="22" t="str">
+      <c r="I6" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J6" s="22" t="str">
+      <c r="J6" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
@@ -1751,7 +1788,7 @@
       <c r="C7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E7">
@@ -1763,11 +1800,11 @@
       <c r="G7" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="22" t="str">
+      <c r="I7" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J7" s="22" t="str">
+      <c r="J7" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
@@ -1782,7 +1819,7 @@
       <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E8">
@@ -1794,11 +1831,11 @@
       <c r="G8" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="22" t="str">
+      <c r="I8" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J8" s="22" t="str">
+      <c r="J8" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
@@ -1813,7 +1850,7 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E9">
@@ -1825,11 +1862,11 @@
       <c r="G9" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="22" t="str">
+      <c r="I9" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J9" s="22" t="str">
+      <c r="J9" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
@@ -1844,7 +1881,7 @@
       <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E10">
@@ -1856,11 +1893,11 @@
       <c r="G10" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="22" t="str">
+      <c r="I10" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J10" s="22" t="str">
+      <c r="J10" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
@@ -1875,7 +1912,7 @@
       <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E11">
@@ -1887,11 +1924,11 @@
       <c r="G11" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="22" t="str">
+      <c r="I11" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J11" s="22" t="str">
+      <c r="J11" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
@@ -1906,7 +1943,7 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E12">
@@ -1918,11 +1955,11 @@
       <c r="G12" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="22" t="str">
+      <c r="I12" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J12" s="22" t="str">
+      <c r="J12" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
@@ -1937,7 +1974,7 @@
       <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E13">
@@ -1949,11 +1986,11 @@
       <c r="G13" t="b">
         <v>1</v>
       </c>
-      <c r="I13" s="22" t="str">
+      <c r="I13" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J13" s="22" t="str">
+      <c r="J13" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
@@ -1968,7 +2005,7 @@
       <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E14">
@@ -1980,11 +2017,11 @@
       <c r="G14" t="b">
         <v>0</v>
       </c>
-      <c r="I14" s="22" t="str">
+      <c r="I14" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J14" s="22" t="str">
+      <c r="J14" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
@@ -1999,7 +2036,7 @@
       <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E15">
@@ -2011,11 +2048,11 @@
       <c r="G15" t="b">
         <v>0</v>
       </c>
-      <c r="I15" s="22" t="str">
+      <c r="I15" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J15" s="22" t="str">
+      <c r="J15" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
@@ -2030,7 +2067,7 @@
       <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E16">
@@ -2042,11 +2079,11 @@
       <c r="G16" t="b">
         <v>0</v>
       </c>
-      <c r="I16" s="22" t="str">
+      <c r="I16" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J16" s="22" t="str">
+      <c r="J16" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
@@ -2061,7 +2098,7 @@
       <c r="C17" t="s">
         <v>46</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E17">
@@ -2073,11 +2110,11 @@
       <c r="G17" t="b">
         <v>0</v>
       </c>
-      <c r="I17" s="22" t="str">
+      <c r="I17" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J17" s="22" t="str">
+      <c r="J17" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
@@ -2092,7 +2129,7 @@
       <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E18">
@@ -2104,11 +2141,11 @@
       <c r="G18" t="b">
         <v>0</v>
       </c>
-      <c r="I18" s="22" t="str">
+      <c r="I18" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J18" s="22" t="str">
+      <c r="J18" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
@@ -2123,7 +2160,7 @@
       <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E19">
@@ -2135,11 +2172,11 @@
       <c r="G19" t="b">
         <v>1</v>
       </c>
-      <c r="I19" s="22" t="str">
+      <c r="I19" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J19" s="22" t="str">
+      <c r="J19" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
@@ -2154,7 +2191,7 @@
       <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E20">
@@ -2166,11 +2203,11 @@
       <c r="G20" t="b">
         <v>1</v>
       </c>
-      <c r="I20" s="22" t="str">
+      <c r="I20" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J20" s="22" t="str">
+      <c r="J20" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
@@ -2185,7 +2222,7 @@
       <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E21">
@@ -2197,11 +2234,11 @@
       <c r="G21" t="b">
         <v>1</v>
       </c>
-      <c r="I21" s="22" t="str">
+      <c r="I21" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J21" s="22" t="str">
+      <c r="J21" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
@@ -2216,7 +2253,7 @@
       <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E22">
@@ -2229,11 +2266,11 @@
       <c r="G22" t="b">
         <v>1</v>
       </c>
-      <c r="I22" s="22" t="str">
+      <c r="I22" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J22" s="22" t="str">
+      <c r="J22" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
@@ -2248,7 +2285,7 @@
       <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E23">
@@ -2261,11 +2298,11 @@
       <c r="G23" t="b">
         <v>1</v>
       </c>
-      <c r="I23" s="22" t="str">
+      <c r="I23" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J23" s="22" t="str">
+      <c r="J23" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
@@ -2280,7 +2317,7 @@
       <c r="C24" t="s">
         <v>48</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E24">
@@ -2293,11 +2330,11 @@
       <c r="G24" t="b">
         <v>0</v>
       </c>
-      <c r="I24" s="22" t="str">
+      <c r="I24" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J24" s="22" t="str">
+      <c r="J24" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
@@ -2312,7 +2349,7 @@
       <c r="C25" t="s">
         <v>47</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E25">
@@ -2325,11 +2362,11 @@
       <c r="G25" t="b">
         <v>0</v>
       </c>
-      <c r="I25" s="22" t="str">
+      <c r="I25" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J25" s="22" t="str">
+      <c r="J25" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
@@ -2344,7 +2381,7 @@
       <c r="C26" t="s">
         <v>46</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E26">
@@ -2356,11 +2393,11 @@
       <c r="G26" t="b">
         <v>0</v>
       </c>
-      <c r="I26" s="22" t="str">
+      <c r="I26" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J26" s="22" t="str">
+      <c r="J26" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
@@ -2375,7 +2412,7 @@
       <c r="C27" t="s">
         <v>46</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E27">
@@ -2387,11 +2424,11 @@
       <c r="G27" t="b">
         <v>0</v>
       </c>
-      <c r="I27" s="22" t="str">
+      <c r="I27" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J27" s="22" t="str">
+      <c r="J27" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
@@ -2406,7 +2443,7 @@
       <c r="C28" t="s">
         <v>45</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E28">
@@ -2418,11 +2455,11 @@
       <c r="G28" t="b">
         <v>0</v>
       </c>
-      <c r="I28" s="22" t="str">
+      <c r="I28" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J28" s="22" t="str">
+      <c r="J28" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
@@ -2437,7 +2474,7 @@
       <c r="C29" t="s">
         <v>18</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E29">
@@ -2449,11 +2486,11 @@
       <c r="G29" t="b">
         <v>1</v>
       </c>
-      <c r="I29" s="22" t="str">
+      <c r="I29" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J29" s="22" t="str">
+      <c r="J29" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
@@ -2468,7 +2505,7 @@
       <c r="C30" t="s">
         <v>33</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E30">
@@ -2480,11 +2517,11 @@
       <c r="G30" t="b">
         <v>1</v>
       </c>
-      <c r="I30" s="22" t="str">
+      <c r="I30" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J30" s="22" t="str">
+      <c r="J30" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
@@ -2499,7 +2536,7 @@
       <c r="C31" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E31">
@@ -2511,11 +2548,11 @@
       <c r="G31" t="b">
         <v>1</v>
       </c>
-      <c r="I31" s="22" t="str">
+      <c r="I31" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J31" s="22" t="str">
+      <c r="J31" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
@@ -2530,7 +2567,7 @@
       <c r="C32" t="s">
         <v>14</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E32">
@@ -2543,11 +2580,11 @@
       <c r="G32" t="b">
         <v>1</v>
       </c>
-      <c r="I32" s="22" t="str">
+      <c r="I32" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J32" s="22" t="str">
+      <c r="J32" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
@@ -2562,7 +2599,7 @@
       <c r="C33" t="s">
         <v>14</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E33">
@@ -2575,11 +2612,11 @@
       <c r="G33" t="b">
         <v>1</v>
       </c>
-      <c r="I33" s="22" t="str">
+      <c r="I33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J33" s="22" t="str">
+      <c r="J33" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
@@ -2594,7 +2631,7 @@
       <c r="C34" t="s">
         <v>48</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E34">
@@ -2607,11 +2644,11 @@
       <c r="G34" t="b">
         <v>0</v>
       </c>
-      <c r="I34" s="22" t="str">
+      <c r="I34" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J34" s="22" t="str">
+      <c r="J34" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
@@ -2626,7 +2663,7 @@
       <c r="C35" t="s">
         <v>47</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E35">
@@ -2639,11 +2676,11 @@
       <c r="G35" t="b">
         <v>0</v>
       </c>
-      <c r="I35" s="22" t="str">
+      <c r="I35" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J35" s="22" t="str">
+      <c r="J35" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
@@ -2658,7 +2695,7 @@
       <c r="C36" t="s">
         <v>46</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E36">
@@ -2670,11 +2707,11 @@
       <c r="G36" t="b">
         <v>0</v>
       </c>
-      <c r="I36" s="22" t="str">
+      <c r="I36" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J36" s="22" t="str">
+      <c r="J36" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
@@ -2689,7 +2726,7 @@
       <c r="C37" t="s">
         <v>46</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E37">
@@ -2701,11 +2738,11 @@
       <c r="G37" t="b">
         <v>0</v>
       </c>
-      <c r="I37" s="22" t="str">
+      <c r="I37" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J37" s="22" t="str">
+      <c r="J37" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
@@ -2720,7 +2757,7 @@
       <c r="C38" t="s">
         <v>45</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E38">
@@ -2732,11 +2769,11 @@
       <c r="G38" t="b">
         <v>0</v>
       </c>
-      <c r="I38" s="22" t="str">
+      <c r="I38" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J38" s="22" t="str">
+      <c r="J38" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
@@ -2751,7 +2788,7 @@
       <c r="C39" t="s">
         <v>18</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E39">
@@ -2763,11 +2800,11 @@
       <c r="G39" t="b">
         <v>1</v>
       </c>
-      <c r="I39" s="22" t="str">
+      <c r="I39" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J39" s="22" t="str">
+      <c r="J39" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
@@ -2782,7 +2819,7 @@
       <c r="C40" t="s">
         <v>33</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E40">
@@ -2794,11 +2831,11 @@
       <c r="G40" t="b">
         <v>1</v>
       </c>
-      <c r="I40" s="22" t="str">
+      <c r="I40" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J40" s="22" t="str">
+      <c r="J40" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
@@ -2813,7 +2850,7 @@
       <c r="C41" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E41">
@@ -2825,11 +2862,11 @@
       <c r="G41" t="b">
         <v>1</v>
       </c>
-      <c r="I41" s="22" t="str">
+      <c r="I41" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J41" s="22" t="str">
+      <c r="J41" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
@@ -2844,7 +2881,7 @@
       <c r="C42" t="s">
         <v>55</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E42">
@@ -2856,11 +2893,11 @@
       <c r="G42" t="b">
         <v>0</v>
       </c>
-      <c r="I42" s="22" t="str">
+      <c r="I42" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J42" s="22" t="str">
+      <c r="J42" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -2875,7 +2912,7 @@
       <c r="C43" t="s">
         <v>55</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E43">
@@ -2890,11 +2927,11 @@
       <c r="H43" t="s">
         <v>119</v>
       </c>
-      <c r="I43" s="22" t="str">
+      <c r="I43" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J43" s="22" t="str">
+      <c r="J43" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -2909,7 +2946,7 @@
       <c r="C44" t="s">
         <v>57</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E44">
@@ -2921,11 +2958,11 @@
       <c r="G44" t="b">
         <v>0</v>
       </c>
-      <c r="I44" s="22" t="str">
+      <c r="I44" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J44" s="22" t="str">
+      <c r="J44" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -2940,7 +2977,7 @@
       <c r="C45" t="s">
         <v>57</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E45">
@@ -2952,11 +2989,11 @@
       <c r="G45" t="b">
         <v>0</v>
       </c>
-      <c r="I45" s="22" t="str">
+      <c r="I45" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J45" s="22" t="str">
+      <c r="J45" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -2971,7 +3008,7 @@
       <c r="C46" t="s">
         <v>60</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E46">
@@ -2983,11 +3020,11 @@
       <c r="G46" t="b">
         <v>0</v>
       </c>
-      <c r="I46" s="22" t="str">
+      <c r="I46" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J46" s="22" t="str">
+      <c r="J46" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3002,7 +3039,7 @@
       <c r="C47" t="s">
         <v>60</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E47">
@@ -3014,11 +3051,11 @@
       <c r="G47" t="b">
         <v>0</v>
       </c>
-      <c r="I47" s="22" t="str">
+      <c r="I47" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J47" s="22" t="str">
+      <c r="J47" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3033,7 +3070,7 @@
       <c r="C48" t="s">
         <v>63</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E48">
@@ -3045,11 +3082,11 @@
       <c r="G48" t="b">
         <v>0</v>
       </c>
-      <c r="I48" s="22" t="str">
+      <c r="I48" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J48" s="22" t="str">
+      <c r="J48" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3064,7 +3101,7 @@
       <c r="C49" t="s">
         <v>14</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E49">
@@ -3076,11 +3113,11 @@
       <c r="G49" t="b">
         <v>1</v>
       </c>
-      <c r="I49" s="22" t="str">
+      <c r="I49" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J49" s="22" t="str">
+      <c r="J49" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3095,7 +3132,7 @@
       <c r="C50" t="s">
         <v>14</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E50">
@@ -3107,11 +3144,11 @@
       <c r="G50" t="b">
         <v>1</v>
       </c>
-      <c r="I50" s="22" t="str">
+      <c r="I50" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J50" s="22" t="str">
+      <c r="J50" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3126,7 +3163,7 @@
       <c r="C51" t="s">
         <v>66</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E51">
@@ -3138,11 +3175,11 @@
       <c r="G51" t="b">
         <v>0</v>
       </c>
-      <c r="I51" s="22" t="str">
+      <c r="I51" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J51" s="22" t="str">
+      <c r="J51" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3157,7 +3194,7 @@
       <c r="C52" t="s">
         <v>48</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E52">
@@ -3169,11 +3206,11 @@
       <c r="G52" t="b">
         <v>0</v>
       </c>
-      <c r="I52" s="22" t="str">
+      <c r="I52" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J52" s="22" t="str">
+      <c r="J52" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3188,7 +3225,7 @@
       <c r="C53" t="s">
         <v>51</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E53">
@@ -3200,11 +3237,11 @@
       <c r="G53" t="b">
         <v>1</v>
       </c>
-      <c r="I53" s="22" t="str">
+      <c r="I53" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J53" s="22" t="str">
+      <c r="J53" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3219,10 +3256,10 @@
       <c r="C54" t="s">
         <v>70</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="18">
         <v>35</v>
       </c>
       <c r="F54" t="s">
@@ -3234,11 +3271,11 @@
       <c r="H54" t="s">
         <v>114</v>
       </c>
-      <c r="I54" s="22" t="str">
+      <c r="I54" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J54" s="22" t="str">
+      <c r="J54" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3253,7 +3290,7 @@
       <c r="C55" t="s">
         <v>72</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E55">
@@ -3265,11 +3302,11 @@
       <c r="G55" t="b">
         <v>1</v>
       </c>
-      <c r="I55" s="22" t="str">
+      <c r="I55" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J55" s="22" t="str">
+      <c r="J55" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3284,7 +3321,7 @@
       <c r="C56" t="s">
         <v>74</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E56">
@@ -3296,11 +3333,11 @@
       <c r="G56" t="b">
         <v>1</v>
       </c>
-      <c r="I56" s="22" t="str">
+      <c r="I56" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J56" s="22" t="str">
+      <c r="J56" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3315,7 +3352,7 @@
       <c r="C57" t="s">
         <v>76</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="22" t="s">
         <v>100</v>
       </c>
       <c r="E57">
@@ -3327,11 +3364,11 @@
       <c r="G57" t="b">
         <v>1</v>
       </c>
-      <c r="I57" s="22" t="str">
+      <c r="I57" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J57" s="22" t="str">
+      <c r="J57" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3346,7 +3383,7 @@
       <c r="C58" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="22" t="s">
         <v>100</v>
       </c>
       <c r="E58">
@@ -3358,11 +3395,11 @@
       <c r="G58" t="b">
         <v>1</v>
       </c>
-      <c r="I58" s="22" t="str">
+      <c r="I58" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J58" s="22" t="str">
+      <c r="J58" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3377,7 +3414,7 @@
       <c r="C59" t="s">
         <v>80</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="22" t="s">
         <v>100</v>
       </c>
       <c r="E59">
@@ -3389,11 +3426,11 @@
       <c r="G59" t="b">
         <v>1</v>
       </c>
-      <c r="I59" s="22" t="str">
+      <c r="I59" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J59" s="22" t="str">
+      <c r="J59" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3408,7 +3445,7 @@
       <c r="C60" t="s">
         <v>82</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="22" t="s">
         <v>100</v>
       </c>
       <c r="E60">
@@ -3420,11 +3457,11 @@
       <c r="G60" t="b">
         <v>1</v>
       </c>
-      <c r="I60" s="22" t="str">
+      <c r="I60" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J60" s="22" t="str">
+      <c r="J60" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3439,7 +3476,7 @@
       <c r="C61" t="s">
         <v>84</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E61">
@@ -3451,11 +3488,11 @@
       <c r="G61" t="b">
         <v>1</v>
       </c>
-      <c r="I61" s="22" t="str">
+      <c r="I61" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J61" s="22" t="str">
+      <c r="J61" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3470,10 +3507,10 @@
       <c r="C62" t="s">
         <v>95</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E62" s="18">
         <v>50</v>
       </c>
       <c r="F62" t="s">
@@ -3485,11 +3522,11 @@
       <c r="H62" t="s">
         <v>114</v>
       </c>
-      <c r="I62" s="22" t="str">
+      <c r="I62" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J62" s="22" t="str">
+      <c r="J62" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3504,7 +3541,7 @@
       <c r="C63" t="s">
         <v>87</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E63">
@@ -3516,11 +3553,11 @@
       <c r="G63" t="b">
         <v>1</v>
       </c>
-      <c r="I63" s="22" t="str">
+      <c r="I63" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J63" s="22" t="str">
+      <c r="J63" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3535,7 +3572,7 @@
       <c r="C64" t="s">
         <v>89</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E64">
@@ -3547,11 +3584,11 @@
       <c r="G64" t="b">
         <v>1</v>
       </c>
-      <c r="I64" s="22" t="str">
+      <c r="I64" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J64" s="22" t="str">
+      <c r="J64" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3566,7 +3603,7 @@
       <c r="C65" t="s">
         <v>91</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E65">
@@ -3578,11 +3615,11 @@
       <c r="G65" t="b">
         <v>1</v>
       </c>
-      <c r="I65" s="22" t="str">
+      <c r="I65" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J65" s="22" t="str">
+      <c r="J65" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3597,7 +3634,7 @@
       <c r="C66" t="s">
         <v>93</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E66">
@@ -3609,11 +3646,11 @@
       <c r="G66" t="b">
         <v>1</v>
       </c>
-      <c r="I66" s="22" t="str">
+      <c r="I66" s="21" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J66" s="22" t="str">
+      <c r="J66" s="21" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3628,7 +3665,7 @@
       <c r="C67" t="s">
         <v>105</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E67">
@@ -3643,12 +3680,12 @@
       <c r="H67" t="s">
         <v>113</v>
       </c>
-      <c r="I67" s="22" t="str">
-        <f t="shared" ref="I67:I128" si="3">B67</f>
+      <c r="I67" s="21" t="str">
+        <f t="shared" ref="I67:I130" si="3">B67</f>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J67" s="22" t="str">
-        <f t="shared" ref="J67:J128" si="4">B67</f>
+      <c r="J67" s="21" t="str">
+        <f t="shared" ref="J67:J130" si="4">B67</f>
         <v>HiGrad-LoElev</v>
       </c>
     </row>
@@ -3662,7 +3699,7 @@
       <c r="C68" t="s">
         <v>108</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E68">
@@ -3677,11 +3714,11 @@
       <c r="H68" t="s">
         <v>121</v>
       </c>
-      <c r="I68" s="22" t="str">
+      <c r="I68" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J68" s="22" t="str">
+      <c r="J68" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3696,10 +3733,10 @@
       <c r="C69" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E69" s="19">
         <v>10</v>
       </c>
       <c r="F69" s="13" t="s">
@@ -3711,11 +3748,11 @@
       <c r="H69" t="s">
         <v>121</v>
       </c>
-      <c r="I69" s="22" t="str">
+      <c r="I69" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J69" s="22" t="str">
+      <c r="J69" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3730,10 +3767,10 @@
       <c r="C70" t="s">
         <v>117</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="20">
+      <c r="E70" s="19">
         <v>10</v>
       </c>
       <c r="F70" s="13" t="s">
@@ -3745,11 +3782,11 @@
       <c r="H70" t="s">
         <v>121</v>
       </c>
-      <c r="I70" s="22" t="str">
+      <c r="I70" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J70" s="22" t="str">
+      <c r="J70" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3764,7 +3801,7 @@
       <c r="C71" t="s">
         <v>55</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E71" s="8">
@@ -3776,11 +3813,11 @@
       <c r="G71" t="b">
         <v>0</v>
       </c>
-      <c r="I71" s="22" t="str">
+      <c r="I71" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J71" s="22" t="str">
+      <c r="J71" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -3795,7 +3832,7 @@
       <c r="C72" t="s">
         <v>55</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E72">
@@ -3807,11 +3844,11 @@
       <c r="G72" t="b">
         <v>0</v>
       </c>
-      <c r="I72" s="22" t="str">
+      <c r="I72" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J72" s="22" t="str">
+      <c r="J72" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -3826,7 +3863,7 @@
       <c r="C73" t="s">
         <v>57</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E73">
@@ -3838,11 +3875,11 @@
       <c r="G73" t="b">
         <v>0</v>
       </c>
-      <c r="I73" s="22" t="str">
+      <c r="I73" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J73" s="22" t="str">
+      <c r="J73" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -3857,7 +3894,7 @@
       <c r="C74" t="s">
         <v>57</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E74">
@@ -3869,11 +3906,11 @@
       <c r="G74" t="b">
         <v>0</v>
       </c>
-      <c r="I74" s="22" t="str">
+      <c r="I74" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J74" s="22" t="str">
+      <c r="J74" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -3888,7 +3925,7 @@
       <c r="C75" t="s">
         <v>108</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E75">
@@ -3900,11 +3937,11 @@
       <c r="G75" t="b">
         <v>0</v>
       </c>
-      <c r="I75" s="22" t="str">
+      <c r="I75" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J75" s="22" t="str">
+      <c r="J75" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -3919,7 +3956,7 @@
       <c r="C76" t="s">
         <v>60</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E76">
@@ -3931,11 +3968,11 @@
       <c r="G76" t="b">
         <v>0</v>
       </c>
-      <c r="I76" s="22" t="str">
+      <c r="I76" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J76" s="22" t="str">
+      <c r="J76" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -3950,7 +3987,7 @@
       <c r="C77" t="s">
         <v>60</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E77">
@@ -3962,11 +3999,11 @@
       <c r="G77" t="b">
         <v>0</v>
       </c>
-      <c r="I77" s="22" t="str">
+      <c r="I77" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J77" s="22" t="str">
+      <c r="J77" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -3981,7 +4018,7 @@
       <c r="C78" t="s">
         <v>63</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E78">
@@ -3993,11 +4030,11 @@
       <c r="G78" t="b">
         <v>0</v>
       </c>
-      <c r="I78" s="22" t="str">
+      <c r="I78" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J78" s="22" t="str">
+      <c r="J78" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4012,7 +4049,7 @@
       <c r="C79" t="s">
         <v>14</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E79">
@@ -4024,11 +4061,11 @@
       <c r="G79" t="b">
         <v>1</v>
       </c>
-      <c r="I79" s="22" t="str">
+      <c r="I79" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J79" s="22" t="str">
+      <c r="J79" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4043,7 +4080,7 @@
       <c r="C80" t="s">
         <v>14</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E80">
@@ -4055,11 +4092,11 @@
       <c r="G80" t="b">
         <v>1</v>
       </c>
-      <c r="I80" s="22" t="str">
+      <c r="I80" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J80" s="22" t="str">
+      <c r="J80" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4074,7 +4111,7 @@
       <c r="C81" t="s">
         <v>66</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E81">
@@ -4086,11 +4123,11 @@
       <c r="G81" t="b">
         <v>0</v>
       </c>
-      <c r="I81" s="22" t="str">
+      <c r="I81" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J81" s="22" t="str">
+      <c r="J81" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4105,7 +4142,7 @@
       <c r="C82" t="s">
         <v>48</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E82">
@@ -4117,11 +4154,11 @@
       <c r="G82" t="b">
         <v>0</v>
       </c>
-      <c r="I82" s="22" t="str">
+      <c r="I82" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J82" s="22" t="str">
+      <c r="J82" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4136,7 +4173,7 @@
       <c r="C83" t="s">
         <v>51</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E83">
@@ -4148,11 +4185,11 @@
       <c r="G83" t="b">
         <v>1</v>
       </c>
-      <c r="I83" s="22" t="str">
+      <c r="I83" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J83" s="22" t="str">
+      <c r="J83" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4167,7 +4204,7 @@
       <c r="C84" t="s">
         <v>70</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E84">
@@ -4179,11 +4216,11 @@
       <c r="G84" t="b">
         <v>1</v>
       </c>
-      <c r="I84" s="22" t="str">
+      <c r="I84" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J84" s="22" t="str">
+      <c r="J84" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4198,7 +4235,7 @@
       <c r="C85" t="s">
         <v>72</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E85">
@@ -4210,11 +4247,11 @@
       <c r="G85" t="b">
         <v>1</v>
       </c>
-      <c r="I85" s="22" t="str">
+      <c r="I85" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J85" s="22" t="str">
+      <c r="J85" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4229,7 +4266,7 @@
       <c r="C86" t="s">
         <v>74</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E86">
@@ -4241,11 +4278,11 @@
       <c r="G86" t="b">
         <v>1</v>
       </c>
-      <c r="I86" s="22" t="str">
+      <c r="I86" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J86" s="22" t="str">
+      <c r="J86" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4260,7 +4297,7 @@
       <c r="C87" t="s">
         <v>76</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E87">
@@ -4272,11 +4309,11 @@
       <c r="G87" t="b">
         <v>1</v>
       </c>
-      <c r="I87" s="22" t="str">
+      <c r="I87" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J87" s="22" t="str">
+      <c r="J87" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4291,7 +4328,7 @@
       <c r="C88" t="s">
         <v>78</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E88">
@@ -4303,11 +4340,11 @@
       <c r="G88" t="b">
         <v>1</v>
       </c>
-      <c r="I88" s="22" t="str">
+      <c r="I88" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J88" s="22" t="str">
+      <c r="J88" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4322,7 +4359,7 @@
       <c r="C89" t="s">
         <v>80</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E89">
@@ -4334,11 +4371,11 @@
       <c r="G89" t="b">
         <v>1</v>
       </c>
-      <c r="I89" s="22" t="str">
+      <c r="I89" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J89" s="22" t="str">
+      <c r="J89" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4353,7 +4390,7 @@
       <c r="C90" t="s">
         <v>82</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E90">
@@ -4365,11 +4402,11 @@
       <c r="G90" t="b">
         <v>1</v>
       </c>
-      <c r="I90" s="22" t="str">
+      <c r="I90" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J90" s="22" t="str">
+      <c r="J90" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4384,7 +4421,7 @@
       <c r="C91" t="s">
         <v>84</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E91">
@@ -4396,11 +4433,11 @@
       <c r="G91" t="b">
         <v>1</v>
       </c>
-      <c r="I91" s="22" t="str">
+      <c r="I91" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J91" s="22" t="str">
+      <c r="J91" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4415,7 +4452,7 @@
       <c r="C92" t="s">
         <v>95</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E92">
@@ -4427,11 +4464,11 @@
       <c r="G92" t="b">
         <v>1</v>
       </c>
-      <c r="I92" s="22" t="str">
+      <c r="I92" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J92" s="22" t="str">
+      <c r="J92" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4446,7 +4483,7 @@
       <c r="C93" t="s">
         <v>87</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E93">
@@ -4458,11 +4495,11 @@
       <c r="G93" t="b">
         <v>1</v>
       </c>
-      <c r="I93" s="22" t="str">
+      <c r="I93" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J93" s="22" t="str">
+      <c r="J93" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4477,7 +4514,7 @@
       <c r="C94" t="s">
         <v>89</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E94">
@@ -4489,11 +4526,11 @@
       <c r="G94" t="b">
         <v>1</v>
       </c>
-      <c r="I94" s="22" t="str">
+      <c r="I94" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J94" s="22" t="str">
+      <c r="J94" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4508,7 +4545,7 @@
       <c r="C95" t="s">
         <v>91</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E95">
@@ -4520,11 +4557,11 @@
       <c r="G95" t="b">
         <v>1</v>
       </c>
-      <c r="I95" s="22" t="str">
+      <c r="I95" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J95" s="22" t="str">
+      <c r="J95" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4539,7 +4576,7 @@
       <c r="C96" t="s">
         <v>93</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E96">
@@ -4551,11 +4588,11 @@
       <c r="G96" t="b">
         <v>1</v>
       </c>
-      <c r="I96" s="22" t="str">
+      <c r="I96" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J96" s="22" t="str">
+      <c r="J96" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4570,7 +4607,7 @@
       <c r="C97" t="s">
         <v>105</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E97">
@@ -4582,11 +4619,11 @@
       <c r="G97" t="b">
         <v>1</v>
       </c>
-      <c r="I97" s="22" t="str">
+      <c r="I97" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J97" s="22" t="str">
+      <c r="J97" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4601,7 +4638,7 @@
       <c r="C98" t="s">
         <v>110</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E98">
@@ -4613,11 +4650,11 @@
       <c r="G98" t="b">
         <v>1</v>
       </c>
-      <c r="I98" s="22" t="str">
+      <c r="I98" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J98" s="22" t="str">
+      <c r="J98" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4632,7 +4669,7 @@
       <c r="C99" t="s">
         <v>117</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E99">
@@ -4644,11 +4681,11 @@
       <c r="G99" t="b">
         <v>1</v>
       </c>
-      <c r="I99" s="22" t="str">
+      <c r="I99" s="21" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J99" s="22" t="str">
+      <c r="J99" s="21" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4663,7 +4700,7 @@
       <c r="C100" t="s">
         <v>55</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E100">
@@ -4678,11 +4715,11 @@
       <c r="H100" t="s">
         <v>124</v>
       </c>
-      <c r="I100" s="22" t="str">
+      <c r="I100" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J100" s="22" t="str">
+      <c r="J100" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -4697,7 +4734,7 @@
       <c r="C101" t="s">
         <v>57</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E101">
@@ -4712,11 +4749,11 @@
       <c r="H101" t="s">
         <v>122</v>
       </c>
-      <c r="I101" s="22" t="str">
+      <c r="I101" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J101" s="22" t="str">
+      <c r="J101" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -4731,7 +4768,7 @@
       <c r="C102" t="s">
         <v>57</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E102">
@@ -4746,11 +4783,11 @@
       <c r="H102" t="s">
         <v>122</v>
       </c>
-      <c r="I102" s="22" t="str">
+      <c r="I102" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J102" s="22" t="str">
+      <c r="J102" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -4765,7 +4802,7 @@
       <c r="C103" t="s">
         <v>108</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E103">
@@ -4780,11 +4817,11 @@
       <c r="H103" t="s">
         <v>122</v>
       </c>
-      <c r="I103" s="22" t="str">
+      <c r="I103" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J103" s="22" t="str">
+      <c r="J103" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -4799,7 +4836,7 @@
       <c r="C104" t="s">
         <v>60</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E104">
@@ -4814,11 +4851,11 @@
       <c r="H104" t="s">
         <v>122</v>
       </c>
-      <c r="I104" s="22" t="str">
+      <c r="I104" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J104" s="22" t="str">
+      <c r="J104" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -4833,7 +4870,7 @@
       <c r="C105" t="s">
         <v>60</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E105">
@@ -4848,11 +4885,11 @@
       <c r="H105" t="s">
         <v>122</v>
       </c>
-      <c r="I105" s="22" t="str">
+      <c r="I105" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J105" s="22" t="str">
+      <c r="J105" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -4867,7 +4904,7 @@
       <c r="C106" t="s">
         <v>63</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E106">
@@ -4882,11 +4919,11 @@
       <c r="H106" t="s">
         <v>122</v>
       </c>
-      <c r="I106" s="22" t="str">
+      <c r="I106" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J106" s="22" t="str">
+      <c r="J106" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -4901,7 +4938,7 @@
       <c r="C107" t="s">
         <v>14</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E107">
@@ -4916,11 +4953,11 @@
       <c r="H107" t="s">
         <v>122</v>
       </c>
-      <c r="I107" s="22" t="str">
+      <c r="I107" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J107" s="22" t="str">
+      <c r="J107" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -4935,7 +4972,7 @@
       <c r="C108" t="s">
         <v>14</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E108">
@@ -4950,11 +4987,11 @@
       <c r="H108" t="s">
         <v>122</v>
       </c>
-      <c r="I108" s="22" t="str">
+      <c r="I108" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J108" s="22" t="str">
+      <c r="J108" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -4969,7 +5006,7 @@
       <c r="C109" t="s">
         <v>66</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E109">
@@ -4984,11 +5021,11 @@
       <c r="H109" t="s">
         <v>122</v>
       </c>
-      <c r="I109" s="22" t="str">
+      <c r="I109" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J109" s="22" t="str">
+      <c r="J109" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5003,7 +5040,7 @@
       <c r="C110" t="s">
         <v>48</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E110">
@@ -5018,11 +5055,11 @@
       <c r="H110" t="s">
         <v>122</v>
       </c>
-      <c r="I110" s="22" t="str">
+      <c r="I110" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J110" s="22" t="str">
+      <c r="J110" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5037,7 +5074,7 @@
       <c r="C111" t="s">
         <v>51</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E111">
@@ -5052,11 +5089,11 @@
       <c r="H111" t="s">
         <v>122</v>
       </c>
-      <c r="I111" s="22" t="str">
+      <c r="I111" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J111" s="22" t="str">
+      <c r="J111" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5071,7 +5108,7 @@
       <c r="C112" t="s">
         <v>70</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E112">
@@ -5086,11 +5123,11 @@
       <c r="H112" t="s">
         <v>122</v>
       </c>
-      <c r="I112" s="22" t="str">
+      <c r="I112" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J112" s="22" t="str">
+      <c r="J112" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5105,7 +5142,7 @@
       <c r="C113" t="s">
         <v>72</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E113">
@@ -5120,11 +5157,11 @@
       <c r="H113" t="s">
         <v>122</v>
       </c>
-      <c r="I113" s="22" t="str">
+      <c r="I113" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J113" s="22" t="str">
+      <c r="J113" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5139,7 +5176,7 @@
       <c r="C114" t="s">
         <v>74</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E114">
@@ -5154,11 +5191,11 @@
       <c r="H114" t="s">
         <v>122</v>
       </c>
-      <c r="I114" s="22" t="str">
+      <c r="I114" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J114" s="22" t="str">
+      <c r="J114" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5173,7 +5210,7 @@
       <c r="C115" t="s">
         <v>76</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E115">
@@ -5188,11 +5225,11 @@
       <c r="H115" t="s">
         <v>122</v>
       </c>
-      <c r="I115" s="22" t="str">
+      <c r="I115" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J115" s="22" t="str">
+      <c r="J115" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5207,7 +5244,7 @@
       <c r="C116" t="s">
         <v>78</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E116">
@@ -5222,11 +5259,11 @@
       <c r="H116" t="s">
         <v>122</v>
       </c>
-      <c r="I116" s="22" t="str">
+      <c r="I116" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J116" s="22" t="str">
+      <c r="J116" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5241,7 +5278,7 @@
       <c r="C117" t="s">
         <v>80</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E117">
@@ -5256,11 +5293,11 @@
       <c r="H117" t="s">
         <v>122</v>
       </c>
-      <c r="I117" s="22" t="str">
+      <c r="I117" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J117" s="22" t="str">
+      <c r="J117" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5275,7 +5312,7 @@
       <c r="C118" t="s">
         <v>82</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E118">
@@ -5290,11 +5327,11 @@
       <c r="H118" t="s">
         <v>122</v>
       </c>
-      <c r="I118" s="22" t="str">
+      <c r="I118" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J118" s="22" t="str">
+      <c r="J118" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5309,7 +5346,7 @@
       <c r="C119" t="s">
         <v>84</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E119">
@@ -5324,11 +5361,11 @@
       <c r="H119" t="s">
         <v>122</v>
       </c>
-      <c r="I119" s="22" t="str">
+      <c r="I119" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J119" s="22" t="str">
+      <c r="J119" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5343,7 +5380,7 @@
       <c r="C120" t="s">
         <v>95</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E120">
@@ -5358,11 +5395,11 @@
       <c r="H120" t="s">
         <v>122</v>
       </c>
-      <c r="I120" s="22" t="str">
+      <c r="I120" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J120" s="22" t="str">
+      <c r="J120" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5377,7 +5414,7 @@
       <c r="C121" t="s">
         <v>87</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E121">
@@ -5392,11 +5429,11 @@
       <c r="H121" t="s">
         <v>122</v>
       </c>
-      <c r="I121" s="22" t="str">
+      <c r="I121" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J121" s="22" t="str">
+      <c r="J121" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5411,7 +5448,7 @@
       <c r="C122" t="s">
         <v>89</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E122">
@@ -5426,11 +5463,11 @@
       <c r="H122" t="s">
         <v>122</v>
       </c>
-      <c r="I122" s="22" t="str">
+      <c r="I122" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J122" s="22" t="str">
+      <c r="J122" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5445,7 +5482,7 @@
       <c r="C123" t="s">
         <v>91</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E123">
@@ -5460,11 +5497,11 @@
       <c r="H123" t="s">
         <v>122</v>
       </c>
-      <c r="I123" s="22" t="str">
+      <c r="I123" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J123" s="22" t="str">
+      <c r="J123" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5479,7 +5516,7 @@
       <c r="C124" t="s">
         <v>93</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E124">
@@ -5494,11 +5531,11 @@
       <c r="H124" t="s">
         <v>122</v>
       </c>
-      <c r="I124" s="22" t="str">
+      <c r="I124" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J124" s="22" t="str">
+      <c r="J124" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5513,7 +5550,7 @@
       <c r="C125" t="s">
         <v>105</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E125">
@@ -5528,11 +5565,11 @@
       <c r="H125" t="s">
         <v>122</v>
       </c>
-      <c r="I125" s="22" t="str">
+      <c r="I125" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J125" s="22" t="str">
+      <c r="J125" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5547,7 +5584,7 @@
       <c r="C126" t="s">
         <v>110</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E126">
@@ -5562,11 +5599,11 @@
       <c r="H126" t="s">
         <v>122</v>
       </c>
-      <c r="I126" s="22" t="str">
+      <c r="I126" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J126" s="22" t="str">
+      <c r="J126" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5581,7 +5618,7 @@
       <c r="C127" t="s">
         <v>117</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E127">
@@ -5596,11 +5633,11 @@
       <c r="H127" t="s">
         <v>122</v>
       </c>
-      <c r="I127" s="22" t="str">
+      <c r="I127" s="21" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J127" s="22" t="str">
+      <c r="J127" s="21" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5618,7 +5655,7 @@
       <c r="D128" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E128" s="8">
+      <c r="E128" s="23">
         <v>450</v>
       </c>
       <c r="F128" t="s">
@@ -5627,12 +5664,148 @@
       <c r="G128" t="b">
         <v>1</v>
       </c>
-      <c r="I128" s="22" t="str">
+      <c r="I128" s="21" t="str">
         <f t="shared" si="3"/>
         <v>ORWA</v>
       </c>
-      <c r="J128" s="22" t="str">
-        <f t="shared" si="4"/>
+      <c r="J128" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v>ORWA</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>140</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129">
+        <v>10</v>
+      </c>
+      <c r="F129" t="s">
+        <v>137</v>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="24">
+        <v>45082</v>
+      </c>
+      <c r="I129" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>ORWA</v>
+      </c>
+      <c r="J129" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v>ORWA</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>127</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C130" t="s">
+        <v>141</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130">
+        <v>25</v>
+      </c>
+      <c r="F130" t="s">
+        <v>137</v>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="24">
+        <v>45082</v>
+      </c>
+      <c r="I130" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>ORWA</v>
+      </c>
+      <c r="J130" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v>ORWA</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>127</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C131" t="s">
+        <v>142</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131">
+        <v>15</v>
+      </c>
+      <c r="F131" t="s">
+        <v>138</v>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="24">
+        <v>45082</v>
+      </c>
+      <c r="I131" s="21" t="str">
+        <f t="shared" ref="I131:I132" si="5">B131</f>
+        <v>ORWA</v>
+      </c>
+      <c r="J131" s="21" t="str">
+        <f t="shared" ref="J131:J132" si="6">B131</f>
+        <v>ORWA</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>127</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C132" t="s">
+        <v>143</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132">
+        <v>30</v>
+      </c>
+      <c r="F132" t="s">
+        <v>138</v>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="24">
+        <v>45082</v>
+      </c>
+      <c r="I132" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>ORWA</v>
+      </c>
+      <c r="J132" s="21" t="str">
+        <f t="shared" si="6"/>
         <v>ORWA</v>
       </c>
     </row>
@@ -5663,7 +5836,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G128">
+  <conditionalFormatting sqref="G128:G132">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106FAE11-2BAE-4C4A-8FEF-7B9E8922A1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BCCB7B-91E8-4655-AD4C-F1AA9A1E055A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Flags" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flags!$A$1:$J$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flags!$A$1:$J$132</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="146">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -322,19 +322,7 @@
     <t>HiGrad-LoElev</t>
   </si>
   <si>
-    <t>pcSLOPE</t>
-  </si>
-  <si>
     <t>percent flowline slope, high</t>
-  </si>
-  <si>
-    <t>DrArea_mi2</t>
-  </si>
-  <si>
-    <t>watershed size, small (mi2)</t>
-  </si>
-  <si>
-    <t>watershed size, large (mi2)</t>
   </si>
   <si>
     <t>CollMonth</t>
@@ -601,6 +589,24 @@
   </si>
   <si>
     <t>pt_ti_warm_stenowarm</t>
+  </si>
+  <si>
+    <t>pctSLOPE</t>
+  </si>
+  <si>
+    <t>WSAREASQKM</t>
+  </si>
+  <si>
+    <t>watershed size, small (km2)</t>
+  </si>
+  <si>
+    <t>watershed size, large (km2)</t>
+  </si>
+  <si>
+    <t>pcSLOPE to pctSLOPE</t>
+  </si>
+  <si>
+    <t>DrArea_mi2 (2 and 100) to WSAREASQKM (5 and 260)</t>
   </si>
 </sst>
 </file>
@@ -1243,10 +1249,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,7 +1317,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1366,7 +1372,7 @@
         <v>44531</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1374,22 +1380,22 @@
         <v>44532</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1397,7 +1403,7 @@
         <v>44603</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1405,7 +1411,7 @@
         <v>44651</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1413,7 +1419,7 @@
         <v>44832</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1421,7 +1427,7 @@
         <v>44845</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,7 +1435,7 @@
         <v>44866</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1437,7 +1443,7 @@
         <v>44881</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1451,7 @@
         <v>44882</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1453,7 +1459,20 @@
         <v>45082</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
+        <v>45082</v>
+      </c>
+      <c r="B35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1538,7 +1557,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1576,8 +1595,8 @@
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L128" sqref="L128:L133"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,7 +1614,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>50</v>
@@ -1610,21 +1629,21 @@
         <v>36</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>34</v>
@@ -1656,7 +1675,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>34</v>
@@ -1687,7 +1706,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>34</v>
@@ -1718,7 +1737,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>34</v>
@@ -1749,7 +1768,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>34</v>
@@ -1780,7 +1799,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>34</v>
@@ -1811,7 +1830,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>34</v>
@@ -1842,7 +1861,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>34</v>
@@ -1873,7 +1892,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>34</v>
@@ -1904,7 +1923,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>34</v>
@@ -1935,7 +1954,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -1966,7 +1985,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -1997,7 +2016,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -2028,7 +2047,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -2059,7 +2078,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
@@ -2090,7 +2109,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -2121,7 +2140,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -2152,7 +2171,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
@@ -2183,7 +2202,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
@@ -2214,7 +2233,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -2245,7 +2264,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>34</v>
@@ -2277,7 +2296,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>34</v>
@@ -2309,7 +2328,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>34</v>
@@ -2341,7 +2360,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>34</v>
@@ -2373,7 +2392,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>34</v>
@@ -2404,7 +2423,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>34</v>
@@ -2435,7 +2454,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>34</v>
@@ -2466,7 +2485,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>34</v>
@@ -2497,7 +2516,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>34</v>
@@ -2528,7 +2547,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>34</v>
@@ -2559,7 +2578,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -2591,7 +2610,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -2623,7 +2642,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -2655,7 +2674,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -2687,7 +2706,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -2718,7 +2737,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -2749,7 +2768,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
@@ -2780,7 +2799,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -2811,7 +2830,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
@@ -2842,7 +2861,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
@@ -2879,7 +2898,7 @@
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>17</v>
@@ -2888,7 +2907,7 @@
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -2910,7 +2929,7 @@
         <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>16</v>
@@ -2919,13 +2938,13 @@
         <v>1.2</v>
       </c>
       <c r="F43" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I43" s="21" t="str">
         <f t="shared" si="0"/>
@@ -2944,16 +2963,16 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
@@ -2975,16 +2994,16 @@
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E45">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -3006,7 +3025,7 @@
         <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>16</v>
@@ -3015,7 +3034,7 @@
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -3037,7 +3056,7 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>15</v>
@@ -3046,7 +3065,7 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -3068,7 +3087,7 @@
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>16</v>
@@ -3077,7 +3096,7 @@
         <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -3108,7 +3127,7 @@
         <v>600</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -3161,7 +3180,7 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>17</v>
@@ -3170,7 +3189,7 @@
         <v>75</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
@@ -3201,7 +3220,7 @@
         <v>1000</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
@@ -3232,7 +3251,7 @@
         <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
@@ -3254,7 +3273,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>17</v>
@@ -3263,13 +3282,13 @@
         <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I54" s="21" t="str">
         <f t="shared" si="0"/>
@@ -3288,7 +3307,7 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>17</v>
@@ -3297,7 +3316,7 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
@@ -3319,7 +3338,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>17</v>
@@ -3328,7 +3347,7 @@
         <v>25</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -3350,16 +3369,16 @@
         <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -3381,16 +3400,16 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -3412,16 +3431,16 @@
         <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -3443,16 +3462,16 @@
         <v>54</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -3474,7 +3493,7 @@
         <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>17</v>
@@ -3483,7 +3502,7 @@
         <v>50</v>
       </c>
       <c r="F61" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
@@ -3505,7 +3524,7 @@
         <v>54</v>
       </c>
       <c r="C62" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>17</v>
@@ -3514,13 +3533,13 @@
         <v>50</v>
       </c>
       <c r="F62" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I62" s="21" t="str">
         <f t="shared" si="0"/>
@@ -3539,7 +3558,7 @@
         <v>54</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>17</v>
@@ -3548,7 +3567,7 @@
         <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -3570,7 +3589,7 @@
         <v>54</v>
       </c>
       <c r="C64" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>17</v>
@@ -3579,7 +3598,7 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -3601,7 +3620,7 @@
         <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>17</v>
@@ -3610,7 +3629,7 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -3632,7 +3651,7 @@
         <v>54</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>15</v>
@@ -3663,7 +3682,7 @@
         <v>54</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>15</v>
@@ -3672,13 +3691,13 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I67" s="21" t="str">
         <f t="shared" ref="I67:I130" si="3">B67</f>
@@ -3697,7 +3716,7 @@
         <v>54</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>16</v>
@@ -3706,13 +3725,13 @@
         <v>1000</v>
       </c>
       <c r="F68" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I68" s="21" t="str">
         <f t="shared" si="3"/>
@@ -3731,7 +3750,7 @@
         <v>54</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>17</v>
@@ -3740,13 +3759,13 @@
         <v>10</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G69" s="13" t="b">
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I69" s="21" t="str">
         <f t="shared" si="3"/>
@@ -3765,7 +3784,7 @@
         <v>54</v>
       </c>
       <c r="C70" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D70" s="19" t="s">
         <v>17</v>
@@ -3774,13 +3793,13 @@
         <v>10</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G70" s="13" t="b">
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I70" s="21" t="str">
         <f t="shared" si="3"/>
@@ -3796,19 +3815,19 @@
         <v>53</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="23">
         <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
@@ -3827,10 +3846,10 @@
         <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>16</v>
@@ -3839,7 +3858,7 @@
         <v>3</v>
       </c>
       <c r="F72" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
@@ -3858,19 +3877,19 @@
         <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F73" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
@@ -3889,19 +3908,19 @@
         <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E74">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="F74" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
@@ -3920,10 +3939,10 @@
         <v>53</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>16</v>
@@ -3932,7 +3951,7 @@
         <v>1000</v>
       </c>
       <c r="F75" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
@@ -3951,10 +3970,10 @@
         <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C76" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>16</v>
@@ -3963,7 +3982,7 @@
         <v>6</v>
       </c>
       <c r="F76" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
@@ -3982,10 +4001,10 @@
         <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C77" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>15</v>
@@ -3994,7 +4013,7 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
@@ -4013,10 +4032,10 @@
         <v>53</v>
       </c>
       <c r="B78" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C78" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>16</v>
@@ -4025,7 +4044,7 @@
         <v>8</v>
       </c>
       <c r="F78" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
@@ -4044,7 +4063,7 @@
         <v>53</v>
       </c>
       <c r="B79" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -4056,7 +4075,7 @@
         <v>600</v>
       </c>
       <c r="F79" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
@@ -4075,7 +4094,7 @@
         <v>53</v>
       </c>
       <c r="B80" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -4106,10 +4125,10 @@
         <v>53</v>
       </c>
       <c r="B81" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C81" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>17</v>
@@ -4118,7 +4137,7 @@
         <v>75</v>
       </c>
       <c r="F81" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
@@ -4137,7 +4156,7 @@
         <v>53</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C82" t="s">
         <v>48</v>
@@ -4149,7 +4168,7 @@
         <v>1000</v>
       </c>
       <c r="F82" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
@@ -4168,7 +4187,7 @@
         <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C83" t="s">
         <v>51</v>
@@ -4180,7 +4199,7 @@
         <v>50</v>
       </c>
       <c r="F83" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
@@ -4199,10 +4218,10 @@
         <v>53</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C84" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>17</v>
@@ -4211,7 +4230,7 @@
         <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
@@ -4230,10 +4249,10 @@
         <v>53</v>
       </c>
       <c r="B85" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C85" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>17</v>
@@ -4242,7 +4261,7 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
@@ -4261,10 +4280,10 @@
         <v>53</v>
       </c>
       <c r="B86" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C86" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>17</v>
@@ -4273,7 +4292,7 @@
         <v>25</v>
       </c>
       <c r="F86" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -4292,19 +4311,19 @@
         <v>53</v>
       </c>
       <c r="B87" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C87" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
@@ -4323,19 +4342,19 @@
         <v>53</v>
       </c>
       <c r="B88" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C88" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
@@ -4354,19 +4373,19 @@
         <v>53</v>
       </c>
       <c r="B89" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C89" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -4385,19 +4404,19 @@
         <v>53</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
@@ -4416,10 +4435,10 @@
         <v>53</v>
       </c>
       <c r="B91" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C91" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>17</v>
@@ -4428,7 +4447,7 @@
         <v>50</v>
       </c>
       <c r="F91" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
@@ -4447,10 +4466,10 @@
         <v>53</v>
       </c>
       <c r="B92" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C92" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>17</v>
@@ -4459,7 +4478,7 @@
         <v>50</v>
       </c>
       <c r="F92" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
@@ -4478,10 +4497,10 @@
         <v>53</v>
       </c>
       <c r="B93" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C93" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>17</v>
@@ -4490,7 +4509,7 @@
         <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -4509,10 +4528,10 @@
         <v>53</v>
       </c>
       <c r="B94" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>17</v>
@@ -4521,7 +4540,7 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
@@ -4540,10 +4559,10 @@
         <v>53</v>
       </c>
       <c r="B95" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>17</v>
@@ -4552,7 +4571,7 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
@@ -4571,10 +4590,10 @@
         <v>53</v>
       </c>
       <c r="B96" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>15</v>
@@ -4602,10 +4621,10 @@
         <v>53</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>15</v>
@@ -4614,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
@@ -4633,10 +4652,10 @@
         <v>53</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>17</v>
@@ -4645,7 +4664,7 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
@@ -4664,10 +4683,10 @@
         <v>53</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>17</v>
@@ -4676,7 +4695,7 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
@@ -4695,10 +4714,10 @@
         <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C100" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>15</v>
@@ -4707,13 +4726,13 @@
         <v>0.7</v>
       </c>
       <c r="F100" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I100" s="21" t="str">
         <f t="shared" si="3"/>
@@ -4729,25 +4748,25 @@
         <v>53</v>
       </c>
       <c r="B101" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C101" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I101" s="21" t="str">
         <f t="shared" si="3"/>
@@ -4763,25 +4782,25 @@
         <v>53</v>
       </c>
       <c r="B102" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C102" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E102">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="F102" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I102" s="21" t="str">
         <f t="shared" si="3"/>
@@ -4797,10 +4816,10 @@
         <v>53</v>
       </c>
       <c r="B103" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C103" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>16</v>
@@ -4809,13 +4828,13 @@
         <v>1000</v>
       </c>
       <c r="F103" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G103" t="b">
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I103" s="21" t="str">
         <f t="shared" si="3"/>
@@ -4831,10 +4850,10 @@
         <v>53</v>
       </c>
       <c r="B104" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C104" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>16</v>
@@ -4843,13 +4862,13 @@
         <v>6</v>
       </c>
       <c r="F104" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G104" t="b">
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I104" s="21" t="str">
         <f t="shared" si="3"/>
@@ -4865,10 +4884,10 @@
         <v>53</v>
       </c>
       <c r="B105" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C105" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>15</v>
@@ -4877,13 +4896,13 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G105" t="b">
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I105" s="21" t="str">
         <f t="shared" si="3"/>
@@ -4899,10 +4918,10 @@
         <v>53</v>
       </c>
       <c r="B106" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C106" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>16</v>
@@ -4911,13 +4930,13 @@
         <v>8</v>
       </c>
       <c r="F106" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G106" t="b">
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I106" s="21" t="str">
         <f t="shared" si="3"/>
@@ -4933,7 +4952,7 @@
         <v>53</v>
       </c>
       <c r="B107" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -4945,13 +4964,13 @@
         <v>600</v>
       </c>
       <c r="F107" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I107" s="21" t="str">
         <f t="shared" si="3"/>
@@ -4967,7 +4986,7 @@
         <v>53</v>
       </c>
       <c r="B108" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -4985,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I108" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5001,10 +5020,10 @@
         <v>53</v>
       </c>
       <c r="B109" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C109" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>17</v>
@@ -5013,13 +5032,13 @@
         <v>75</v>
       </c>
       <c r="F109" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G109" t="b">
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I109" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5035,7 +5054,7 @@
         <v>53</v>
       </c>
       <c r="B110" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C110" t="s">
         <v>48</v>
@@ -5047,13 +5066,13 @@
         <v>1000</v>
       </c>
       <c r="F110" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G110" t="b">
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I110" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5069,7 +5088,7 @@
         <v>53</v>
       </c>
       <c r="B111" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C111" t="s">
         <v>51</v>
@@ -5081,13 +5100,13 @@
         <v>50</v>
       </c>
       <c r="F111" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I111" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5103,10 +5122,10 @@
         <v>53</v>
       </c>
       <c r="B112" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C112" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>17</v>
@@ -5115,13 +5134,13 @@
         <v>35</v>
       </c>
       <c r="F112" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I112" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5137,10 +5156,10 @@
         <v>53</v>
       </c>
       <c r="B113" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C113" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>17</v>
@@ -5149,13 +5168,13 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I113" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5171,10 +5190,10 @@
         <v>53</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C114" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>17</v>
@@ -5183,13 +5202,13 @@
         <v>25</v>
       </c>
       <c r="F114" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I114" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5205,25 +5224,25 @@
         <v>53</v>
       </c>
       <c r="B115" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C115" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I115" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5239,25 +5258,25 @@
         <v>53</v>
       </c>
       <c r="B116" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I116" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5273,25 +5292,25 @@
         <v>53</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I117" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5307,25 +5326,25 @@
         <v>53</v>
       </c>
       <c r="B118" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
       <c r="F118" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I118" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5341,10 +5360,10 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>17</v>
@@ -5353,13 +5372,13 @@
         <v>50</v>
       </c>
       <c r="F119" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I119" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5375,10 +5394,10 @@
         <v>53</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>17</v>
@@ -5387,13 +5406,13 @@
         <v>50</v>
       </c>
       <c r="F120" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I120" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5409,10 +5428,10 @@
         <v>53</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>17</v>
@@ -5421,13 +5440,13 @@
         <v>30</v>
       </c>
       <c r="F121" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I121" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5443,10 +5462,10 @@
         <v>53</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C122" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>17</v>
@@ -5455,13 +5474,13 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I122" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5477,10 +5496,10 @@
         <v>53</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C123" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>17</v>
@@ -5489,13 +5508,13 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I123" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5511,10 +5530,10 @@
         <v>53</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C124" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>15</v>
@@ -5529,7 +5548,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I124" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5545,10 +5564,10 @@
         <v>53</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C125" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>15</v>
@@ -5557,13 +5576,13 @@
         <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I125" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5579,10 +5598,10 @@
         <v>53</v>
       </c>
       <c r="B126" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C126" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>17</v>
@@ -5591,13 +5610,13 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I126" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5613,10 +5632,10 @@
         <v>53</v>
       </c>
       <c r="B127" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C127" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>17</v>
@@ -5625,13 +5644,13 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I127" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5644,10 +5663,10 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C128" t="s">
         <v>14</v>
@@ -5675,13 +5694,13 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C129" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>17</v>
@@ -5690,7 +5709,7 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
@@ -5709,13 +5728,13 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C130" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>17</v>
@@ -5724,7 +5743,7 @@
         <v>25</v>
       </c>
       <c r="F130" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
@@ -5743,13 +5762,13 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C131" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>17</v>
@@ -5758,7 +5777,7 @@
         <v>15</v>
       </c>
       <c r="F131" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
@@ -5777,13 +5796,13 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C132" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>17</v>
@@ -5792,7 +5811,7 @@
         <v>30</v>
       </c>
       <c r="F132" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
@@ -5810,7 +5829,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J128" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A1:J132" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <conditionalFormatting sqref="G2:G127 H100">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>FALSE</formula>

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BCCB7B-91E8-4655-AD4C-F1AA9A1E055A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D4692E-3DC5-42D1-AFEB-76F0971AB68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="150">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -570,12 +570,6 @@
     <t>INDEX_REGION</t>
   </si>
   <si>
-    <t>indication of very cold habitat</t>
-  </si>
-  <si>
-    <t>indication of very warm habitat</t>
-  </si>
-  <si>
     <t>New thermal flags</t>
   </si>
   <si>
@@ -607,6 +601,24 @@
   </si>
   <si>
     <t>DrArea_mi2 (2 and 100) to WSAREASQKM (5 and 260)</t>
+  </si>
+  <si>
+    <t>VCold, HiNumColdstenoCold</t>
+  </si>
+  <si>
+    <t>VCold, HiPcTaxaColdstenoCold</t>
+  </si>
+  <si>
+    <t>VWarm, HiNumWarmstenoWarm</t>
+  </si>
+  <si>
+    <t>VWarm, HiPcTaxaWarmstenoWarm</t>
+  </si>
+  <si>
+    <t>Update overlapping CheckNames for Fuzzy Thermal, Issue #72</t>
+  </si>
+  <si>
+    <t>https://github.com/leppott/BCGcalc/issues/72</t>
   </si>
 </sst>
 </file>
@@ -1249,10 +1261,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,7 +1471,7 @@
         <v>45082</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1467,12 +1479,22 @@
         <v>45082</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1483,16 +1505,17 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B38" r:id="rId2" xr:uid="{CDCB8A51-17BD-4C70-BB6F-633542E37113}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="91" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="91" orientation="portrait" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;L&amp;D&amp;CPage &amp;P of &amp;N&amp;R&amp;F</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1594,9 +1617,9 @@
   </sheetPr>
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2898,7 +2921,7 @@
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>17</v>
@@ -2929,7 +2952,7 @@
         <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>16</v>
@@ -2963,7 +2986,7 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>16</v>
@@ -2972,7 +2995,7 @@
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
@@ -2994,7 +3017,7 @@
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>15</v>
@@ -3003,7 +3026,7 @@
         <v>260</v>
       </c>
       <c r="F45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -3818,7 +3841,7 @@
         <v>103</v>
       </c>
       <c r="C71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>17</v>
@@ -3849,7 +3872,7 @@
         <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>16</v>
@@ -3880,7 +3903,7 @@
         <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>16</v>
@@ -3889,7 +3912,7 @@
         <v>5</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
@@ -3911,7 +3934,7 @@
         <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>15</v>
@@ -3920,7 +3943,7 @@
         <v>260</v>
       </c>
       <c r="F74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
@@ -4717,7 +4740,7 @@
         <v>119</v>
       </c>
       <c r="C100" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>15</v>
@@ -4751,7 +4774,7 @@
         <v>119</v>
       </c>
       <c r="C101" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>16</v>
@@ -4760,7 +4783,7 @@
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
@@ -4785,7 +4808,7 @@
         <v>119</v>
       </c>
       <c r="C102" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>15</v>
@@ -4794,7 +4817,7 @@
         <v>260</v>
       </c>
       <c r="F102" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
@@ -5700,7 +5723,7 @@
         <v>124</v>
       </c>
       <c r="C129" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>17</v>
@@ -5709,7 +5732,7 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
@@ -5734,7 +5757,7 @@
         <v>124</v>
       </c>
       <c r="C130" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>17</v>
@@ -5743,7 +5766,7 @@
         <v>25</v>
       </c>
       <c r="F130" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
@@ -5768,7 +5791,7 @@
         <v>124</v>
       </c>
       <c r="C131" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>17</v>
@@ -5777,7 +5800,7 @@
         <v>15</v>
       </c>
       <c r="F131" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
@@ -5802,7 +5825,7 @@
         <v>124</v>
       </c>
       <c r="C132" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>17</v>
@@ -5811,7 +5834,7 @@
         <v>30</v>
       </c>
       <c r="F132" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D4692E-3DC5-42D1-AFEB-76F0971AB68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D1FF37-4591-4C76-82E7-650383E3CD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="154">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -585,9 +585,6 @@
     <t>pt_ti_warm_stenowarm</t>
   </si>
   <si>
-    <t>pctSLOPE</t>
-  </si>
-  <si>
     <t>WSAREASQKM</t>
   </si>
   <si>
@@ -619,13 +616,28 @@
   </si>
   <si>
     <t>https://github.com/leppott/BCGcalc/issues/72</t>
+  </si>
+  <si>
+    <t>pctSLOPE to pslope_nhd</t>
+  </si>
+  <si>
+    <t>pslope_nhd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRECIP8110CAT </t>
+  </si>
+  <si>
+    <t>precip, low</t>
+  </si>
+  <si>
+    <t>Add PRECIP8110CAT for BCG_MariNW_Bugs500ct (all classes)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,6 +721,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -791,7 +809,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -837,6 +855,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -845,7 +866,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -929,7 +960,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Worksheet"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descriptions"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="8">
       <calculatedColumnFormula>HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1261,10 +1292,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1323,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
-        <v>45082</v>
+        <v>45083</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1475,26 +1506,39 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
+      <c r="A35" s="16">
         <v>45082</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <v>45083</v>
+      </c>
+      <c r="B39" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1612,14 +1656,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet2">
+  <sheetPr codeName="Sheet2" filterMode="1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F133" sqref="F133"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,7 +1708,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -1696,7 +1740,7 @@
         <v>Hi</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -1727,7 +1771,7 @@
         <v>Hi</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -1758,7 +1802,7 @@
         <v>Hi</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -1789,7 +1833,7 @@
         <v>Hi</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -1820,7 +1864,7 @@
         <v>Hi</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -1851,7 +1895,7 @@
         <v>Hi</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -1882,7 +1926,7 @@
         <v>Hi</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -1913,7 +1957,7 @@
         <v>Hi</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>125</v>
       </c>
@@ -1944,7 +1988,7 @@
         <v>Hi</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -1975,7 +2019,7 @@
         <v>Hi</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -2006,7 +2050,7 @@
         <v>Lo</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -2037,7 +2081,7 @@
         <v>Lo</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -2068,7 +2112,7 @@
         <v>Lo</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -2099,7 +2143,7 @@
         <v>Lo</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -2130,7 +2174,7 @@
         <v>Lo</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -2161,7 +2205,7 @@
         <v>Lo</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -2192,7 +2236,7 @@
         <v>Lo</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -2223,7 +2267,7 @@
         <v>Lo</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -2254,7 +2298,7 @@
         <v>Lo</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -2285,7 +2329,7 @@
         <v>Lo</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>126</v>
       </c>
@@ -2317,7 +2361,7 @@
         <v>Hi</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>126</v>
       </c>
@@ -2349,7 +2393,7 @@
         <v>Hi</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>126</v>
       </c>
@@ -2381,7 +2425,7 @@
         <v>Hi</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>126</v>
       </c>
@@ -2413,7 +2457,7 @@
         <v>Hi</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>126</v>
       </c>
@@ -2444,7 +2488,7 @@
         <v>Hi</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>126</v>
       </c>
@@ -2475,7 +2519,7 @@
         <v>Hi</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>126</v>
       </c>
@@ -2506,7 +2550,7 @@
         <v>Hi</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>126</v>
       </c>
@@ -2537,7 +2581,7 @@
         <v>Hi</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>126</v>
       </c>
@@ -2568,7 +2612,7 @@
         <v>Hi</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>126</v>
       </c>
@@ -2599,7 +2643,7 @@
         <v>Hi</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>126</v>
       </c>
@@ -2631,7 +2675,7 @@
         <v>Lo</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>126</v>
       </c>
@@ -2663,7 +2707,7 @@
         <v>Lo</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>126</v>
       </c>
@@ -2695,7 +2739,7 @@
         <v>Lo</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>126</v>
       </c>
@@ -2727,7 +2771,7 @@
         <v>Lo</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>126</v>
       </c>
@@ -2758,7 +2802,7 @@
         <v>Lo</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>126</v>
       </c>
@@ -2789,7 +2833,7 @@
         <v>Lo</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>126</v>
       </c>
@@ -2820,7 +2864,7 @@
         <v>Lo</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>126</v>
       </c>
@@ -2851,7 +2895,7 @@
         <v>Lo</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>126</v>
       </c>
@@ -2882,7 +2926,7 @@
         <v>Lo</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>126</v>
       </c>
@@ -2921,7 +2965,7 @@
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>17</v>
@@ -2952,7 +2996,7 @@
         <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>16</v>
@@ -2986,7 +3030,7 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>16</v>
@@ -2995,7 +3039,7 @@
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
@@ -3017,7 +3061,7 @@
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>15</v>
@@ -3026,7 +3070,7 @@
         <v>260</v>
       </c>
       <c r="F45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -3841,7 +3885,7 @@
         <v>103</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>17</v>
@@ -3872,7 +3916,7 @@
         <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>16</v>
@@ -3903,7 +3947,7 @@
         <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>16</v>
@@ -3912,7 +3956,7 @@
         <v>5</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
@@ -3934,7 +3978,7 @@
         <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>15</v>
@@ -3943,7 +3987,7 @@
         <v>260</v>
       </c>
       <c r="F74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
@@ -4740,7 +4784,7 @@
         <v>119</v>
       </c>
       <c r="C100" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>15</v>
@@ -4774,7 +4818,7 @@
         <v>119</v>
       </c>
       <c r="C101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>16</v>
@@ -4783,7 +4827,7 @@
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
@@ -4808,7 +4852,7 @@
         <v>119</v>
       </c>
       <c r="C102" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>15</v>
@@ -4817,7 +4861,7 @@
         <v>260</v>
       </c>
       <c r="F102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
@@ -5684,7 +5728,7 @@
         <v>LoGrad-LoElev</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -5715,7 +5759,7 @@
         <v>ORWA</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -5732,7 +5776,7 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
@@ -5749,7 +5793,7 @@
         <v>ORWA</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>123</v>
       </c>
@@ -5766,7 +5810,7 @@
         <v>25</v>
       </c>
       <c r="F130" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
@@ -5783,7 +5827,7 @@
         <v>ORWA</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>123</v>
       </c>
@@ -5800,7 +5844,7 @@
         <v>15</v>
       </c>
       <c r="F131" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
@@ -5809,15 +5853,15 @@
         <v>45082</v>
       </c>
       <c r="I131" s="21" t="str">
-        <f t="shared" ref="I131:I132" si="5">B131</f>
+        <f t="shared" ref="I131:I135" si="5">B131</f>
         <v>ORWA</v>
       </c>
       <c r="J131" s="21" t="str">
-        <f t="shared" ref="J131:J132" si="6">B131</f>
+        <f t="shared" ref="J131:J135" si="6">B131</f>
         <v>ORWA</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>123</v>
       </c>
@@ -5834,7 +5878,7 @@
         <v>30</v>
       </c>
       <c r="F132" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
@@ -5851,41 +5895,154 @@
         <v>ORWA</v>
       </c>
     </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>53</v>
+      </c>
+      <c r="B133" t="s">
+        <v>103</v>
+      </c>
+      <c r="C133" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133">
+        <v>650</v>
+      </c>
+      <c r="F133" t="s">
+        <v>152</v>
+      </c>
+      <c r="G133" t="b">
+        <v>0</v>
+      </c>
+      <c r="H133" s="24">
+        <v>45083</v>
+      </c>
+      <c r="I133" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>HiGrad-HiElev</v>
+      </c>
+      <c r="J133" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HiGrad-HiElev</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>53</v>
+      </c>
+      <c r="B134" t="s">
+        <v>54</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134">
+        <v>650</v>
+      </c>
+      <c r="F134" t="s">
+        <v>152</v>
+      </c>
+      <c r="G134" t="b">
+        <v>0</v>
+      </c>
+      <c r="H134" s="24">
+        <v>45083</v>
+      </c>
+      <c r="I134" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>HiGrad-LoElev</v>
+      </c>
+      <c r="J134" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>HiGrad-LoElev</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>53</v>
+      </c>
+      <c r="B135" t="s">
+        <v>119</v>
+      </c>
+      <c r="C135" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135">
+        <v>650</v>
+      </c>
+      <c r="F135" t="s">
+        <v>152</v>
+      </c>
+      <c r="G135" t="b">
+        <v>0</v>
+      </c>
+      <c r="H135" s="24">
+        <v>45083</v>
+      </c>
+      <c r="I135" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>LoGrad-LoElev</v>
+      </c>
+      <c r="J135" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>LoGrad-LoElev</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J132" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A1:J132" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="BCG_MariNW_Bugs500ct"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G127 H100">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$G2=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C66">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$G3=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H101:H127">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H101:H127">
+  <conditionalFormatting sqref="G128:G132">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G128:G132">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>FALSE</formula>
+  <conditionalFormatting sqref="C128">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$G128=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G128=FALSE</formula>
+  <conditionalFormatting sqref="G133:G135">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\Documents\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D1FF37-4591-4C76-82E7-650383E3CD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF49C751-8791-4BCD-BD60-C78962984F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="161">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -632,12 +632,33 @@
   <si>
     <t>Add PRECIP8110CAT for BCG_MariNW_Bugs500ct (all classes)</t>
   </si>
+  <si>
+    <t>FL_Coral_BCG</t>
+  </si>
+  <si>
+    <t>CREMP_Keys</t>
+  </si>
+  <si>
+    <t>NOT_CREMP_Keys</t>
+  </si>
+  <si>
+    <t>pcol_Acropora</t>
+  </si>
+  <si>
+    <t>Dominant Acroporid stands may indicate good conditions</t>
+  </si>
+  <si>
+    <t>2024-04-11, Used in BCG Level 3</t>
+  </si>
+  <si>
+    <t>Add flags for FL BCG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,6 +748,13 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -809,7 +837,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -858,6 +886,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -866,7 +895,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -960,7 +999,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Worksheet"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descriptions"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="9">
       <calculatedColumnFormula>HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -969,9 +1008,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1009,9 +1048,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1044,26 +1083,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1096,26 +1118,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1292,10 +1297,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,7 +1328,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
-        <v>45083</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1332,7 +1337,7 @@
       </c>
       <c r="B7" s="6" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\[MetricFlags.xlsx]</v>
+        <v>C:\Users\Erik.Leppo\Documents\GitHub\BCGcalc\inst\extdata\[MetricFlags.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1539,6 +1544,14 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <v>45393</v>
+      </c>
+      <c r="B41" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1659,11 +1672,11 @@
   <sheetPr codeName="Sheet2" filterMode="1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:J135"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H143" sqref="H143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1686,7 @@
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5995,6 +6008,74 @@
       <c r="J135" s="21" t="str">
         <f t="shared" si="6"/>
         <v>LoGrad-LoElev</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>154</v>
+      </c>
+      <c r="B136" t="s">
+        <v>155</v>
+      </c>
+      <c r="C136" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136">
+        <v>15</v>
+      </c>
+      <c r="F136" t="s">
+        <v>158</v>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I136" s="21" t="str">
+        <f t="shared" ref="I136:I137" si="7">B136</f>
+        <v>CREMP_Keys</v>
+      </c>
+      <c r="J136" s="21" t="str">
+        <f t="shared" ref="J136:J137" si="8">B136</f>
+        <v>CREMP_Keys</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>154</v>
+      </c>
+      <c r="B137" t="s">
+        <v>156</v>
+      </c>
+      <c r="C137" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137">
+        <v>15</v>
+      </c>
+      <c r="F137" t="s">
+        <v>158</v>
+      </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I137" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>NOT_CREMP_Keys</v>
+      </c>
+      <c r="J137" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>NOT_CREMP_Keys</v>
       </c>
     </row>
   </sheetData>
@@ -6006,41 +6087,46 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="G2:G127 H100">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$G2=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C66">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$G3=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H101:H127">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H101:H127">
+  <conditionalFormatting sqref="G128:G132">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G128:G132">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C128">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$G128=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G133:G135">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G136:G137">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>

--- a/inst/extdata/MetricFlags.xlsx
+++ b/inst/extdata/MetricFlags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\Documents\GitHub\BCGcalc\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/BCGcalc/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF49C751-8791-4BCD-BD60-C78962984F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{AF49C751-8791-4BCD-BD60-C78962984F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FE13902-9C77-4613-8EA7-FDB502FFD733}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="177">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -652,6 +652,54 @@
   </si>
   <si>
     <t>Add flags for FL BCG</t>
+  </si>
+  <si>
+    <t>Added flags for GP BCG</t>
+  </si>
+  <si>
+    <t>GP_Fish_BCG</t>
+  </si>
+  <si>
+    <t>Small_47c</t>
+  </si>
+  <si>
+    <t>Large_47c</t>
+  </si>
+  <si>
+    <t>Small_Not_47c</t>
+  </si>
+  <si>
+    <t>Large_Not_47c</t>
+  </si>
+  <si>
+    <t>WsAreaSqKm</t>
+  </si>
+  <si>
+    <t>DrArea_mi2</t>
+  </si>
+  <si>
+    <t>pi_dom01</t>
+  </si>
+  <si>
+    <t>individuals, dominant 01, Large</t>
+  </si>
+  <si>
+    <t>pi_SCC</t>
+  </si>
+  <si>
+    <t>species of conservation concern, present</t>
+  </si>
+  <si>
+    <t>pi_salt</t>
+  </si>
+  <si>
+    <t>salt indicator taxa, present</t>
+  </si>
+  <si>
+    <t>pi_NPL</t>
+  </si>
+  <si>
+    <t>non-parasitic lampreys, present</t>
   </si>
 </sst>
 </file>
@@ -837,7 +885,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -861,7 +909,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -871,9 +918,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -895,7 +939,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -903,23 +947,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -968,16 +995,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -993,13 +1010,17 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A15:C18" totalsRowShown="0">
   <autoFilter ref="A15:C18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Worksheet"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descriptions"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="9">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="6">
       <calculatedColumnFormula>HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1297,10 +1318,10 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,7 +1348,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>45393</v>
       </c>
     </row>
@@ -1337,7 +1358,7 @@
       </c>
       <c r="B7" s="6" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>C:\Users\Erik.Leppo\Documents\GitHub\BCGcalc\inst\extdata\[MetricFlags.xlsx]</v>
+        <v>https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/BCGcalc/inst/extdata/[MetricFlags.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1398,7 +1419,7 @@
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="15" t="str">
+      <c r="C17" s="14" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</f>
         <v>meta</v>
       </c>
@@ -1416,7 +1437,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>44531</v>
       </c>
       <c r="B22" t="s">
@@ -1424,7 +1445,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>44532</v>
       </c>
       <c r="B23" t="s">
@@ -1447,7 +1468,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>44603</v>
       </c>
       <c r="B27" t="s">
@@ -1455,7 +1476,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>44651</v>
       </c>
       <c r="B28" t="s">
@@ -1463,7 +1484,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>44832</v>
       </c>
       <c r="B29" t="s">
@@ -1471,7 +1492,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>44845</v>
       </c>
       <c r="B30" t="s">
@@ -1479,7 +1500,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>44866</v>
       </c>
       <c r="B31" t="s">
@@ -1487,7 +1508,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>44881</v>
       </c>
       <c r="B32" t="s">
@@ -1495,7 +1516,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>44882</v>
       </c>
       <c r="B33" t="s">
@@ -1503,7 +1524,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>45082</v>
       </c>
       <c r="B34" t="s">
@@ -1511,7 +1532,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <v>45082</v>
       </c>
       <c r="B35" t="s">
@@ -1534,7 +1555,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+      <c r="A39" s="15">
         <v>45083</v>
       </c>
       <c r="B39" t="s">
@@ -1547,11 +1568,19 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+      <c r="A41" s="15">
         <v>45393</v>
       </c>
       <c r="B41" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>45510</v>
+      </c>
+      <c r="B42" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1636,7 +1665,7 @@
       <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1669,14 +1698,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet2" filterMode="1">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:J137"/>
+  <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H143" sqref="H143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,14 +1743,14 @@
       <c r="H1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -1744,16 +1773,16 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="21" t="str">
+      <c r="I2" s="19" t="str">
         <f>B2</f>
         <v>Hi</v>
       </c>
-      <c r="J2" s="21" t="str">
+      <c r="J2" s="19" t="str">
         <f>B2</f>
         <v>Hi</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -1775,16 +1804,16 @@
       <c r="G3" t="b">
         <v>1</v>
       </c>
-      <c r="I3" s="21" t="str">
+      <c r="I3" s="19" t="str">
         <f t="shared" ref="I3:I66" si="0">B3</f>
         <v>Hi</v>
       </c>
-      <c r="J3" s="21" t="str">
+      <c r="J3" s="19" t="str">
         <f t="shared" ref="J3:J66" si="1">B3</f>
         <v>Hi</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -1806,16 +1835,16 @@
       <c r="G4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="21" t="str">
+      <c r="I4" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J4" s="21" t="str">
+      <c r="J4" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -1837,16 +1866,16 @@
       <c r="G5" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="21" t="str">
+      <c r="I5" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J5" s="21" t="str">
+      <c r="J5" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -1868,16 +1897,16 @@
       <c r="G6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="21" t="str">
+      <c r="I6" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J6" s="21" t="str">
+      <c r="J6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -1899,16 +1928,16 @@
       <c r="G7" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="21" t="str">
+      <c r="I7" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J7" s="21" t="str">
+      <c r="J7" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -1930,16 +1959,16 @@
       <c r="G8" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="21" t="str">
+      <c r="I8" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J8" s="21" t="str">
+      <c r="J8" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -1961,16 +1990,16 @@
       <c r="G9" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="21" t="str">
+      <c r="I9" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J9" s="21" t="str">
+      <c r="J9" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>125</v>
       </c>
@@ -1992,16 +2021,16 @@
       <c r="G10" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="21" t="str">
+      <c r="I10" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J10" s="21" t="str">
+      <c r="J10" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -2011,7 +2040,7 @@
       <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E11">
@@ -2023,16 +2052,16 @@
       <c r="G11" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="21" t="str">
+      <c r="I11" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J11" s="21" t="str">
+      <c r="J11" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -2054,16 +2083,16 @@
       <c r="G12" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="21" t="str">
+      <c r="I12" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J12" s="21" t="str">
+      <c r="J12" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -2085,16 +2114,16 @@
       <c r="G13" t="b">
         <v>1</v>
       </c>
-      <c r="I13" s="21" t="str">
+      <c r="I13" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J13" s="21" t="str">
+      <c r="J13" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -2116,16 +2145,16 @@
       <c r="G14" t="b">
         <v>0</v>
       </c>
-      <c r="I14" s="21" t="str">
+      <c r="I14" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J14" s="21" t="str">
+      <c r="J14" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -2147,16 +2176,16 @@
       <c r="G15" t="b">
         <v>0</v>
       </c>
-      <c r="I15" s="21" t="str">
+      <c r="I15" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J15" s="21" t="str">
+      <c r="J15" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -2178,16 +2207,16 @@
       <c r="G16" t="b">
         <v>0</v>
       </c>
-      <c r="I16" s="21" t="str">
+      <c r="I16" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J16" s="21" t="str">
+      <c r="J16" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -2209,16 +2238,16 @@
       <c r="G17" t="b">
         <v>0</v>
       </c>
-      <c r="I17" s="21" t="str">
+      <c r="I17" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J17" s="21" t="str">
+      <c r="J17" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -2240,16 +2269,16 @@
       <c r="G18" t="b">
         <v>0</v>
       </c>
-      <c r="I18" s="21" t="str">
+      <c r="I18" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J18" s="21" t="str">
+      <c r="J18" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -2271,16 +2300,16 @@
       <c r="G19" t="b">
         <v>1</v>
       </c>
-      <c r="I19" s="21" t="str">
+      <c r="I19" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J19" s="21" t="str">
+      <c r="J19" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -2302,16 +2331,16 @@
       <c r="G20" t="b">
         <v>1</v>
       </c>
-      <c r="I20" s="21" t="str">
+      <c r="I20" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J20" s="21" t="str">
+      <c r="J20" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -2321,7 +2350,7 @@
       <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E21">
@@ -2333,17 +2362,17 @@
       <c r="G21" t="b">
         <v>1</v>
       </c>
-      <c r="I21" s="21" t="str">
+      <c r="I21" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J21" s="21" t="str">
+      <c r="J21" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -2365,17 +2394,17 @@
       <c r="G22" t="b">
         <v>1</v>
       </c>
-      <c r="I22" s="21" t="str">
+      <c r="I22" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J22" s="21" t="str">
+      <c r="J22" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -2397,17 +2426,17 @@
       <c r="G23" t="b">
         <v>1</v>
       </c>
-      <c r="I23" s="21" t="str">
+      <c r="I23" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J23" s="21" t="str">
+      <c r="J23" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -2429,17 +2458,17 @@
       <c r="G24" t="b">
         <v>0</v>
       </c>
-      <c r="I24" s="21" t="str">
+      <c r="I24" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J24" s="21" t="str">
+      <c r="J24" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -2461,17 +2490,17 @@
       <c r="G25" t="b">
         <v>0</v>
       </c>
-      <c r="I25" s="21" t="str">
+      <c r="I25" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J25" s="21" t="str">
+      <c r="J25" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -2492,17 +2521,17 @@
       <c r="G26" t="b">
         <v>0</v>
       </c>
-      <c r="I26" s="21" t="str">
+      <c r="I26" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J26" s="21" t="str">
+      <c r="J26" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -2523,17 +2552,17 @@
       <c r="G27" t="b">
         <v>0</v>
       </c>
-      <c r="I27" s="21" t="str">
+      <c r="I27" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J27" s="21" t="str">
+      <c r="J27" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -2554,17 +2583,17 @@
       <c r="G28" t="b">
         <v>0</v>
       </c>
-      <c r="I28" s="21" t="str">
+      <c r="I28" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J28" s="21" t="str">
+      <c r="J28" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -2585,17 +2614,17 @@
       <c r="G29" t="b">
         <v>1</v>
       </c>
-      <c r="I29" s="21" t="str">
+      <c r="I29" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J29" s="21" t="str">
+      <c r="J29" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -2616,17 +2645,17 @@
       <c r="G30" t="b">
         <v>1</v>
       </c>
-      <c r="I30" s="21" t="str">
+      <c r="I30" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J30" s="21" t="str">
+      <c r="J30" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -2635,7 +2664,7 @@
       <c r="C31" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E31">
@@ -2647,17 +2676,17 @@
       <c r="G31" t="b">
         <v>1</v>
       </c>
-      <c r="I31" s="21" t="str">
+      <c r="I31" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Hi</v>
       </c>
-      <c r="J31" s="21" t="str">
+      <c r="J31" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Hi</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B32" t="s">
@@ -2679,17 +2708,17 @@
       <c r="G32" t="b">
         <v>1</v>
       </c>
-      <c r="I32" s="21" t="str">
+      <c r="I32" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J32" s="21" t="str">
+      <c r="J32" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B33" t="s">
@@ -2711,17 +2740,17 @@
       <c r="G33" t="b">
         <v>1</v>
       </c>
-      <c r="I33" s="21" t="str">
+      <c r="I33" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J33" s="21" t="str">
+      <c r="J33" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B34" t="s">
@@ -2743,17 +2772,17 @@
       <c r="G34" t="b">
         <v>0</v>
       </c>
-      <c r="I34" s="21" t="str">
+      <c r="I34" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J34" s="21" t="str">
+      <c r="J34" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B35" t="s">
@@ -2775,17 +2804,17 @@
       <c r="G35" t="b">
         <v>0</v>
       </c>
-      <c r="I35" s="21" t="str">
+      <c r="I35" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J35" s="21" t="str">
+      <c r="J35" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B36" t="s">
@@ -2806,17 +2835,17 @@
       <c r="G36" t="b">
         <v>0</v>
       </c>
-      <c r="I36" s="21" t="str">
+      <c r="I36" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J36" s="21" t="str">
+      <c r="J36" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B37" t="s">
@@ -2837,17 +2866,17 @@
       <c r="G37" t="b">
         <v>0</v>
       </c>
-      <c r="I37" s="21" t="str">
+      <c r="I37" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J37" s="21" t="str">
+      <c r="J37" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B38" t="s">
@@ -2868,17 +2897,17 @@
       <c r="G38" t="b">
         <v>0</v>
       </c>
-      <c r="I38" s="21" t="str">
+      <c r="I38" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J38" s="21" t="str">
+      <c r="J38" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B39" t="s">
@@ -2899,17 +2928,17 @@
       <c r="G39" t="b">
         <v>1</v>
       </c>
-      <c r="I39" s="21" t="str">
+      <c r="I39" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J39" s="21" t="str">
+      <c r="J39" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B40" t="s">
@@ -2930,17 +2959,17 @@
       <c r="G40" t="b">
         <v>1</v>
       </c>
-      <c r="I40" s="21" t="str">
+      <c r="I40" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J40" s="21" t="str">
+      <c r="J40" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B41" t="s">
@@ -2949,7 +2978,7 @@
       <c r="C41" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E41">
@@ -2961,11 +2990,11 @@
       <c r="G41" t="b">
         <v>1</v>
       </c>
-      <c r="I41" s="21" t="str">
+      <c r="I41" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lo</v>
       </c>
-      <c r="J41" s="21" t="str">
+      <c r="J41" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Lo</v>
       </c>
@@ -2992,11 +3021,11 @@
       <c r="G42" t="b">
         <v>0</v>
       </c>
-      <c r="I42" s="21" t="str">
+      <c r="I42" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J42" s="21" t="str">
+      <c r="J42" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3026,11 +3055,11 @@
       <c r="H43" t="s">
         <v>115</v>
       </c>
-      <c r="I43" s="21" t="str">
+      <c r="I43" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J43" s="21" t="str">
+      <c r="J43" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3057,11 +3086,11 @@
       <c r="G44" t="b">
         <v>0</v>
       </c>
-      <c r="I44" s="21" t="str">
+      <c r="I44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J44" s="21" t="str">
+      <c r="J44" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3088,11 +3117,11 @@
       <c r="G45" t="b">
         <v>0</v>
       </c>
-      <c r="I45" s="21" t="str">
+      <c r="I45" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J45" s="21" t="str">
+      <c r="J45" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3119,11 +3148,11 @@
       <c r="G46" t="b">
         <v>0</v>
       </c>
-      <c r="I46" s="21" t="str">
+      <c r="I46" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J46" s="21" t="str">
+      <c r="J46" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3150,11 +3179,11 @@
       <c r="G47" t="b">
         <v>0</v>
       </c>
-      <c r="I47" s="21" t="str">
+      <c r="I47" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J47" s="21" t="str">
+      <c r="J47" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3181,11 +3210,11 @@
       <c r="G48" t="b">
         <v>0</v>
       </c>
-      <c r="I48" s="21" t="str">
+      <c r="I48" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J48" s="21" t="str">
+      <c r="J48" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3212,11 +3241,11 @@
       <c r="G49" t="b">
         <v>1</v>
       </c>
-      <c r="I49" s="21" t="str">
+      <c r="I49" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J49" s="21" t="str">
+      <c r="J49" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3243,11 +3272,11 @@
       <c r="G50" t="b">
         <v>1</v>
       </c>
-      <c r="I50" s="21" t="str">
+      <c r="I50" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J50" s="21" t="str">
+      <c r="J50" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3274,11 +3303,11 @@
       <c r="G51" t="b">
         <v>0</v>
       </c>
-      <c r="I51" s="21" t="str">
+      <c r="I51" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J51" s="21" t="str">
+      <c r="J51" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3305,11 +3334,11 @@
       <c r="G52" t="b">
         <v>0</v>
       </c>
-      <c r="I52" s="21" t="str">
+      <c r="I52" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J52" s="21" t="str">
+      <c r="J52" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3336,11 +3365,11 @@
       <c r="G53" t="b">
         <v>1</v>
       </c>
-      <c r="I53" s="21" t="str">
+      <c r="I53" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J53" s="21" t="str">
+      <c r="J53" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3358,7 +3387,7 @@
       <c r="D54" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="17">
         <v>35</v>
       </c>
       <c r="F54" t="s">
@@ -3370,11 +3399,11 @@
       <c r="H54" t="s">
         <v>110</v>
       </c>
-      <c r="I54" s="21" t="str">
+      <c r="I54" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J54" s="21" t="str">
+      <c r="J54" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3401,11 +3430,11 @@
       <c r="G55" t="b">
         <v>1</v>
       </c>
-      <c r="I55" s="21" t="str">
+      <c r="I55" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J55" s="21" t="str">
+      <c r="J55" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3432,11 +3461,11 @@
       <c r="G56" t="b">
         <v>1</v>
       </c>
-      <c r="I56" s="21" t="str">
+      <c r="I56" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J56" s="21" t="str">
+      <c r="J56" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3451,7 +3480,7 @@
       <c r="C57" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="20" t="s">
         <v>96</v>
       </c>
       <c r="E57">
@@ -3463,11 +3492,11 @@
       <c r="G57" t="b">
         <v>1</v>
       </c>
-      <c r="I57" s="21" t="str">
+      <c r="I57" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J57" s="21" t="str">
+      <c r="J57" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3482,7 +3511,7 @@
       <c r="C58" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="20" t="s">
         <v>96</v>
       </c>
       <c r="E58">
@@ -3494,11 +3523,11 @@
       <c r="G58" t="b">
         <v>1</v>
       </c>
-      <c r="I58" s="21" t="str">
+      <c r="I58" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J58" s="21" t="str">
+      <c r="J58" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3513,7 +3542,7 @@
       <c r="C59" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="20" t="s">
         <v>96</v>
       </c>
       <c r="E59">
@@ -3525,11 +3554,11 @@
       <c r="G59" t="b">
         <v>1</v>
       </c>
-      <c r="I59" s="21" t="str">
+      <c r="I59" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J59" s="21" t="str">
+      <c r="J59" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3544,7 +3573,7 @@
       <c r="C60" t="s">
         <v>78</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="20" t="s">
         <v>96</v>
       </c>
       <c r="E60">
@@ -3556,11 +3585,11 @@
       <c r="G60" t="b">
         <v>1</v>
       </c>
-      <c r="I60" s="21" t="str">
+      <c r="I60" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J60" s="21" t="str">
+      <c r="J60" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3587,11 +3616,11 @@
       <c r="G61" t="b">
         <v>1</v>
       </c>
-      <c r="I61" s="21" t="str">
+      <c r="I61" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J61" s="21" t="str">
+      <c r="J61" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3609,7 +3638,7 @@
       <c r="D62" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="17">
         <v>50</v>
       </c>
       <c r="F62" t="s">
@@ -3621,11 +3650,11 @@
       <c r="H62" t="s">
         <v>110</v>
       </c>
-      <c r="I62" s="21" t="str">
+      <c r="I62" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J62" s="21" t="str">
+      <c r="J62" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3652,11 +3681,11 @@
       <c r="G63" t="b">
         <v>1</v>
       </c>
-      <c r="I63" s="21" t="str">
+      <c r="I63" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J63" s="21" t="str">
+      <c r="J63" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3683,11 +3712,11 @@
       <c r="G64" t="b">
         <v>1</v>
       </c>
-      <c r="I64" s="21" t="str">
+      <c r="I64" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J64" s="21" t="str">
+      <c r="J64" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3714,11 +3743,11 @@
       <c r="G65" t="b">
         <v>1</v>
       </c>
-      <c r="I65" s="21" t="str">
+      <c r="I65" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J65" s="21" t="str">
+      <c r="J65" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3745,11 +3774,11 @@
       <c r="G66" t="b">
         <v>1</v>
       </c>
-      <c r="I66" s="21" t="str">
+      <c r="I66" s="19" t="str">
         <f t="shared" si="0"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J66" s="21" t="str">
+      <c r="J66" s="19" t="str">
         <f t="shared" si="1"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3779,11 +3808,11 @@
       <c r="H67" t="s">
         <v>109</v>
       </c>
-      <c r="I67" s="21" t="str">
+      <c r="I67" s="19" t="str">
         <f t="shared" ref="I67:I130" si="3">B67</f>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J67" s="21" t="str">
+      <c r="J67" s="19" t="str">
         <f t="shared" ref="J67:J130" si="4">B67</f>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3813,51 +3842,51 @@
       <c r="H68" t="s">
         <v>117</v>
       </c>
-      <c r="I68" s="21" t="str">
+      <c r="I68" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J68" s="21" t="str">
+      <c r="J68" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-LoElev</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
+      <c r="A69" t="s">
         <v>53</v>
       </c>
       <c r="B69" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" t="s">
         <v>106</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E69" s="8">
         <v>10</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" t="s">
         <v>107</v>
       </c>
-      <c r="G69" s="13" t="b">
+      <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69" t="s">
         <v>117</v>
       </c>
-      <c r="I69" s="21" t="str">
+      <c r="I69" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J69" s="21" t="str">
+      <c r="J69" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-LoElev</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
+      <c r="A70" t="s">
         <v>53</v>
       </c>
       <c r="B70" t="s">
@@ -3866,26 +3895,26 @@
       <c r="C70" t="s">
         <v>113</v>
       </c>
-      <c r="D70" s="19" t="s">
+      <c r="D70" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E70" s="8">
         <v>10</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" t="s">
         <v>108</v>
       </c>
-      <c r="G70" s="13" t="b">
+      <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70" t="s">
         <v>117</v>
       </c>
-      <c r="I70" s="21" t="str">
+      <c r="I70" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J70" s="21" t="str">
+      <c r="J70" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -3903,7 +3932,7 @@
       <c r="D71" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E71" s="21">
         <v>8</v>
       </c>
       <c r="F71" t="s">
@@ -3912,11 +3941,11 @@
       <c r="G71" t="b">
         <v>0</v>
       </c>
-      <c r="I71" s="21" t="str">
+      <c r="I71" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J71" s="21" t="str">
+      <c r="J71" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -3943,11 +3972,11 @@
       <c r="G72" t="b">
         <v>0</v>
       </c>
-      <c r="I72" s="21" t="str">
+      <c r="I72" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J72" s="21" t="str">
+      <c r="J72" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -3974,11 +4003,11 @@
       <c r="G73" t="b">
         <v>0</v>
       </c>
-      <c r="I73" s="21" t="str">
+      <c r="I73" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J73" s="21" t="str">
+      <c r="J73" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4005,11 +4034,11 @@
       <c r="G74" t="b">
         <v>0</v>
       </c>
-      <c r="I74" s="21" t="str">
+      <c r="I74" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J74" s="21" t="str">
+      <c r="J74" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4036,11 +4065,11 @@
       <c r="G75" t="b">
         <v>0</v>
       </c>
-      <c r="I75" s="21" t="str">
+      <c r="I75" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J75" s="21" t="str">
+      <c r="J75" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4067,11 +4096,11 @@
       <c r="G76" t="b">
         <v>0</v>
       </c>
-      <c r="I76" s="21" t="str">
+      <c r="I76" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J76" s="21" t="str">
+      <c r="J76" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4098,11 +4127,11 @@
       <c r="G77" t="b">
         <v>0</v>
       </c>
-      <c r="I77" s="21" t="str">
+      <c r="I77" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J77" s="21" t="str">
+      <c r="J77" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4129,11 +4158,11 @@
       <c r="G78" t="b">
         <v>0</v>
       </c>
-      <c r="I78" s="21" t="str">
+      <c r="I78" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J78" s="21" t="str">
+      <c r="J78" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4160,11 +4189,11 @@
       <c r="G79" t="b">
         <v>1</v>
       </c>
-      <c r="I79" s="21" t="str">
+      <c r="I79" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J79" s="21" t="str">
+      <c r="J79" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4191,11 +4220,11 @@
       <c r="G80" t="b">
         <v>1</v>
       </c>
-      <c r="I80" s="21" t="str">
+      <c r="I80" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J80" s="21" t="str">
+      <c r="J80" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4222,11 +4251,11 @@
       <c r="G81" t="b">
         <v>0</v>
       </c>
-      <c r="I81" s="21" t="str">
+      <c r="I81" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J81" s="21" t="str">
+      <c r="J81" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4253,11 +4282,11 @@
       <c r="G82" t="b">
         <v>0</v>
       </c>
-      <c r="I82" s="21" t="str">
+      <c r="I82" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J82" s="21" t="str">
+      <c r="J82" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4284,11 +4313,11 @@
       <c r="G83" t="b">
         <v>1</v>
       </c>
-      <c r="I83" s="21" t="str">
+      <c r="I83" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J83" s="21" t="str">
+      <c r="J83" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4315,11 +4344,11 @@
       <c r="G84" t="b">
         <v>1</v>
       </c>
-      <c r="I84" s="21" t="str">
+      <c r="I84" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J84" s="21" t="str">
+      <c r="J84" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4346,11 +4375,11 @@
       <c r="G85" t="b">
         <v>1</v>
       </c>
-      <c r="I85" s="21" t="str">
+      <c r="I85" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J85" s="21" t="str">
+      <c r="J85" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4377,11 +4406,11 @@
       <c r="G86" t="b">
         <v>1</v>
       </c>
-      <c r="I86" s="21" t="str">
+      <c r="I86" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J86" s="21" t="str">
+      <c r="J86" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4408,11 +4437,11 @@
       <c r="G87" t="b">
         <v>1</v>
       </c>
-      <c r="I87" s="21" t="str">
+      <c r="I87" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J87" s="21" t="str">
+      <c r="J87" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4439,11 +4468,11 @@
       <c r="G88" t="b">
         <v>1</v>
       </c>
-      <c r="I88" s="21" t="str">
+      <c r="I88" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J88" s="21" t="str">
+      <c r="J88" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4470,11 +4499,11 @@
       <c r="G89" t="b">
         <v>1</v>
       </c>
-      <c r="I89" s="21" t="str">
+      <c r="I89" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J89" s="21" t="str">
+      <c r="J89" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4501,11 +4530,11 @@
       <c r="G90" t="b">
         <v>1</v>
       </c>
-      <c r="I90" s="21" t="str">
+      <c r="I90" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J90" s="21" t="str">
+      <c r="J90" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4532,11 +4561,11 @@
       <c r="G91" t="b">
         <v>1</v>
       </c>
-      <c r="I91" s="21" t="str">
+      <c r="I91" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J91" s="21" t="str">
+      <c r="J91" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4563,11 +4592,11 @@
       <c r="G92" t="b">
         <v>1</v>
       </c>
-      <c r="I92" s="21" t="str">
+      <c r="I92" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J92" s="21" t="str">
+      <c r="J92" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4594,11 +4623,11 @@
       <c r="G93" t="b">
         <v>1</v>
       </c>
-      <c r="I93" s="21" t="str">
+      <c r="I93" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J93" s="21" t="str">
+      <c r="J93" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4625,11 +4654,11 @@
       <c r="G94" t="b">
         <v>1</v>
       </c>
-      <c r="I94" s="21" t="str">
+      <c r="I94" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J94" s="21" t="str">
+      <c r="J94" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4656,11 +4685,11 @@
       <c r="G95" t="b">
         <v>1</v>
       </c>
-      <c r="I95" s="21" t="str">
+      <c r="I95" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J95" s="21" t="str">
+      <c r="J95" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4687,11 +4716,11 @@
       <c r="G96" t="b">
         <v>1</v>
       </c>
-      <c r="I96" s="21" t="str">
+      <c r="I96" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J96" s="21" t="str">
+      <c r="J96" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4718,11 +4747,11 @@
       <c r="G97" t="b">
         <v>1</v>
       </c>
-      <c r="I97" s="21" t="str">
+      <c r="I97" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J97" s="21" t="str">
+      <c r="J97" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4749,11 +4778,11 @@
       <c r="G98" t="b">
         <v>1</v>
       </c>
-      <c r="I98" s="21" t="str">
+      <c r="I98" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J98" s="21" t="str">
+      <c r="J98" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4780,11 +4809,11 @@
       <c r="G99" t="b">
         <v>1</v>
       </c>
-      <c r="I99" s="21" t="str">
+      <c r="I99" s="19" t="str">
         <f t="shared" si="3"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J99" s="21" t="str">
+      <c r="J99" s="19" t="str">
         <f t="shared" si="4"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -4814,11 +4843,11 @@
       <c r="H100" t="s">
         <v>120</v>
       </c>
-      <c r="I100" s="21" t="str">
+      <c r="I100" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J100" s="21" t="str">
+      <c r="J100" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -4848,11 +4877,11 @@
       <c r="H101" t="s">
         <v>118</v>
       </c>
-      <c r="I101" s="21" t="str">
+      <c r="I101" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J101" s="21" t="str">
+      <c r="J101" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -4882,11 +4911,11 @@
       <c r="H102" t="s">
         <v>118</v>
       </c>
-      <c r="I102" s="21" t="str">
+      <c r="I102" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J102" s="21" t="str">
+      <c r="J102" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -4916,11 +4945,11 @@
       <c r="H103" t="s">
         <v>118</v>
       </c>
-      <c r="I103" s="21" t="str">
+      <c r="I103" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J103" s="21" t="str">
+      <c r="J103" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -4950,11 +4979,11 @@
       <c r="H104" t="s">
         <v>118</v>
       </c>
-      <c r="I104" s="21" t="str">
+      <c r="I104" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J104" s="21" t="str">
+      <c r="J104" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -4984,11 +5013,11 @@
       <c r="H105" t="s">
         <v>118</v>
       </c>
-      <c r="I105" s="21" t="str">
+      <c r="I105" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J105" s="21" t="str">
+      <c r="J105" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5018,11 +5047,11 @@
       <c r="H106" t="s">
         <v>118</v>
       </c>
-      <c r="I106" s="21" t="str">
+      <c r="I106" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J106" s="21" t="str">
+      <c r="J106" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5052,11 +5081,11 @@
       <c r="H107" t="s">
         <v>118</v>
       </c>
-      <c r="I107" s="21" t="str">
+      <c r="I107" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J107" s="21" t="str">
+      <c r="J107" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5086,11 +5115,11 @@
       <c r="H108" t="s">
         <v>118</v>
       </c>
-      <c r="I108" s="21" t="str">
+      <c r="I108" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J108" s="21" t="str">
+      <c r="J108" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5120,11 +5149,11 @@
       <c r="H109" t="s">
         <v>118</v>
       </c>
-      <c r="I109" s="21" t="str">
+      <c r="I109" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J109" s="21" t="str">
+      <c r="J109" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5154,11 +5183,11 @@
       <c r="H110" t="s">
         <v>118</v>
       </c>
-      <c r="I110" s="21" t="str">
+      <c r="I110" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J110" s="21" t="str">
+      <c r="J110" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5188,11 +5217,11 @@
       <c r="H111" t="s">
         <v>118</v>
       </c>
-      <c r="I111" s="21" t="str">
+      <c r="I111" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J111" s="21" t="str">
+      <c r="J111" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5222,11 +5251,11 @@
       <c r="H112" t="s">
         <v>118</v>
       </c>
-      <c r="I112" s="21" t="str">
+      <c r="I112" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J112" s="21" t="str">
+      <c r="J112" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5256,11 +5285,11 @@
       <c r="H113" t="s">
         <v>118</v>
       </c>
-      <c r="I113" s="21" t="str">
+      <c r="I113" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J113" s="21" t="str">
+      <c r="J113" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5290,11 +5319,11 @@
       <c r="H114" t="s">
         <v>118</v>
       </c>
-      <c r="I114" s="21" t="str">
+      <c r="I114" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J114" s="21" t="str">
+      <c r="J114" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5324,11 +5353,11 @@
       <c r="H115" t="s">
         <v>118</v>
       </c>
-      <c r="I115" s="21" t="str">
+      <c r="I115" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J115" s="21" t="str">
+      <c r="J115" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5358,11 +5387,11 @@
       <c r="H116" t="s">
         <v>118</v>
       </c>
-      <c r="I116" s="21" t="str">
+      <c r="I116" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J116" s="21" t="str">
+      <c r="J116" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5392,11 +5421,11 @@
       <c r="H117" t="s">
         <v>118</v>
       </c>
-      <c r="I117" s="21" t="str">
+      <c r="I117" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J117" s="21" t="str">
+      <c r="J117" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5426,11 +5455,11 @@
       <c r="H118" t="s">
         <v>118</v>
       </c>
-      <c r="I118" s="21" t="str">
+      <c r="I118" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J118" s="21" t="str">
+      <c r="J118" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5460,11 +5489,11 @@
       <c r="H119" t="s">
         <v>118</v>
       </c>
-      <c r="I119" s="21" t="str">
+      <c r="I119" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J119" s="21" t="str">
+      <c r="J119" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5494,11 +5523,11 @@
       <c r="H120" t="s">
         <v>118</v>
       </c>
-      <c r="I120" s="21" t="str">
+      <c r="I120" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J120" s="21" t="str">
+      <c r="J120" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5528,11 +5557,11 @@
       <c r="H121" t="s">
         <v>118</v>
       </c>
-      <c r="I121" s="21" t="str">
+      <c r="I121" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J121" s="21" t="str">
+      <c r="J121" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5562,11 +5591,11 @@
       <c r="H122" t="s">
         <v>118</v>
       </c>
-      <c r="I122" s="21" t="str">
+      <c r="I122" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J122" s="21" t="str">
+      <c r="J122" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5596,11 +5625,11 @@
       <c r="H123" t="s">
         <v>118</v>
       </c>
-      <c r="I123" s="21" t="str">
+      <c r="I123" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J123" s="21" t="str">
+      <c r="J123" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5630,11 +5659,11 @@
       <c r="H124" t="s">
         <v>118</v>
       </c>
-      <c r="I124" s="21" t="str">
+      <c r="I124" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J124" s="21" t="str">
+      <c r="J124" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5664,11 +5693,11 @@
       <c r="H125" t="s">
         <v>118</v>
       </c>
-      <c r="I125" s="21" t="str">
+      <c r="I125" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J125" s="21" t="str">
+      <c r="J125" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5698,11 +5727,11 @@
       <c r="H126" t="s">
         <v>118</v>
       </c>
-      <c r="I126" s="21" t="str">
+      <c r="I126" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J126" s="21" t="str">
+      <c r="J126" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -5732,16 +5761,16 @@
       <c r="H127" t="s">
         <v>118</v>
       </c>
-      <c r="I127" s="21" t="str">
+      <c r="I127" s="19" t="str">
         <f t="shared" si="3"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J127" s="21" t="str">
+      <c r="J127" s="19" t="str">
         <f t="shared" si="4"/>
         <v>LoGrad-LoElev</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -5754,7 +5783,7 @@
       <c r="D128" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E128" s="23">
+      <c r="E128" s="21">
         <v>450</v>
       </c>
       <c r="F128" t="s">
@@ -5763,16 +5792,16 @@
       <c r="G128" t="b">
         <v>1</v>
       </c>
-      <c r="I128" s="21" t="str">
+      <c r="I128" s="19" t="str">
         <f t="shared" si="3"/>
         <v>ORWA</v>
       </c>
-      <c r="J128" s="21" t="str">
+      <c r="J128" s="19" t="str">
         <f t="shared" si="4"/>
         <v>ORWA</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -5794,19 +5823,19 @@
       <c r="G129" t="b">
         <v>1</v>
       </c>
-      <c r="H129" s="24">
+      <c r="H129" s="22">
         <v>45082</v>
       </c>
-      <c r="I129" s="21" t="str">
+      <c r="I129" s="19" t="str">
         <f t="shared" si="3"/>
         <v>ORWA</v>
       </c>
-      <c r="J129" s="21" t="str">
+      <c r="J129" s="19" t="str">
         <f t="shared" si="4"/>
         <v>ORWA</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>123</v>
       </c>
@@ -5828,19 +5857,19 @@
       <c r="G130" t="b">
         <v>1</v>
       </c>
-      <c r="H130" s="24">
+      <c r="H130" s="22">
         <v>45082</v>
       </c>
-      <c r="I130" s="21" t="str">
+      <c r="I130" s="19" t="str">
         <f t="shared" si="3"/>
         <v>ORWA</v>
       </c>
-      <c r="J130" s="21" t="str">
+      <c r="J130" s="19" t="str">
         <f t="shared" si="4"/>
         <v>ORWA</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>123</v>
       </c>
@@ -5862,19 +5891,19 @@
       <c r="G131" t="b">
         <v>1</v>
       </c>
-      <c r="H131" s="24">
+      <c r="H131" s="22">
         <v>45082</v>
       </c>
-      <c r="I131" s="21" t="str">
+      <c r="I131" s="19" t="str">
         <f t="shared" ref="I131:I135" si="5">B131</f>
         <v>ORWA</v>
       </c>
-      <c r="J131" s="21" t="str">
+      <c r="J131" s="19" t="str">
         <f t="shared" ref="J131:J135" si="6">B131</f>
         <v>ORWA</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>123</v>
       </c>
@@ -5896,14 +5925,14 @@
       <c r="G132" t="b">
         <v>1</v>
       </c>
-      <c r="H132" s="24">
+      <c r="H132" s="22">
         <v>45082</v>
       </c>
-      <c r="I132" s="21" t="str">
+      <c r="I132" s="19" t="str">
         <f t="shared" si="5"/>
         <v>ORWA</v>
       </c>
-      <c r="J132" s="21" t="str">
+      <c r="J132" s="19" t="str">
         <f t="shared" si="6"/>
         <v>ORWA</v>
       </c>
@@ -5915,7 +5944,7 @@
       <c r="B133" t="s">
         <v>103</v>
       </c>
-      <c r="C133" s="25" t="s">
+      <c r="C133" s="23" t="s">
         <v>151</v>
       </c>
       <c r="D133" s="8" t="s">
@@ -5930,14 +5959,14 @@
       <c r="G133" t="b">
         <v>0</v>
       </c>
-      <c r="H133" s="24">
+      <c r="H133" s="22">
         <v>45083</v>
       </c>
-      <c r="I133" s="21" t="str">
+      <c r="I133" s="19" t="str">
         <f t="shared" si="5"/>
         <v>HiGrad-HiElev</v>
       </c>
-      <c r="J133" s="21" t="str">
+      <c r="J133" s="19" t="str">
         <f t="shared" si="6"/>
         <v>HiGrad-HiElev</v>
       </c>
@@ -5949,7 +5978,7 @@
       <c r="B134" t="s">
         <v>54</v>
       </c>
-      <c r="C134" s="25" t="s">
+      <c r="C134" s="23" t="s">
         <v>151</v>
       </c>
       <c r="D134" s="8" t="s">
@@ -5964,14 +5993,14 @@
       <c r="G134" t="b">
         <v>0</v>
       </c>
-      <c r="H134" s="24">
+      <c r="H134" s="22">
         <v>45083</v>
       </c>
-      <c r="I134" s="21" t="str">
+      <c r="I134" s="19" t="str">
         <f t="shared" si="5"/>
         <v>HiGrad-LoElev</v>
       </c>
-      <c r="J134" s="21" t="str">
+      <c r="J134" s="19" t="str">
         <f t="shared" si="6"/>
         <v>HiGrad-LoElev</v>
       </c>
@@ -5983,7 +6012,7 @@
       <c r="B135" t="s">
         <v>119</v>
       </c>
-      <c r="C135" s="25" t="s">
+      <c r="C135" s="23" t="s">
         <v>151</v>
       </c>
       <c r="D135" s="8" t="s">
@@ -5998,14 +6027,14 @@
       <c r="G135" t="b">
         <v>0</v>
       </c>
-      <c r="H135" s="24">
+      <c r="H135" s="22">
         <v>45083</v>
       </c>
-      <c r="I135" s="21" t="str">
+      <c r="I135" s="19" t="str">
         <f t="shared" si="5"/>
         <v>LoGrad-LoElev</v>
       </c>
-      <c r="J135" s="21" t="str">
+      <c r="J135" s="19" t="str">
         <f t="shared" si="6"/>
         <v>LoGrad-LoElev</v>
       </c>
@@ -6017,7 +6046,7 @@
       <c r="B136" t="s">
         <v>155</v>
       </c>
-      <c r="C136" s="26" t="s">
+      <c r="C136" s="24" t="s">
         <v>157</v>
       </c>
       <c r="D136" s="8" t="s">
@@ -6032,14 +6061,14 @@
       <c r="G136" t="b">
         <v>1</v>
       </c>
-      <c r="H136" s="24" t="s">
+      <c r="H136" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="I136" s="21" t="str">
+      <c r="I136" s="19" t="str">
         <f t="shared" ref="I136:I137" si="7">B136</f>
         <v>CREMP_Keys</v>
       </c>
-      <c r="J136" s="21" t="str">
+      <c r="J136" s="19" t="str">
         <f t="shared" ref="J136:J137" si="8">B136</f>
         <v>CREMP_Keys</v>
       </c>
@@ -6051,7 +6080,7 @@
       <c r="B137" t="s">
         <v>156</v>
       </c>
-      <c r="C137" s="26" t="s">
+      <c r="C137" s="24" t="s">
         <v>157</v>
       </c>
       <c r="D137" s="8" t="s">
@@ -6066,67 +6095,742 @@
       <c r="G137" t="b">
         <v>1</v>
       </c>
-      <c r="H137" s="24" t="s">
+      <c r="H137" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="I137" s="21" t="str">
+      <c r="I137" s="19" t="str">
         <f t="shared" si="7"/>
         <v>NOT_CREMP_Keys</v>
       </c>
-      <c r="J137" s="21" t="str">
+      <c r="J137" s="19" t="str">
         <f t="shared" si="8"/>
         <v>NOT_CREMP_Keys</v>
       </c>
     </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>162</v>
+      </c>
+      <c r="B138" t="s">
+        <v>163</v>
+      </c>
+      <c r="C138" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138">
+        <v>150</v>
+      </c>
+      <c r="F138" t="s">
+        <v>38</v>
+      </c>
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="I138" t="s">
+        <v>162</v>
+      </c>
+      <c r="J138" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>162</v>
+      </c>
+      <c r="B139" t="s">
+        <v>164</v>
+      </c>
+      <c r="C139" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" t="s">
+        <v>16</v>
+      </c>
+      <c r="E139">
+        <v>150</v>
+      </c>
+      <c r="F139" t="s">
+        <v>38</v>
+      </c>
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="I139" t="s">
+        <v>162</v>
+      </c>
+      <c r="J139" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>162</v>
+      </c>
+      <c r="B140" t="s">
+        <v>165</v>
+      </c>
+      <c r="C140" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140">
+        <v>150</v>
+      </c>
+      <c r="F140" t="s">
+        <v>38</v>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="I140" t="s">
+        <v>162</v>
+      </c>
+      <c r="J140" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>162</v>
+      </c>
+      <c r="B141" t="s">
+        <v>166</v>
+      </c>
+      <c r="C141" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141">
+        <v>150</v>
+      </c>
+      <c r="F141" t="s">
+        <v>38</v>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="I141" t="s">
+        <v>162</v>
+      </c>
+      <c r="J141" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>162</v>
+      </c>
+      <c r="B142" t="s">
+        <v>163</v>
+      </c>
+      <c r="C142" t="s">
+        <v>167</v>
+      </c>
+      <c r="D142" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142">
+        <v>30</v>
+      </c>
+      <c r="F142" t="s">
+        <v>41</v>
+      </c>
+      <c r="G142" t="b">
+        <v>0</v>
+      </c>
+      <c r="I142" t="s">
+        <v>162</v>
+      </c>
+      <c r="J142" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>162</v>
+      </c>
+      <c r="B143" t="s">
+        <v>165</v>
+      </c>
+      <c r="C143" t="s">
+        <v>167</v>
+      </c>
+      <c r="D143" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143">
+        <v>30</v>
+      </c>
+      <c r="F143" t="s">
+        <v>41</v>
+      </c>
+      <c r="G143" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" t="s">
+        <v>162</v>
+      </c>
+      <c r="J143" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>162</v>
+      </c>
+      <c r="B144" t="s">
+        <v>163</v>
+      </c>
+      <c r="C144" t="s">
+        <v>168</v>
+      </c>
+      <c r="D144" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144">
+        <v>11.6</v>
+      </c>
+      <c r="F144" t="s">
+        <v>41</v>
+      </c>
+      <c r="G144" t="b">
+        <v>0</v>
+      </c>
+      <c r="I144" t="s">
+        <v>162</v>
+      </c>
+      <c r="J144" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>162</v>
+      </c>
+      <c r="B145" t="s">
+        <v>165</v>
+      </c>
+      <c r="C145" t="s">
+        <v>168</v>
+      </c>
+      <c r="D145" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145">
+        <v>11.6</v>
+      </c>
+      <c r="F145" t="s">
+        <v>41</v>
+      </c>
+      <c r="G145" t="b">
+        <v>0</v>
+      </c>
+      <c r="I145" t="s">
+        <v>162</v>
+      </c>
+      <c r="J145" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>162</v>
+      </c>
+      <c r="B146" t="s">
+        <v>163</v>
+      </c>
+      <c r="C146" t="s">
+        <v>169</v>
+      </c>
+      <c r="D146" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146">
+        <v>70</v>
+      </c>
+      <c r="F146" t="s">
+        <v>170</v>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="I146" t="s">
+        <v>162</v>
+      </c>
+      <c r="J146" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>162</v>
+      </c>
+      <c r="B147" t="s">
+        <v>164</v>
+      </c>
+      <c r="C147" t="s">
+        <v>169</v>
+      </c>
+      <c r="D147" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147">
+        <v>70</v>
+      </c>
+      <c r="F147" t="s">
+        <v>170</v>
+      </c>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="I147" t="s">
+        <v>162</v>
+      </c>
+      <c r="J147" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>162</v>
+      </c>
+      <c r="B148" t="s">
+        <v>165</v>
+      </c>
+      <c r="C148" t="s">
+        <v>169</v>
+      </c>
+      <c r="D148" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148">
+        <v>70</v>
+      </c>
+      <c r="F148" t="s">
+        <v>170</v>
+      </c>
+      <c r="G148" t="b">
+        <v>1</v>
+      </c>
+      <c r="I148" t="s">
+        <v>162</v>
+      </c>
+      <c r="J148" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>162</v>
+      </c>
+      <c r="B149" t="s">
+        <v>166</v>
+      </c>
+      <c r="C149" t="s">
+        <v>169</v>
+      </c>
+      <c r="D149" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149">
+        <v>70</v>
+      </c>
+      <c r="F149" t="s">
+        <v>170</v>
+      </c>
+      <c r="G149" t="b">
+        <v>1</v>
+      </c>
+      <c r="I149" t="s">
+        <v>162</v>
+      </c>
+      <c r="J149" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>162</v>
+      </c>
+      <c r="B150" t="s">
+        <v>163</v>
+      </c>
+      <c r="C150" t="s">
+        <v>171</v>
+      </c>
+      <c r="D150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150" t="s">
+        <v>172</v>
+      </c>
+      <c r="G150" t="b">
+        <v>1</v>
+      </c>
+      <c r="I150" t="s">
+        <v>162</v>
+      </c>
+      <c r="J150" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151" t="s">
+        <v>164</v>
+      </c>
+      <c r="C151" t="s">
+        <v>171</v>
+      </c>
+      <c r="D151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151" t="s">
+        <v>172</v>
+      </c>
+      <c r="G151" t="b">
+        <v>1</v>
+      </c>
+      <c r="I151" t="s">
+        <v>162</v>
+      </c>
+      <c r="J151" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>162</v>
+      </c>
+      <c r="B152" t="s">
+        <v>165</v>
+      </c>
+      <c r="C152" t="s">
+        <v>171</v>
+      </c>
+      <c r="D152" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152" t="s">
+        <v>172</v>
+      </c>
+      <c r="G152" t="b">
+        <v>1</v>
+      </c>
+      <c r="I152" t="s">
+        <v>162</v>
+      </c>
+      <c r="J152" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>162</v>
+      </c>
+      <c r="B153" t="s">
+        <v>166</v>
+      </c>
+      <c r="C153" t="s">
+        <v>171</v>
+      </c>
+      <c r="D153" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153" t="s">
+        <v>172</v>
+      </c>
+      <c r="G153" t="b">
+        <v>1</v>
+      </c>
+      <c r="I153" t="s">
+        <v>162</v>
+      </c>
+      <c r="J153" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>162</v>
+      </c>
+      <c r="B154" t="s">
+        <v>163</v>
+      </c>
+      <c r="C154" t="s">
+        <v>173</v>
+      </c>
+      <c r="D154" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154" t="s">
+        <v>174</v>
+      </c>
+      <c r="G154" t="b">
+        <v>1</v>
+      </c>
+      <c r="I154" t="s">
+        <v>162</v>
+      </c>
+      <c r="J154" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>162</v>
+      </c>
+      <c r="B155" t="s">
+        <v>164</v>
+      </c>
+      <c r="C155" t="s">
+        <v>173</v>
+      </c>
+      <c r="D155" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155" t="s">
+        <v>174</v>
+      </c>
+      <c r="G155" t="b">
+        <v>1</v>
+      </c>
+      <c r="I155" t="s">
+        <v>162</v>
+      </c>
+      <c r="J155" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156" t="s">
+        <v>165</v>
+      </c>
+      <c r="C156" t="s">
+        <v>173</v>
+      </c>
+      <c r="D156" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156" t="s">
+        <v>174</v>
+      </c>
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
+      <c r="I156" t="s">
+        <v>162</v>
+      </c>
+      <c r="J156" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157" t="s">
+        <v>166</v>
+      </c>
+      <c r="C157" t="s">
+        <v>173</v>
+      </c>
+      <c r="D157" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157" t="s">
+        <v>174</v>
+      </c>
+      <c r="G157" t="b">
+        <v>1</v>
+      </c>
+      <c r="I157" t="s">
+        <v>162</v>
+      </c>
+      <c r="J157" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158" t="s">
+        <v>163</v>
+      </c>
+      <c r="C158" t="s">
+        <v>175</v>
+      </c>
+      <c r="D158" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158" t="s">
+        <v>176</v>
+      </c>
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+      <c r="I158" t="s">
+        <v>162</v>
+      </c>
+      <c r="J158" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" t="s">
+        <v>164</v>
+      </c>
+      <c r="C159" t="s">
+        <v>175</v>
+      </c>
+      <c r="D159" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159" t="s">
+        <v>176</v>
+      </c>
+      <c r="G159" t="b">
+        <v>1</v>
+      </c>
+      <c r="I159" t="s">
+        <v>162</v>
+      </c>
+      <c r="J159" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160" t="s">
+        <v>165</v>
+      </c>
+      <c r="C160" t="s">
+        <v>175</v>
+      </c>
+      <c r="D160" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160" t="s">
+        <v>176</v>
+      </c>
+      <c r="G160" t="b">
+        <v>1</v>
+      </c>
+      <c r="I160" t="s">
+        <v>162</v>
+      </c>
+      <c r="J160" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" t="s">
+        <v>166</v>
+      </c>
+      <c r="C161" t="s">
+        <v>175</v>
+      </c>
+      <c r="D161" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161" t="s">
+        <v>176</v>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="I161" t="s">
+        <v>162</v>
+      </c>
+      <c r="J161" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J132" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="BCG_MariNW_Bugs500ct"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="G2:G127 H100">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+  <autoFilter ref="A1:J132" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <conditionalFormatting sqref="C2:C66">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>$G2=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$G128=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G153">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$G2=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C66">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$G3=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H101:H127">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="H100:H127">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G128:G132">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$G128=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G133:G135">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G136:G137">
+  <conditionalFormatting sqref="G154:G161">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
